--- a/Output/el_espectador.xlsx
+++ b/Output/el_espectador.xlsx
@@ -498,12 +498,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>They deliver implements to relief agencies in area near the Nevado del Ruiz</t>
+          <t>They deliver implements to relief agencies in the area near Nevado del Ruiz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.11 May 2023 730 a m.They deliver implements to relief agencies in the area near the Nevado del Ruiz.The delivery of equipment is being carried out in 14 municipalities of the department of Tolima for people who are in the radius of the 15 kilometers closest to the volcano within the implements delivered there are rescue kits kit in heights and communication radios.Environmental writing.0. Save.17 type B kitfalls were already delivered. Tolima Government Photo.In Tolima Authorities began the delivery of implements and equipment to relief agencies and local communities in the area of influence of the Nevado del Ruiz volcano as reported by the Department's governorate, they are a first -cylinder rescue kitfits in heights in heights and portable plants toPeople who are on the radius of the 15 kilometers closest to the volcano.In other words, the delivery of teams will be carried out in the 14 municipalities of the area of influence of the Nevado del Ruiz volcano The management for the delivery was carried out by the Tolima Governorate together with the National Unit for Disaster Risk Management Ungrd the Ministry of ICTThe Colombian Red Cross and the United States Agency for International Development USAID can also read up to the middle of the world could be in a different climatic zone for 2100. Andrea Mayorquín Perdomo Director of Risk Management of the Government of Tolima reported thatThey delivered 17 type B kit and three rescue kits at heights added that they also have electric plants and 22 communications radios which have already been delivered to the communities that make up the 15 -kilometer radius and we are delivering 38 more for a total of 60portable communication radios.These radios will be linked to the Communications Chamber of the Ministry of Environment and Risk Management of the Tolima Government The Colombian Geological Service and relief agencies there is constant communication with these agencies added Majorquin in case an emergency can be presentedInteresting how we study whales if we just see them when they emerge to the surface.We have articulated the Risk Management System about 150 men who have allowed to increase the awareness of the entire community preparing and socializing the response protocol in case of volcanic eruption indicated the official.According to the latest report of the SGC Colombian Geological Service, the volcano remains at the level of orange activity where it has been maintained for more than a month during the day last Tuesday and Wednesday a slight increase in earthquakes related to the movement of fluids was recordedinside the volcano.Ash emissions also continue at 321 am on Wednesday, one that reached a height of 2000 meters were recorded around 740 am communities of the window sectors in Villahermosa and the cabin in Murillo both in Tolima registered ash fall.You want to know the latest news about the atmosphere we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.Volcano.Nevado del Ruiz volcano.Go to comments</t>
+          <t>Home. Atmosphere. 11 May 2023 730 am. They deliver supplies to relief agencies in the area near Nevado del Ruiz. The delivery of equipment is being carried out in 14 municipalities of the department of Tolima for people who are in the radius of the closest 15 kilometers to the volcano Among the delivered implements are first aid kits, rescue kits at heights and communication radios. Drafting Environment. 0. Save. 17 type B first aid kits have already been delivered. Photo Gobernación del Tolima. In Tolima, authorities began the delivery of implements and equipment to relief agencies and local communities in the area of ​​influence of the Nevado del Ruiz volcano. According to the department's Governor's Office, they are type B first-aid kits, rescue kits at heights, power plants, and portable radios to people who are in the radius of the closest 15 kilometers to the volcano. In other words, the delivery of equipment will be carried out in the 14 municipalities of the area of ​​influence of the Nevado del Ruiz volcano. The management for the delivery was carried out by the Government of Tolima together with the National Unit for Disaster Risk Management UNGRD the Ministry of ICT the Colombian Red Cross and the United States Agency for International Development USAID You can also read Up to half the world could be in a different climate zone by 2100. Andrea Mayorquín Perdomo, Director of Risk Management for the Government of Tolima reported that they delivered 17 type B first aid kits and three height rescue kits. He added that they also have power plants and 22 communications radios which have already been delivered to the communities that make up the 15 kilometer radius and we are delivering 38 more for a total of 60 portable communication radios. These radios will be linked to the communications room of the Secretary of the Environment and Risk Management of the Government of Tolima, the Colombian Geological Service and relief agencies There is constant communication with these agencies added Mayorquín in the event of an emergency. interest How do we study whales if we hardly see them when they emerge to the surface. We have articulated the risk management system for about 150 men who have increased awareness throughout the community by preparing and disseminating the response protocol in the event of a volcanic eruption, said the official. According to the latest report from the Colombian Geological Service SGC, the volcano remains at an orange level of activity, where it has been maintained for more than a month. During the day last Tuesday and Wednesday, there was a slight increase in earthquakes related to the movement of fluids. inside the volcano. Ash emissions also continue At 321 am on Wednesday, one that reached a height of 2000 meters was recorded. At 740 am communities in the Ventanas sector in Villahermosa and La Cabaña in Murillo, both in Tolima, recorded ash fall. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Volcano. Nevado del Ruiz volcano. go to comments</t>
         </is>
       </c>
     </row>
@@ -516,12 +516,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Municipalities at risk by the Nevado del Ruiz will have four emergency stations</t>
+          <t>Municipalities at risk from Nevado del Ruiz will have four emergency stations</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Home.Economy.2. You can still read 2 more articles create your account right now and enjoy 10 free monthly content.Creat your account.May 1023 1150 A m.Municipalities at risk by the Nevado del Ruiz will have four emergency stations.The Ministry of ICT issued the licenses for these radio stations which will focus on providing communication channels that facilitate the prevention and recovery prevention actions before an eventual eruption.Economy writing.0. Save.Since March 30, it was declared to alert orange in the Nevado Volcano of the Ruiz Photographic Archive of the Colombian Geological Service.PHOTO SGC.In order to mitigate and attend the risks that the orange alert represents in which the Nevado volcano of the Ruiz remains the Ministry of ICT approved the licenses so that four emergency stations enter to operate.These will benefit municipalities near the snowfall within those who are Casabianca Murillo Villahermosa and Santa Isabel in the department of Tolima, it must be taken into account that the first three have been declared as high -risk territories by the National Risk Management Unit.Also read Nevado del Ruiz Volcano This is its state on May 9.The municipality of Herveo is expected to also have this channel in the next few days detailed the portfolio, it must be said that the licenses were requested by the municipalities of the municipalities and these will be responsible for their adequate management.The purpose of these radio stations is to provide communication channels that facilitate prevention and recovery prevention actions before an eventual eruption.With the entry into operation of these stations we are giving the people of the region the possibility of receiving information on time about the state of emergency of the volcano the recommendations of the care and instructions organisms that will be key to avoiding a disaster and safeguarding liveswhich is our priority, said Minister Tic Mauricio Lizcano.You may be interested in Animal Foundation surrounding the Nevado del Ruiz needs your help.The portfolio described the expedition of these licenses as record time taking into account that the process that was done with the National Spectrum Agency was advanced in less than a week however the portfolio did not report what the dial will be to tune in to these stations.Having this license is excellent news an issuer is the way people have to communicate through the radio we can inform what happens to the volcano permanently and immediately explained the mayor of Murillo Antonio José García.The operating time of these stations will depend on the disaster declaration or calamity situation in the municipalities where they operate, that is, their permanence may be extended as long as the need is demonstrated.You already learned about the latest economic news we invite you to see them in the viewer.Follow us on Google News.Recommended topics.Economic news.Economy.MINTIC.Nevado del Ruiz volcano.Go to comments.The most seen in economics.Economy.Disney registered a drop in the number of subscribers.5 hours ago.Personal finance.Consumer confidence has been the lowest since May 2021 fedesvelopment.18 hours ago.Personal finance.Citizen Income Consult online if you are beneficiary and avoid ranks.21 hours ago</t>
+          <t>Home. Economy. 2. You can still read 2 more articles Create your account right now and enjoy 10 free monthly content. Creat your account. 10 May 2023 1150 am. Municipalities at risk from Nevado del Ruiz will have four emergency stations. The Ministry of ICT issued the licenses for these radio stations, which will focus on providing communication channels that facilitate prevention, care and recovery actions in the event of an eventual eruption. Writing Economy. 0. Save. Since March 30, an orange alert was declared on the Nevado del Ruiz volcano Photographic archive of the Colombian Geological Service. SGC photo. In order to mitigate and address the risks posed by the orange alert in which the Nevado del Ruiz volcano remains, the Ministry of ICT approved the licenses for four emergency stations to start operating. These will benefit municipalities close to the snow-capped mountain, including Casabianca Murillo Villahermosa and Santa Isabel in the department of Tolima. It must be taken into account that the first three have been declared high-risk territories by the National Risk Management Unit. Also read Nevado del Ruiz Volcano this is its state on May 9. It is expected that the municipality of Herveo will also have this channel in the coming days, the portfolio detailed. It must be said that the licenses were requested by the mayors of the municipalities and they will be responsible for their proper management. The purpose of these radio stations is to provide communication channels that facilitate prevention, care and recovery actions in the event of an eventual eruption. With the entry into operation of these stations, we are giving the people of the region the possibility of receiving timely information on the state of the volcano's emergency, the recommendations of the attention agencies and instructions that will be key to avoiding a disaster and safeguarding lives. that it is our priority, affirmed the ICT Minister Mauricio Lizcano. It may interest you. The Animal Foundation near Nevado del Ruiz needs your help. The ministry described the issuance of these licenses as taking record time, taking into account that the procedure that was carried out with the National Spectrum Agency was brought forward in less than a week. However, the ministry did not report on which dials will be used to tune in to these stations. . Having this license is excellent news. A station is the way people have to communicate through the radio, we can inform what happens with the volcano permanently and immediately, explained the mayor of Murillo, Antonio José García. The operating time of these stations will depend on the declaration of disaster or calamity in the municipalities where they operate. In other words, their permanence may be extended as long as the need is demonstrated. You already found out about the latest economic news. We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. Economic news. Economy. Mintic. Nevado del Ruiz volcano. Go to comments. The most viewed in Economics. Economy. Disney registered a drop in the number of subscribers. 5 hours ago. Personal finance. Consumer confidence is the lowest since May 2021 Fedesarrollo. 18 hours ago. Personal finance. Citizen Income check online if you are a beneficiary and avoid lines. 21 hours ago</t>
         </is>
       </c>
     </row>
@@ -534,12 +534,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano This is its state on May 9</t>
+          <t>Nevado del Ruiz volcano this is its state on May 9</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.May 923 957 A m.Nevado del Ruiz volcano This is its state on May 9.The activity level of the volcano remains in orange.Environmental writing.0. Save.Seismic activity continues inside the Nevado del Ruiz volcano.PHOTO SGC.This Tuesday, May 9, the SGC Colombian Geological Service published the last report on the state of the Nevado del Ruiz volcano according to the statement El Nevado remains at the orange activity level as it has been since the end of March and could stay there for weeks more reported the entity.During last Monday, May 8 and what is going on today, the seismic activity related to the movement of fluids inside the volcanic ducts is predominated compared to what is recorded on Sunday the number of earthquakes and the releled seismic energy presented increases presented increasesYesterday you can also read how to act in the face of Ash departure from the Nevado del Ruiz, this says Minsalud.It also continues the seismicity associated with rock fracturing inside the volcanic building that showed similar behavior in the number of earthquakes and in seismic energy compared to May 7 these earthquakes were located in the sandy cratera maximum distance of 5 kilometers and at depths of between 1 and 6 kilometers.With respect to the maximum height of the gase column I observed ash this was 1000 meters measured from the top of the volcano and was related to an ash emission recorded on May 8 at 0727 pm.The preferential dispersion direction of the gase column was to the West urination and northwest of the volcano from the satellite monitoring platforms, several important thermal anomalies were observed at the bottom of the crater on the other hand, the variations in the tear of sulfur dioxide andThe water vapor exit from the crater to the atmosphere added the SGC, it may be interested in slight increase in number of earthquakes in the Nevado Vivan of the Ruiz.All these indicators support what the service has reiterated since the level of activity of the volcano was raised is still very unstable, so it is necessary to maintain the prevention measures that the authorities at the regional and local national level have recommended.From the SGC we notice that the level of activity of the Nevado del Ruiz volcano will remain at the orange level for several weeks during this time in case an acceleration of the processes that suggest an imminent eruption or that the eruption itself occurs in itself the levelActivity will be changed to red indicated the SGC.You want to know the latest news about the atmosphere we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz volcano.Nevado del Ruiz.Go to comments</t>
+          <t>Home. Atmosphere. 9 May 2023 957 am. Nevado del Ruiz volcano this is its state on May 9. The activity level of the volcano remains orange. Drafting Environment. 0. Save. Seismic activity continues inside the Nevado del Ruiz volcano. SGC photo. This Tuesday, May 9, the Colombian Geological Service SGC published the latest report on the state of the Nevado del Ruiz volcano. According to the statement, the Nevado remains at the orange level of activity as it has been since the end of March and could stay there for more weeks, the entity reported. . During last Monday, May 8 and so far today, the seismic activity related to the movement of fluids inside the volcanic conduits continues to predominate. Compared to what was registered on Sunday, the number of earthquakes and the seismic energy released showed increases in yesterday's session You can also read How to act when ash is released from Nevado del Ruiz This is what the Ministry of Health says. The seismicity associated with fracturing of rock inside the volcanic edifice also continues, which showed a similar behavior in the number of earthquakes and in seismic energy compared to May 7. These earthquakes were located in the Arenas crater in a scattered manner around it at a maximum distance of 5 kilometers and at depths between 1 and 6 kilometers. Regarding the maximum height of the column of gases and/or ash observed, this was 1000 meters measured from the top of the volcano and was related to an ash emission recorded on May 8 at 0727 pm. The preferential dispersion direction of the gas column was towards the west-southwest and northwest of the volcano From the satellite monitoring platforms, several important thermal anomalies were observed at the bottom of the crater On the other hand, variations in the degassing of sulfur dioxide and the exit of water vapor from the crater to the atmosphere added the SGC It may interest you Slight increase in the number of earthquakes in the Nevado del Ruiz volcano. All these indicators support what the Service has reiterated since the level of activity of the volcano was raised, it is still very unstable. That is why it is necessary to maintain the prevention measures that the authorities at the national, regional and local levels have recommended. From the SGC we warn that the level of activity of the Nevado del Ruiz volcano will remain at an orange level for several weeks. During this time, in the event that there is an acceleration of the processes that suggest an imminent eruption or that the eruption itself occurs, the level of activity will change to red indicated the SGC. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Nevado del Ruiz. go to comments</t>
         </is>
       </c>
     </row>
@@ -552,12 +552,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Animal Foundation near the Nevado del Ruiz needs your help</t>
+          <t>Animal Foundation near Nevado del Ruiz needs your help</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Home.The Zoocial Network.1. You can still read 1 more article create your account right now and enjoy 10 free monthly content.Creat your account.May 823 638 p m.Foundation of animals surrounding the Nevado del Ruiz needs your help.The Amparo Foundation located in the New Spring Vereda in Villamaría Caldas takes care of 220 animals between cats and pigs dogs.The Zoocial Network.0. Save.Juliana Coco Founding of the shelter told the Zoocial Network that she fears for the integrity of animals.Amparo Foundation Photo.The seismic activity of the Nevar volcano of the Ruiz continues on orange alert as reported by the Colombian Geological Surof influence of the volcano.Reading animal abuse in Antioquia found ave rapa tied from one of its legs.The Amparo Foundation located in the New Spring Vereda in Villamaría Caldas takes care of 220 animals between cats and pigs Juliana Coco Founding of the refuge told the Zoocial Network to fear for their integrity.At this time we are close to the Chinchiná River located in the Centersur region of the department of Caldas and we are concerned about the possible eruption of the Nevado del Ruiz volcano because here the avalanche passed in the 85 also every day we must feed each of them and maintainHis very clean places says Juliana.According to the content creator known as Cotry who has disseminated the case through their social networks the help they are requesting is to make an evacuation route for animals since making a foundation from scratch or moving it comes out very cost.It is easier to make the evacuation route in such an emergency, there would be about 10 minutes or so to open the kennels and that all animals come out on that route said the creator of content to the Zoocial Network.It might interest you why it is important to have a cat or dog in the house advantages and benefits.At this time, the Foundation is receiving food for cats and pigs in addition to cleaning items such as bleving and muddy dusting soap.On the other hand if you want to donate money to help animals can do it through.Bancolombia counts savings 62300015196 and Daviplata 3136617132.ICA recommendations to protect animals that are in risk areas by the Nevado del Ruiz.The ICA Colombian Agricultural Institute adopted measures to protect agricultural health and support farmers and ranchers found in the area of influence of the Nevado del Ruiz volcano.The ICA decided to give urgent and priority attention for the issuance of health guides of internal mobilization to the producers and marketers who mobilize with their animals to land or temporary shelters, under the preventive evacuation that is advanced in the area of reachingDeclare the alert state at the red level is authorized to mobilize the livestock without the health guide, the press report clarifies that once the animals are at the destination site will have to be reported to the Institute's office within the next eightdays.It also authorizes the provisional lifting of blockages to the mobilization of site that are located in areas where preventive evacuation is required.The ICA clarifies that these exceptional measures will only govern for the mobilization of animals in.Tolima Villahermosa Herveo Murillo Lebanon Lérida Armero Guayabal Falan Palocabildo Fresno Honda Mariquita Venadillo Ambalema and Casabianca.Caldas Villamaría Chinchiná Palestine Anserma Marulanda Neira and Manizales.Risaralda Santa Rosa de Cabal Dosquebradas Marseille and Pereira.Cundinamarca Guaduas.He wants to be up to date and knowing the latest news about the animal world invites him to see them in the Zoocial Network also if he has a story or is interested in having his with his pet can write us to Laredoocialellelespectadorcom.Follow us on Google News.Recommended topics.The Zoocial Network.Animals.Pets.News today.Animal Foundation.Go to comments.The most seen in dogs.Dogs.Not for animal abuse was found with wounds in a Transmilenio.23 hours ago.Dogs.How to know the age of a dog adopted or rescued so can calculate it.21 hours ago.The Zoocial Network.Guardians of the galaxy was awarded to raise awareness about animal abuse.May 1023 953 A m.By Tabola.Sponsored links.It may interest you.They find Danna Valentina Ovalle Ávila in Bogotá.The viewer.Solar panels are now a bargain thanks to the government.Solar panels Search ads.Forget about feet pain with our high quality orthopedic tennis.Verified store</t>
+          <t>Home. The Zoo Network. 1. You can still read 1 more article Create your account right now and enjoy 10 free monthly content. Creat your account. 8 May 2023 638 pm. Animal Foundation near Nevado del Ruiz needs your help. The Amparo Foundation located in Vereda Nueva Primavera in Villamaría Caldas cares for 220 animals including dogs, cats and pigs. The Zoo Network. 0. Save. Juliana Coco, founder of the shelter, told La Red Zoocial that she fears for the integrity of the animals. Photo Amparo Foundation. The seismic activity of the Nevado del Ruiz volcano continues on orange alert, as reported by the Colombian Geological Service SGC Given the risk of a possible eruption, the community continues to implement measures to protect people, domestic animals, livestock and wildlife residing in the departments. of influence of the volcano. Read Animal abuse in Antioquia they find a bird of prey tied to one of its legs. The Amparo Foundation located in Vereda Nueva Primavera in Villamaría Caldas cares for 220 animals including dogs, cats and pigs. Juliana Coco, founder of the shelter, told La Red Zoocial that she fears for their integrity. At this moment we are close to the Chinchiná river located in the Central South region of the department of Caldas and we are concerned about the possible eruption of the Nevado del Ruiz volcano because the avalanche passed through here in 1985. Also, every day we must feed each one of them and maintain Juliana assures her very clean places. According to the content creator known as Cotry, who has spread the case through his social networks, the help they are requesting is to make an evacuation route for the animals since making a foundation from scratch or moving it is very expensive. It is easier to take the evacuation route. In such an emergency, you would have about 10 minutes or so to open the kennels and for all the animals to leave by that route, the content creator told La Red Zoocial. It might interest you Why it is important to have a cat or dog in the house Advantages and benefits. At this time the foundation is receiving food for dogs, cats and pigs In addition to toiletries such as clean powdered soap, brooms and mops. On the other hand, if you want to donate money to help animals, you can do it through. Bancolombia savings account 62300015196 and DaviPlata 3136617132. . ICA recommendations to protect animals that are in risk areas due to Nevado del Ruiz. The Colombian Agricultural Institute ICA adopted measures to protect agricultural health and support farmers and ranchers who are in the area of ​​influence of the Nevado del Ruiz Volcano. The ICA decided to give urgent and priority attention for the issuance of Sanitary Guides for Internal Mobilization to the peasant producers and marketers who move with their animals to properties or temporary shelters by virtue of the preventive evacuation that is being carried out in the area of ​​arriving at declaring a state of alert at red level the mobilization of livestock is authorized without the precise sanitary guide the press report clarifies that once the animals are at the destination site they will have to be reported to the office of the Institute within the following eight days. Likewise, it authorizes the provisional lifting of blockades to the mobilization of properties of origin that are located in areas where preventive evacuation is required. The ICA clarifies that these exceptional measures will only apply to the movement of animals in. Tolima Villahermosa Herveo Murillo Lebanon Lleida Gunsmith Guayabal Falan Palocabildo Fresno Honda Mariquita Venadillo Ambalema and Casabianca. Caldas Villamaría Chinchiná Palestine Anserma Marulanda Neira and Manizales. Risaralda Santa Rosa de Cabal Dosquebradas Marseille and Pereira. Cundinamarca Guaduas. You want to be up-to-date and know the latest news about the animal world. We invite you to see them at La Red Zoocial Also, if you have a story or are interested in telling yours with your pet, you can write to laredzoocialelespectadorcom. Follow us on Google News. Recommended topics. The Zoo Network. Animals. Pets. News today. Animal Foundation. Go to comments. The most viewed in Dogs. Dogs. Not for animal abuse Perrita was found with injuries in a Transmilenio. 23 hours ago. Dogs. How to know the age of an adopted or rescued dog This is how you can calculate it. 21 hours ago. The Zoo Network. Guardians of the Galaxy was awarded for raising awareness about animal abuse. 10 May 2023 953 am. by Taboola. Sponsored links. It may interest you. They find Danna Valentina Ovalle Ávila in Bogotá. The viewer. Solar panels are now a bargain thanks to the government. Solar panels Want ads. Forget foot pain with our high-quality orthotic shoes. Verified Store</t>
         </is>
       </c>
     </row>
@@ -570,12 +570,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Slight increase in number of earthquakes in the Nevado del Ruiz volcano</t>
+          <t>Slight increase in the number of earthquakes in the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.0. Create your account right now and enjoy 10 free monthly contents.Creat your account.May 823 1124 A m.Mild increase in number of earthquakes in the Nevado del Ruiz volcano.Since the end of March of this year, the level of activity of the volcano remains in orange although the level of earthquakes and released energy increased slightly according to the latest report this does not mean that the snow is more unstable than in the previous days in general during the lastWeeks has been more unstable than usual.Environmental writing.0. Save.Image of the volcano this May 8.PHOTO SGC.The SGC Colombian Geological Service published the last report of the state of the Nevado Volcano del Ruiz that has been at the level of orange activity since the end of March this year according to the document The volcano remains at this level with reports of very unstable activity.Follow us on Google News.Recommended topics.News today.News today Colombia.Volcano.Nevado del Ruiz volcano.Go to comments.The most seen in the environment.Atmosphere.Ash emission of the Nevado del Ruiz volcano reached a height of 2000 meters.May 1023 1217 P m.Atmosphere.Caldas will invest to improve alert system in the area near the Nevado del Ruiz.16 hours ago.Atmosphere.Up to the middle of the world could be in a different climatic zone for 2100. 21 hours ago</t>
+          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 8 May 2023 1124 am. Slight increase in the number of earthquakes at the Nevado del Ruiz volcano. Since the end of March of this year, the level of activity of the volcano remains orange. Although the level of earthquakes and energy released increased slightly according to the last report, this does not mean that the Nevado is more unstable than in the previous days. In general, during the last weeks has been more unstable than usual. Drafting Environment. 0. Save. Image of the volcano this May 8. SGC photo. The Colombian Geological Service SGC published the latest report on the status of the Nevado del Ruiz volcano, which has been at the orange level of activity since the end of March of this year. According to the document, the volcano remains at this level with reports of very unstable activity. Follow us on Google News. Recommended topics. News today. News today Colombia. Volcano. Nevado del Ruiz volcano. Go to comments. The most viewed in Environment. Atmosphere. Ash emission from the Nevado del Ruiz volcano reached a height of 2000 meters. 10 May 2023 1217 pm. Atmosphere. Caldas will invest to improve the alert system in the area near Nevado del Ruiz. 16 hours ago. Atmosphere. Up to half the world could be in a different climate zone by 2100. 21 hours ago</t>
         </is>
       </c>
     </row>
@@ -588,12 +588,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>This says the last report on the state of the Nevado del Ruiz volcano</t>
+          <t>This says the latest report on the state of the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.May 723 236 P m.This says the last report on the state of the Nevado del Ruiz volcano.The Colombian geological service reported on Sunday, May 7 that the level of activity of the volcano remains in orange.Environmental writing.0. Save.Since March 30, it was declared to alert orange in the Nevado Volcano of the Ruiz Photographic Archive of the Colombian Geological Service.PHOTO SGC.According to the latest report on the Nevado del Ruiz volcano issued by the SGC Colombian Geological Service, the activity level remains in orange as since the end of March when the level of activity first raised.According to John Makario Londoño Technical Director of Geoamenazas of the SGCSome earthquakes are located in the crater itself but of low energy and what persists is the activity related to the fluids of both gas and ash exit.He added that thermal anomalies also continue at the bottom of the crater, the general behavior of the volcano has been consistent with what has been reported in recent weeks can also read Nevado of the Ruiz this is its activity this May 6.The seismicity related to the fracturing of rock within the volcanic building was located mainly in the sandy crater and in the oriental and southeast northeastern sectors of the snowy at a maximum distance of 2 kilometers from this and with depths between 2 and 6 kilometers some of these earthquakes areThey related to the activity of the dome protuberance or lava mound located at the bottom of the crater indicated the SGC.The maximum magnitude of registered earthquakes was 16 corresponding to an earthquake that occurred at 0309 AM located 2 km to the southeast of the volcano and approximately 3 km deep.The maximum height of the gase column I ash observed was 800 meters measured from the top of the volcano reported the entity this Saturday May 6, the direction of preferential dispersion of this column went to the West to the northwest of the volcano in that sense the SGCHe received sighting reports from several ash emissions from Murillo Tolima and a slight ash fall in the municipality of Manizales Caldas during the day last Saturday may interest Latin America cannot return to a cycle for the extraction of mining natural resources.On the other hand, the variations in the tear of sulfur dioxide to the atmosphere with levels similar to those observed in recent days and the water vapor exit from the crater to the atmosphere also continue.All these conditions are consistent with what the SGC has reported during the last weeks activity of the Nevado del Ruiz volcano remains very unstable although changes in the intensity of the conditions are observed this does not mean that the volcano has returned to its normal level ofActivity reiterated the entity.You want to know the latest news about the atmosphere we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.Volcano.Nevado del Ruiz.Nevado del Ruiz volcano.Go to comments</t>
+          <t>Home. Atmosphere. 7 May 2023 236 pm. This says the latest report on the state of the Nevado del Ruiz volcano. The Colombian Geological Service reported this Sunday, May 7, that the level of activity of the volcano remains orange. Drafting Environment. 0. Save. Since March 30, an orange alert was declared on the Nevado del Ruiz volcano Photographic archive of the Colombian Geological Service. SGC photo. According to the latest report on the Nevado del Ruiz volcano issued by the Colombian Geological Service SGC, the level of activity remains in orange, the same as since the end of March when the level of activity first rose. According to John Makario Londoño, technical director of geothreats of the SGC, the activity of Nevado del Ruiz yesterday, May 6, and today continues at levels similar to previous days, that is, the general fracture seismicity continues at low levels. some earthquakes are located in the crater itself but with low energy and what persists is the activity related to the fluids, both outflow of gases and ash. He added that the thermal anomalies at the bottom of the crater also continue. The general behavior of the volcano has been consistent with what has been reported in recent weeks. You can also read Nevado del Ruiz Volcano, this is its activity on May 6. The seismicity related to the fracturing of rock within the volcanic edifice was located mainly in the Arenas crater and in the northeastern, eastern, and southeastern sectors of Nevado, at a maximum distance of 2 kilometers from it and with depths between 2 and 6 kilometers. Some of these earthquakes occurred They were related to the activity of the bulge dome or mound of lava located at the bottom of the crater indicated the SGC. The maximum magnitude of earthquakes recorded was 16 corresponding to an earthquake that occurred at 0309 am located 2 km southeast of the volcano and approximately 3 km deep. The maximum height of the column of gases and/or ash observed was 800 meters measured from the top of the volcano, the entity informed. This past Saturday, May 6, the preferential dispersion direction of this column was to the west to the northwest of the volcano. received reports of sightings of various ash emissions from Murillo Tolima and of a slight ash fall in the municipality of Manizales Caldas during the day last Saturday. It may interest you Latin America cannot return to the natural resource extraction cycle Minambiente. On the other hand, the variations in the degassing of sulfur dioxide into the atmosphere also continue with levels similar to those observed in recent days and the release of water vapor from the crater into the atmosphere. All these conditions are consistent with what the SGC has reported during the last weeks, activity of the Nevado del Ruiz volcano continues to be very unstable. Although changes in the intensity of the conditions are observed, this does not mean that the volcano has returned to its normal level of activity reiterated the entity. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Volcano. Nevado del Ruiz. Nevado del Ruiz volcano. go to comments</t>
         </is>
       </c>
     </row>
@@ -606,12 +606,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano This is how its activity is this May 6</t>
+          <t>Nevado del Ruiz volcano, this is its activity this May 6</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.0. Create your account right now and enjoy 10 free monthly contents.Creat your account.6 May 2023 1110 A m.Nevado del Ruiz volcano This is its activity this May 6.The seismic activity associated with rock fracturing within the volcanic building showed a decrease in the number of registered earthquakes and in the seismic energy released compared to the previous day the level of activity remains in orange.Environmental writing.0. Save.Image of the Nevado del Ruiz volcano this May 6.PHOTO SGC.According to the latest report of the SGC Colombian Geological Service, the Nevado del Ruiz volcano remains with an orange level of activity as the institution has reiterated in recent weeks between this past Friday, May 5 and the course of this May 6 has predominated the seismic activityrelated to the movement of fluids inside the volcanic ducts.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz volcano.Nevado del Ruiz.Go to comments.Links sponsored by Taboola.It may interest you.Former Bogotá diabetic says how to keep glucose in 85. Diabetes Secret.This trick melts belly fat even eating everything.EmagSophistication at your feet Premium leather tennis.VLZ Premium.Wrinkles and spots you can follow this simple advice.Health portal.Diabetes is not why the enemy of diabetes knows.DiasulinThis simple recipe is a great cure for insomnia.News.2023 elections Yahir Acuña leads surveys in Sincelejo.Thus Bogotá advances in hospital infrastructure.The most seen in the environment.Atmosphere.Ash emission of the Nevado del Ruiz volcano reached a height of 2000 meters.May 1023 1217 P m.Atmosphere.Caldas will invest to improve alert system in the area near the Nevado del Ruiz.16 hours ago.Blog El Río.How we study whales if we just see them when they emerge to the surface.15 hours ago.By Tabola.Sponsored links.It may interest you.The AI explained what the former Señorita Antioquia wanted to say in 2008 man with a man.The viewer.The most wanted European tennis at prices ever seen before.Verified store.Why the luxury villas in Dubai are so cheap to see prices.Villas in Dubai sponsored links</t>
+          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 6 May 2023 1110 am. Nevado del Ruiz volcano, this is its activity this May 6. The seismic activity associated with rock fracturing inside the volcanic edifice showed a decrease in the number of registered earthquakes and in the seismic energy released compared to the previous day. The level of activity remains in orange. Drafting Environment. 0. Save. Image of the Nevado del Ruiz volcano on May 6. SGC photo. According to the latest report from the Colombian Geological Service SGC, the Nevado del Ruiz volcano remains with an orange level of activity, as the institution has reiterated in recent weeks. Between this past Friday, May 5, and the course of this May 6, seismic activity has predominated. related to the movement of fluids inside the volcanic conduits. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Nevado del Ruiz. Go to comments. Links sponsored by Taboola. It may interest you. Former diabetic from Bogotá tells how to maintain glucose at 85. Diabetes secret revealed. This trick melts belly fat even if you eat everything. Emag. Sophistication at your feet Premium leather tennis shoes. VLZ PREMIUM. Wrinkles and spots You can follow this simple advice. Health Portal. Diabetes is not so sweet Meet the enemy of diabetes. Diasulin. This simple recipe is a great cure for insomnia. News. Elections 2023 Yahir Acuña leads the polls in Sincelejo. This is how Bogotá advances in hospital infrastructure. The most viewed in Environment. Atmosphere. Ash emission from the Nevado del Ruiz volcano reached a height of 2000 meters. 10 May 2023 1217 pm. Atmosphere. Caldas will invest to improve the alert system in the area near Nevado del Ruiz. 16 hours ago. Blog The River. How do we study whales if we barely see them when they rise to the surface. 15 hours ago. by Taboola. Sponsored links. It may interest you. The AI ​​explained what the former Miss Antioquia meant in 2008 man with man. The viewer. The most sought after European sneakers at prices never seen before. Verified Store. Why luxury villas in Dubai are so cheap See Prices. Villas in Dubai Sponsored Links</t>
         </is>
       </c>
     </row>
@@ -624,12 +624,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Students from 5 schools who were at home will return to class for Nevado del Ruiz</t>
+          <t>Students from 5 schools that were at home in Nevado del Ruiz will return to class</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.0. Create your account right now and enjoy 10 free monthly contents.Creat your account.May 523 510 P m.The students of 5 schools who were at home for Nevado del Ruiz will return to class.There were 30 educational venues that came to learning at home for being in the area of influence of the volcano as of May 16, five of them will return to the face -to -face in the department of Caldas.Environmental writing.0. Save.Reference image The five schools belong to the Villamaría municipality of the department of Caldas and in total there will be 242 students who return to the classrooms.Photo Pixabay.Five of the 30 educational headquarters that are in learning at home for being located in the area of influence of the Nevado del Ruiz volcano will return to face -to -face classes from May 16 the five schools belong to the Villamaría municipality of the department of Caldas and in totalThere will be 242 students who return to the classrooms.Follow us on Google News.Recommended topics.News Colombia today.Colombia today.Nevado del Ruiz.Nevado del Ruiz today.Go to comments.Links sponsored by Taboola.It may interest you.Former Bogotá diabetic says how to keep glucose in 85. Diabetes Secret.Sophistication at your feet Premium leather tennis.VLZ Premium.This trick melts belly fat even eating everything.EmagWhy the luxury villas in Dubai are so cheap to see prices.Villas in Dubai sponsored links.Military glasses arrive in Colombia for less than 140000 and become fever between drivers.Tips and recommendations.The most wanted European tennis at prices ever seen before.Verified store.2023 elections Yahir Acuña leads surveys in Sincelejo.Thus Bogotá advances in hospital infrastructure.The most seen in the environment.Atmosphere.Ash emission of the Nevado del Ruiz volcano reached a height of 2000 meters.May 1023 1217 P m.Atmosphere.Caldas will invest to improve alert system in the area near the Nevado del Ruiz.16 hours ago.Blog El Río.How we study whales if we just see them when they emerge to the surface.15 hours ago.By Tabola.Sponsored links.It may interest you.The AI explained what the former Señorita Antioquia wanted to say in 2008 man with a man.The viewer.Bogotá calculate how much I could win by investing on Amazon CFD.Dailymarkets.Solar panels are now a bargain thanks to the government.Solar panels search ads</t>
+          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 5 May 2023 510 pm. Students from 5 schools that were at home in Nevado del Ruiz will return to class. There were 30 educational centers that attended learning at home because they were in the area of ​​influence of the volcano. As of May 16, five of them will return to face-to-face in the department of Caldas. Drafting Environment. 0. Save. Reference image The five schools belong to the Villamaría municipality in the department of Caldas and a total of 242 students will return to the classroom. Photo Pixabay. Five of the 30 educational centers that are learning at home because they are located in the area of ​​influence of the Nevado del Ruiz volcano will return to face-to-face classes starting next May 16 The five schools belong to the Villamaría municipality in the department of Caldas and in total there will be 242 students who return to classrooms. Follow us on Google News. Recommended topics. Colombian News Today. Columbia today. Nevado del Ruiz. Snowy Ruiz Today. Go to comments. Links sponsored by Taboola. It may interest you. Former diabetic from Bogotá tells how to maintain glucose at 85. Diabetes secret revealed. Sophistication at your feet Premium leather tennis shoes. VLZ PREMIUM. This trick melts belly fat even if you eat everything. Emag. Why luxury villas in Dubai are so cheap See Prices. Villas in Dubai Sponsored Links. Military glasses arrive in Colombia for less than 140,000 and become a fever among drivers. Tips And Recommendations. The most sought after European sneakers at prices never seen before. Verified Store. Elections 2023 Yahir Acuña leads the polls in Sincelejo. This is how Bogotá advances in hospital infrastructure. The most viewed in Environment. Atmosphere. Ash emission from the Nevado del Ruiz volcano reached a height of 2000 meters. 10 May 2023 1217 pm. Atmosphere. Caldas will invest to improve the alert system in the area near Nevado del Ruiz. 16 hours ago. Blog The River. How do we study whales if we barely see them when they rise to the surface. 15 hours ago. by Taboola. Sponsored links. It may interest you. The AI ​​explained what the former Miss Antioquia meant in 2008 man with man. The viewer. Bogotá calculate how much you could earn by investing in Amazon CFDs. Daily Markets. Solar panels are now a bargain thanks to the government. Solar Panels Want Ads</t>
         </is>
       </c>
     </row>
@@ -642,12 +642,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano This is its state on May 4</t>
+          <t>Nevado del Ruiz volcano this is its state on May 4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.May 4 2023 1103 A m.Nevado del Ruiz volcano This is its state on May 4.The Colombian geological service reported that the level of orange activity is maintained and that this could remain for several more weeks.Environmental writing.0. Save.The Nevado del Ruíz volcano is 5321 meters above sea level.Photo Colombian Geological Service.This Thursday, May 4, the SGC Colombian Geological SurveIt goes on Thursday, the predominance of seismic activity related to the movement of fluids inside the volcanic ducts continues.This represents a level of seismic activity and energy released similar to that of Monday, May 2, this Wednesday, the seismic activity associated with rock fracturing within the volcanic building also had a behavior similar to that registered on Monday, you can also read lahars to which itIt refers to the geological service are different from those of Ideam.The SGC reported that the earthquakes were mainly located in the Arenas crater and in the northeastern volcano sector at distances between two and four kilometers of this the depths of the earthquakes oscillated in turn between two and five kilometers.The maximum height of the I ash gase column observed on May 3 was 1400 meters measured from the top of the volcano. The column dispersion was directed towards the northwestern sector of the volcano. There is also a report of ash fall in the municipality in the municipalityDe Neira Caldas may be interested in having many more electric cars a promise not so easy to fulfill in Colombia.These indicators together ratify what the SGC has reiterated since the level of activity of the volcano changed the activity of the Nevado del Ruiz remains very unstable and although it is possible that the levels of seismic activity as well as the levels of the degasification or exit of ash decreaseor they are oscillatory in the sense of increasing a few days and decreasing others this does not mean that the volcano has returned to its usual levels of activity.Therefore, we reiterate that the activity of the Nevado del Ruiz volcano continues at the orange level which indicates that there is a probability that in days or weeks make an eruption greater than those that it has done in the last 10 years indicated the SGC.You want to know the latest news about the atmosphere we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.Ruiz volcano.Nevado del Ruiz.Go to comments</t>
+          <t>Home. Atmosphere. 4 May 2023 1103 am. Nevado del Ruiz Volcano this is its state on May 4th. The Colombian Geological Service reported that the orange level of activity is maintained and that it could remain for several more weeks. Drafting Environment. 0. Save. The Nevado del Ruíz volcano is 5321 meters above sea level. Photo Colombian Geological Service. This Thursday, May 4, the Colombian Geological Service SGC released the latest report on the state of the Nevado del Ruiz volcano, which has been at an orange level of activity since the end of March. According to the entity's bulletin since yesterday, May 3, and during what As of this Thursday, the predominance of seismic activity related to the movement of fluids inside the volcanic conduits continues. This represents a level of seismic activity and energy released similar to that of Monday, May 2. This past Wednesday, the seismic activity associated with the fracturing of rock inside the volcanic edifice also had a behavior similar to that registered on Monday. You can also read Lahars to those who referred to by the Geological Service are different from those of Ideam. The SGC reported that the earthquakes were located mainly in the Arenas crater and in the northeastern sector of the volcano at distances between two and four kilometers from it. The depths of the earthquakes oscillated in turn between two and five kilometers. The maximum height of the column of gases and/or ash observed on May 3 was 1400 meters measured from the top of the volcano The dispersion of the column was directed towards the northwestern sector of the volcano There is also a report of ash fall in the municipality from Neira Caldas You may be interested in Having many more electric cars, a promise that is not so easy to fulfill in Colombia. These indicators together ratify what the SGC has reiterated since the level of activity of the volcano changed, the activity of Nevado del Ruiz continues to be very unstable And although it is possible that the levels of seismic activity as well as the levels of degassing or ash output may decrease or they are oscillatory in the sense of increasing on some days and decreasing on others, this does not mean that the volcano has returned to its usual levels of activity. For this reason, we reiterate that the activity of the Nevado del Ruiz volcano continues at an orange level, which indicates that there is a probability that in days or weeks it will erupt more than it has in the last 10 years, indicated the SGC. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Ruiz volcano. Nevado del Ruiz. go to comments</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.May 2023 1045 A m.The activity of the Ruiz volcano so far this week.The Colombian geological service reported that the volcano activity level is maintained at the orange level.Environmental writing.0. Save.This was how the Nevado del Ruiz volcano was seen on the morning of May 2.Photo Colombian Geological Service.According to the Colombian Geological Service SGC since yesterday, May 2 and so far this Wednesday at the Nevado del Ruiz continues the predominance of seismic activity related to the movement of fluids inside the volcanic ducts so that it presents aBehavior to May 1 in number of earthquakes and a slight increase in seismic energy which has been associated with ashes emissions that have been confirmed with web cameras.Read the COP28 will be the first climatic summit to include health on its agenda.The earthquakes of yesterday were located at an average distance of 2 kilometers south and southeast of the sandy crater at depths of between 2 and 4 km the maximum magnitude was 12 corresponding to the earthquake recorded at 1201 am about 2 km to the southeast of the craterArenas and 4 km deep In addition to the maximum gase column height I registered ashes yesterday was 3000 meters.The SGC notes that all these indicators ratify what we have reiterated the activity of the Nevado del Ruiz volcano is still very unstable, it is possible that seismic activity levels as well as the levels of wear or output of ash decrease or are oscillatory in the sense of increasinga few days and decrease others.Lea seeks to rescue the most important masswater in Barranquilla but plans do not convince.The activity level of the Ruiz volcano is maintained at the orange level so that the activity returns at the yellow level explains the SGC is required prudential time where trends and patterns can be observed that allow to infer the possible decrease in the activity aspects that are still currentlyVolcano activity does not show.Read began the construction of a natural park in Antioquia of 157 hectares.Both the SGC and other entities have reiterated the call to communities to conserve calm and follow the instructions of the National Unit for Disaster Risk Management, also to be informed through official channels.You want to know the latest news about the atmosphere we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz.Volcan Nevado del Ruiz.Go to comments</t>
+          <t>Home. Atmosphere. 3 May 2023 1045 am. The activity of the Ruiz volcano so far this week. The Colombian Geological Service reported that the level of activity of the volcano remains at the orange level. Drafting Environment. 0. Save. This is what the Nevado del Ruiz volcano looked like on the morning of yesterday, May 2. Photo Colombian Geological Service. According to the Colombian Geological Service SGC, since yesterday May 2 and so far this Wednesday in Nevado del Ruiz, the predominance of seismic activity related to the movement of fluids inside the volcanic conduits continues, so that it presents a Behavior similar to that of May 1 in the number of earthquakes and a slight increase in seismic energy, which has been associated with ash emissions that have been confirmed with web cameras. Read Cop28 will be the first climate summit to include health on its agenda. Yesterday's earthquakes were located at an average distance of 2 kilometers south and southeast of the Arenas crater at depths between 2 and 4 km. The maximum magnitude was 12 corresponding to the earthquake registered at 1201 am about 2 km southeast of the crater Arenas and 4 km deep. In addition, the maximum height of the column of gases and/or ashes registered yesterday was 3000 meters. The SGC points out that all these indicators confirm what we have reiterated. The activity of the Nevado del Ruiz volcano continues to be very unstable. It is possible that the levels of seismic activity, as well as the levels of degassing or ash output, may decrease or be oscillating in the direction of increasing. some days and decrease others. Read They seek to rescue the most important swamp in Barranquilla but plans are not convincing. The level of activity of the Ruiz volcano remains at the orange level. For the activity to return to the yellow level, explains the SGC, a reasonable time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity, aspects that are still current Volcano activity does not show. Lea Construction began on a 157-hectare natural park in Antioquia. Both the SGC and other entities have reiterated the call on the communities to remain calm and follow the instructions of the National Unit for Disaster Risk Management UNGRD Also to obtain information through official channels. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Nevado del Ruiz volcano. go to comments</t>
         </is>
       </c>
     </row>
@@ -678,12 +678,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>This says the last report on activity level of the Nevado del Ruiz volcano</t>
+          <t>This says the latest report on the level of activity of the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.May 2023 946 A m.This says the last report on activity level of the Nevado del Ruiz volcano.According to the Colombian Geological Service, the volcano activity level remains in orange.Environmental writing.0. Save.This was how the Nevado del Ruiz volcano was seen on the morning of this Tuesday, May 2.Photo Colombian Geological Service.According to the Monitoring Bulletin on Tuesday, May 2, a slight increase in the seismic activity associated with rock fracturing within the volcanic building, these earthquakes were located at an average distance of 2 kilometers to the south andSurorient of the Arenas crater at depths between 3 and 4 km at 343 pm, an earthquake of magnitude was presented by the largest registered for Monday, May 1, you can read Ungrd immediately evacuate areas near the Crater of Nevado del Ruiz.According to the SGC Colombian Geological Service, the seismic activity related to the movement of fluids inside the volcanic ducts has shown an increase in seismic energy released between Monday and Tuesday compared to Sunday, April 30.On the other hand, the SGC highlighted an ash column recorded on the morning of this Tuesday as it reached a height of 3000 meters and had a direction towards the northwest, the greatest reintroduction of history may be interested in extinct snails return to its habitat.Both for the previous conditions as well as the degassing of sulfur dioxide to the atmosphere and the thermal anomalies at the crater bottom the SGC points out that the activity of the Nevado del Ruiz volcano remains very unstable so that the level of activity is maintainedat orange level.It should be remembered that this level of activity indicates that there is the probability that in days or weeks the volcano will make an eruption greater than what has done in the last 10 years however the SGC has been emphatic in pointing out that this is a probability for theThat it is also possible that the level of activity decreases and returns to the yellow activity level can also read lahars referred to in the geological service are different from those of Ideam.For the latter to happen the entity is required to be prudential time where trends and patterns can be observed that allow inferring the possible decrease in the activity aspects that the current activity still does not show.Both the SGC and other entities have reiterated the call to communities to conserve calm following the instructions of the National Unit for Disaster Risk Management UNGRD and be attentive to the information that is published through official channels.Follow us on Google News.Recommended topics.Nevado del Ruiz volcano.Nevado del Ruiz.Volcano.Volcano eruption.Go to comments</t>
+          <t>Home. Atmosphere. 2 May 2023 946 am. This says the latest report on the level of activity of the Nevado del Ruiz volcano. According to the Colombian Geological Service, the level of activity of the volcano remains orange. Drafting Environment. 0. Save. This is what the Nevado del Ruiz volcano looked like on the morning of this Tuesday, May 2. Photo Colombian Geological Service. According to the monitoring bulletin of this Tuesday, May 2, at the Nevado del Ruiz volcano, there was a slight increase in seismic activity associated with rock fracturing within the volcanic edifice. These earthquakes were located at an average distance of 2 kilometers to the south and southeast of the Arenas crater at depths of between 3 and 4 km At 343 pm an 18 magnitude earthquake occurred, being the largest registered for Monday, May 1. You can read UNGRD recommended immediately evacuating areas near the Nevado del Ruiz crater. According to the Colombian Geological Service SGC, the seismic activity related to the movement of fluids inside the volcanic conduits has shown an increase in the seismic energy released between Monday and Tuesday compared to Sunday, April 30. On the other hand, the SGC highlighted an ash column recorded on Tuesday morning since it reached a height of 3000 meters and had a northwesterly direction. It may interest you The largest reintroduction in history extinct snails return to their habitat. Both due to the above conditions as well as the degassing of sulfur dioxide into the atmosphere and the thermal anomalies at the bottom of the crater, the SGC points out that the activity of the Nevado del Ruiz volcano continues to be very unstable, therefore the level of activity remains in orange level. It should be remembered that this level of activity indicates that there is a probability that in days or weeks the volcano will erupt more than it has in the last 10 years. However, the SGC has been emphatic in pointing out that this is a probability at least that it is also possible that the level of activity decreases and returns to the yellow activity level. You can also read Lahars that the Geological Survey refers to are different from those of Ideam. For the latter to happen, explains the entity, a prudential time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity, aspects that the current activity of the volcano still does not show. Both the SGC and other entities have reiterated the call to the communities to remain calm, follow the instructions of the UNGRD National Unit for Disaster Risk Management and be attentive to the information that is published through official channels. Follow us on Google News. Recommended topics. Nevado del Ruiz volcano. Nevado del Ruiz. Volcano. Volcano eruption. go to comments</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The orange activity level continues in the Nevado del Ruiz volcano</t>
+          <t>The orange level of activity continues in the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.0. Create your account right now and enjoy 10 free monthly contents.Creat your account.May 2023 1024 A m.The orange activity level continues in the Nevado del Ruiz volcano.The Colombian geological service reported that during the weekend there have been ash emissions as well as seismic activity in the mountain as during the last weeks.Environmental writing.0. Save.Since March 30, the change in the level of activity was declared in the Nevado del Ruiz to Orange Volcano Photographic Archive of the Colombian Geological Service.PHOTO SGC.Since the SGC Colombian Geological Service announced the change in activity of the Nevado del Ruiz A NaranjAGRD may interest immediately evacuate areas near the Nevado del Ruiz crater.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz volcano.Atmosphere.Go to comments.Links sponsored by Taboola.It may interest you.Former Bogotá diabetic says how to keep glucose in 85. Diabetes Secret.Sophistication at your feet Premium leather tennis.VLZ Premium.This trick melts belly fat even eating everything.EmagMilitary glasses arrive in Colombia for less than 140000 and become fever between drivers.Tips and recommendations.Why the luxury villas in Dubai are so cheap to see prices.Villas in Dubai sponsored links.Diabetes is not why the enemy of diabetes knows.Diasulin2023 elections Yahir Acuña leads surveys in Sincelejo.Thus Bogotá advances in hospital infrastructure.By Tabola.Sponsored links.It may interest you.Free daily horoscope today May 11, 2023. The spectator.The most wanted European tennis at prices ever seen before.Verified store.Solar panels are now a bargain thanks to the government.Solar panels search ads</t>
+          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 1 May 2023 1024 am. The orange level of activity continues in the Nevado del Ruiz volcano. The Colombian Geological Service reported that during the weekend there have been ash emissions as well as seismic activity in the mountain as in recent weeks. Drafting Environment. 0. Save. Since March 30, the change in the level of activity in the Nevado del Ruiz volcano to orange was declared Photographic archive of the Colombian Geological Service. SGC photo. Since the Colombian Geological Service SGC announced the change of activity of the Nevado del Ruiz volcano to orange every day, a report is presented about the changes that occur in seismic energy, ash emissions, among other aspects that are monitored in the mountain Le It may interest UNGRD recommended immediately evacuating areas near the Nevado del Ruiz crater. Follow us on Google News. Recommended topics. News today. News today Colombia. Ruiz Snowy Volcano. Atmosphere. Go to comments. Links sponsored by Taboola. It may interest you. Former diabetic from Bogotá tells how to maintain glucose at 85. Diabetes secret revealed. Sophistication at your feet Premium leather tennis shoes. VLZ PREMIUM. This trick melts belly fat even if you eat everything. Emag. Military glasses arrive in Colombia for less than 140,000 and become a fever among drivers. Tips And Recommendations. Why luxury villas in Dubai are so cheap See Prices. Villas in Dubai Sponsored Links. Diabetes is not so sweet Meet the enemy of diabetes. Diasulin. Elections 2023 Yahir Acuña leads the polls in Sincelejo. This is how Bogotá advances in hospital infrastructure. by Taboola. Sponsored links. It may interest you. Free daily horoscope today May 11, 2023. El Espectador. The most sought after European sneakers at prices never seen before. Verified Store. Solar panels are now a bargain thanks to the government. Solar Panels Want Ads</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.30 Apr 2023 356 P M.This has been the activity of the Nevado del Ruiz volcano during this festive bridge.The Colombian geological service reported this Sunday that the activity within the mountain has remained at levels similar to those presented during the week with some variations in the morning of April 30.Environmental writing.0. Save.This was how the Nevado del Ruiz volcano was seen this Friday, April 28.Photo Colombian Geological Service.The SGC Colombian Geological Service reported on April 30 that the activity levels of the Nevado del Ruiz volcano have remained at levels similar to those that have occurred during the week with some variations due to the increase in the activity on Sunday morning Le Le Le Le Le Le Le Le LecAGRD may interest immediately evacuate areas near the Nevado del Ruiz crater.According to the entity during Saturday, the seismic activity related to the movement of fluids and the fracturing of the rock inside the volcano have also continued the processing processes and the ash emissions.The seismicity was located in the Arenas crater and in its surroundings within a radius less than 40 km measured from there the maximum magnitude recorded yesterday was 05 corresponding to the earthquake of the 1155 am located in the sandy crater Arenas at 09 km deepThe SGC reported.During the morning of this Sunday the volcano presented an increase in its seismic activity, the monitoring bulletin recorded an increase in seismic energy highlighting the earthquake of the 0306 am with magnitude of 20 located 07 km to the nornoriente of the crater sand 30 km ofDepth we recommend the greatest reintroduction of history extinct snails return to its habitat.On the other hand, the gase column or ash that emits the volcano reached a height of 1400 meters measured from the top of the mountain and has been dispersed mainly in the direction of the northwest.As the SGC has reported for several weeks since the level of activity of the volcano to orange was changed, the activity continues to be very unstable and sustained decrease patterns have been presented that allow to return to the yellow activity level.Therefore there is still a probability of an eruption in the next days or weeks, so it is recommended to be attentive to the information of the official sources, the Colombian Geological Service The National Unit for Disaster Risk Management and the municipal and departmental units forRisk management can also read lahars referred to in the geological service are different from those of Ideam.The SGC reiterates that an eruption will be imminent or will have occurred only when the level of activity changes to red.You want to know the latest news about the atmosphere we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz volcano.SGC.Go to comments</t>
+          <t>Home. Atmosphere. 30 Apr 2023 356 pm. This has been the activity of the Nevado del Ruiz volcano during this festive bridge. The Colombian Geological Service reported this Sunday that the activity inside the mountain has remained at levels similar to those that occurred during the week with some variations on the morning of April 30. Drafting Environment. 0. Save. This is what the Nevado del Ruiz volcano looked like this Friday, April 28. Photo Colombian Geological Service. The Colombian Geological Service SGC reported on April 30 that the activity levels of the Nevado del Ruiz volcano have remained at levels similar to those that have occurred during the week with some variations due to the increase in activity on Sunday morning. It may interest UNGRD recommended immediately evacuating areas near the Nevado del Ruiz crater. According to the entity, the seismic activity related to the movement of fluids and the fracturing of rock inside the volcano continued on Saturday. Degassing processes and ash emissions have also continued. The seismicity was located in the Arenas crater and its surroundings within a radius of less than 40 km measured from there The maximum magnitude registered yesterday was 05 corresponding to the 1155 am earthquake located in the Arenas crater at a depth of 09 km reported the SGC. During the morning of this Sunday the volcano presented an increase in its seismic activity The monitoring bulletin registered an increase in seismic energy, highlighting the 0306 am earthquake with a magnitude of 20 located 07 km northeast of the Arenas crater, 30 km from depth We recommend The largest reintroduction in history extinct snails return to their habitat. For its part, the column of gases or ash emitted by the volcano reached a height of 1,400 meters this Saturday, measured from the top of the mountain and has dispersed mainly in a northwesterly direction. As the SGC has reported for several weeks since the volcano's activity level was changed to orange, the activity continues to be very unstable and there have been no sustained patterns of decline that would allow a return to the yellow activity level. Therefore, there is still a probability of an eruption in the coming days or weeks, so it is recommended to be attentive to information from official sources, the Colombian Geological Service, the National Unit for Disaster Risk Management and municipal and departmental units to risk management You can also read Lahars that the Geological Service refers to are different from those of Ideam. The SGC reiterates that an eruption will be imminent or will have occurred only when the activity level turns red. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. SGC. go to comments</t>
         </is>
       </c>
     </row>
@@ -732,12 +732,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UNGRD recommended immediately evacuating areas close to the Nevado del Ruiz crater</t>
+          <t>UNGRD recommended immediately evacuating areas near the Nevado del Ruiz crater</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.29 Apr 2023 1259 P M.UNGRD recommended immediately evacuating areas near the Nevado del Ruiz crater.The entity issued different preventive recommendations as part of the preparation plan before a possible eruption of the volcano in total there are six municipalities that are at risk due to a possible eruption, so the evacuation of several of its paths is recommended.Environmental writing.0. Save.Murillo Tolima is one of the municipalities near the volcano crater and that on the recommendation of the UNGRD must evacuate several of its paths.Photo Efe John Jairo Bonilla.The National Unit for Disaster Risk Management UNGRD issued a statement in which it recommends immediately evacuating areas that are in a perimeter of between 0 and 15 kilometers from the Nevado del Ruiz volcano may interest families close to the Nevado del Ruiz will receive 250tons of food for animals.The recommendation occurs because before an eventual eruption of the volcano these areas would have a evacuation time less than one hour the municipal and departmental advice of disaster risk management continue to advance different schemes to guarantee the preventive evacuation of the communities that are located to15 kilometers of the sandy crater in the unit we are issuing all the recommendations for the territories, said Director E of the UNGRD Luis Fernando Velasco.In total there are 19 paths located in the municipalities of Herveo Casabianca Villahermosa and Murillo in the department of Tolima Eight in the municipality of Villamaría in Caldas and one in Santa Rosa de Cabal Risaralda in articulation with the municipal and departmental entities of Risk ManagementYou are advancing actions for preventive evacuation you can also read these are the municipalities in high threat due to activity of the Nevado del Ruiz volcano.In addition, the entity said that the populations that are at high threat located at distances greater than 15 kilometers to the sandy crater should take into account that the flow of the lahars could move along the Gualí River from its birth to the mouth in the Magdalena and RiverIt would involve the municipalities of Herveo Fresno Mariquita Honda Falán Palocabildo and Casabianca in Tolima as well as the municipality of Guaduas in the department of Cundinamarca.Other municipalities of Tolima and Caldas are also at risk due to the passage of different rivers that flow into the Magdalena River and that could serve as a volcanic mud flow to these populations.The entity also called for municipalities that are at high threat due to the flow of lahares must monitor and monitor in the field update the state of secondary and tertiary roads considered evacuation routes Perform evacuation drills with the community Review and adjustThe emergency response strategy and strengthening early alert systems we recommend government presents evacuation routes to possible eruption of the volcano.These are the paths in which the UNGRD recommends immediate evacuation.You want to know the latest news about the atmosphere we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz volcano.UNGRD.Go to comments</t>
+          <t>Home. Atmosphere. 29 Apr 2023 1259 pm. UNGRD recommended immediately evacuating areas near the Nevado del Ruiz crater. The entity issued different preventive recommendations as part of the preparation plan for a possible eruption of the volcano. In total, there are six municipalities that are at risk from a possible eruption, which is why the evacuation of several of its paths is recommended. Drafting Environment. 0. Save. Murillo Tolima is one of the municipalities close to the crater of the volcano and that, on the recommendation of the UNGRD, must evacuate several of its villages. Photo EFE John Jairo Bonilla. The National Unit for Disaster Risk Management UNGRD issued a statement in which it recommends immediately evacuating the areas that are within a perimeter of between 0 and 15 kilometers from the Nevado del Ruiz volcano. This may interest you Families near Nevado del Ruiz will receive 250 tons of animal feed. The recommendation is given because in the event of a possible eruption of the volcano, these areas would have an evacuation time of less than one hour. The municipal and departmental disaster risk management councils continue to carry out different schemes to guarantee the preventive evacuation of the communities that are located 15 kilometers from the Arenas crater In the Unit we are issuing all the recommendations for the territories, said the general director of the UNGRD, Luis Fernando Velasco. In total there are 19 villages located in the municipalities of Herveo Casabianca Villahermosa and Murillo in the department of Tolima eight in the municipality of Villamaría in Caldas and one in Santa Rosa de Cabal Risaralda In coordination with the municipal and departmental risk management entities the UNGRD is advancing actions for preventive evacuation You can also read These are the municipalities in high threat due to activity of the Nevado del Ruiz volcano. In addition, the entity affirmed that the populations that are in high threat located at distances greater than 15 kilometers from the Arenas crater must take into account that the flow of lahars could move along the Gualí river from its source to the mouth of the Magdalena river and it would involve the municipalities of Herveo Fresno Mariquita Honda Falán Palocabildo and Casabianca in Tolima as well as the municipality of Guaduas in the department of Cundinamarca. Other municipalities of Tolima and Caldas are also at risk due to the passage of different rivers that flow into the Magdalena River and that could serve as a flow of volcanic mud to these populations. The entity also called for municipalities that are in high threat due to lahar flows to monitor and follow-up in the field, update the status of secondary and tertiary roads considered evacuation routes, carry out evacuation drills with the community, review and adjust the emergency response strategy and strengthen early warning systems We recommend the Government presents evacuation routes in the event of a possible eruption of the volcano. These are the villages in which the UNGRD recommends an immediate evacuation. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Ruiz Snowy Volcano. UNGRD. go to comments</t>
         </is>
       </c>
     </row>
@@ -750,12 +750,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The activity of the Nevado del Ruiz volcano is maintained in orange</t>
+          <t>The activity of the Nevado del Ruiz volcano remains orange</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.29 Apr 2023 1141 A M.The activity of the Nevado del Ruiz volcano is maintained in orange.The geological service reported that the activity remains unstable and that some ash emissions have been presented.Environmental writing.0. Save.From March 30, the activity was changed to the activity in the Nevado Volcano del Ruiz Photographic Archive of the Colombian Geological Service.PHOTO SGC.The SGC Colombian Geological Service announced through the newsletter about the activity of the Nevado del Ruiz volcano that the seismicity within the volcano remained at levels similar to those reported on Thursday, April 27, we recommend Lahares to which the geological service refersThey are different from Ideam.The seismicity was located in the Arenas Crater and surroundings of this on a radius less than 25 km measured from there affirmed the entity on the monitoring of earthquakes during this Friday.Additionally, during the last days, the SGC has registered ash emissions, the last one was presented during the morning of April 29 and was monitored with the web cameras that register the activity of the volcano in real.At this morning, a pulsatile emission of ash confirmed through the web chambers with 1100 m column and dispersion direction to the West urination explained the entity can also read the European Union, the European Union provides help to the population affected by theNevado del Ruiz volcano.The entity also reported that the wear and exit of the volcano water continues in addition to the atmospheric conditions of recent days have not been able to register thermal anomalies but the SGC said that this does not mean that these do not continue present in the backgroundof the crater.With these indicators it is confirmed that the activity of the volcano continues unstable and will be maintained in this way for several weeks for this the level of orange activity is maintained and constant monitoring of the Ruiz will continue.The SGC has reiterated that to return to the yellow level of activity of the volcano, sustained patterns of seismicity decrease the roca fracturing and the movement of fluids inside the mountain may be interested in families close to the Nevado del Ruiz will receive 250 tons ofanimal food.For now there is still the probability that in the next few days or weeks the volcano erupThe entity said.Finally, the entity said that we recommend the community to keep calm to follow all the instructions of the National Unit for Disaster Risk Management UNRGR and local authorities and be attentive to the information provided by the Colombian Geological Service about the evolution of the state of the volcano.You want to know the latest news about the atmosphere we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz volcano.SGC.Go to comments</t>
+          <t>Home. Atmosphere. 29 Apr 2023 1141 am. The activity of the Nevado del Ruiz volcano remains orange. The Geological Service reported that the activity continues to be unstable and that there have been some ash emissions. Drafting Environment. 0. Save. Since March 30, the activity in the Nevado del Ruiz volcano was changed to orange Photographic archive of the Colombian Geological Service. SGC photo. The Colombian Geological Service SGC announced through the bulletin on the activity of the Nevado del Ruiz volcano that the seismicity inside the volcano remained at levels similar to those reported during Thursday, April 27. We recommend Lahars to which the Geological Service refers They are different from those of Ideam. The seismicity was located in the Arenas crater and its surroundings within a radius of less than 25 km measured from there, the entity said about the monitoring of the earthquakes this Friday. Additionally, during the last few days, the SGC has recorded ash emissions. The last one occurred on the morning of April 29 and was monitored with web cameras that record the volcano's activity in real time. At 0738 am this morning, a pulsatile emission of ash confirmed through web cameras was recorded with a column height of 1100 m and a dispersion direction towards the west-southwest, explained the entity. You can also read the European Union provides help to the population affected by the Nevado del Ruiz volcano. The entity also reported that degassing and the release of water vapor from the volcano continue. In addition, due to the atmospheric conditions of recent days, it has not been possible to register thermal anomalies, but the SGC assured that this does not mean that they are not still present in the background. of the crater. With these indicators it is confirmed that the activity of the volcano continues unstable and will remain this way for several weeks. For this reason, the orange level of activity is maintained and constant monitoring of the Ruiz will continue. The SGC has reiterated that in order to return to the yellow level of activity of the volcano, sustained patterns of decreased seismicity, rock fracturing and the movement of fluids inside the mountain must be registered. It may interest you Families near Nevado del Ruiz will receive 250 tons of animal food. For now, there is still a probability that the volcano will erupt in the coming days or weeks. In the event that there is an acceleration of the processes that suggest an imminent eruption or that the eruption itself occurs, the activity level will change to red the entity stated. Finally, the entity said that we recommend that the community remain calm, follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities and be attentive to the information provided by the Colombian Geological Service on the evolution of the state of the volcano. . Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Ruiz Snowy Volcano. SGC. go to comments</t>
         </is>
       </c>
     </row>
@@ -768,12 +768,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lahares referred to in the geological service are different from ideam</t>
+          <t>Lahars to which the Geological Survey refers are different from those of Ideam</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.28 Apr 2023 632 P m.Lahares referred to in the geological service are different from those of Ideam.While the SGC Colombian Geological Service refers to primary lahares that would be presented to an eventual eruption of great magnitude of the Nevado del Ruiz volcano, the ideam refers to secondary lahares that could be generated by the rains, the SGC clarifies what each one is aboutAnd what are the risks they represent.Environmental writing.0. Save.This was how the Nevado del Ruiz volcano was seen this Friday, April 28.Photo Colombian Geological Service.During Thursday, April 27, the Hydrology Institute Meteorology and Environmental Studies Ideam issued orange and yellow alert in some populations in the area of influence of the Nevado del Ruiz volcanThey build terraces at the bottom of the sea.The entity alerted different populations of Tolima and Caldas about the possible formation of lahares that could descend through the valleys of the Lagunilla Sabandija Reio rivers and the Nereid Rombrales Rivers Ríos Molinos Claro and Chinchiná Rivers.However, on the afternoon of this Friday, April 28, the SGC Colombian Geological Service issued a statement clarifying that the lahars referred toThis is how Colombia goes in its plans to achieve sustainable development in 2030. What are primary lahares and secondary lahares.The primary lahares also known as avalanche are volcanic phenomena that can occur if the Nevado del Ruiz volcano makes an eruption of great magnitude and are to which the SGC refers to its publications.These types of lahares are generated by the rapid melting of the ice and snow of the glaciers that cover the volcanic building because of the incandescent material that leaves the volcano at the time of the eruption as they progress through the rivers that are born in the volcanoThey can increase their volume and become very destructive sweeping everything in its path explains the SGC can also read Asia also experiences record temperatures in April 43 C. The affectation that primary lahars can cause is large since they reach speeds of 70 km or moreAnd they have the ability to reach populations distant from the volcano how it happened in Armero's tragedy in 1985 recalls the entity.Now these lahars are very different from the secondary ones, which is to those who have referred the IDEAM in their most recent communications, these explains the SGC occur when non -consolidated volcanic materials deposited in certain places for previous eruptions is removilized by the rain are usually relativelysmall and its discharge and volume depends on the intensity of the rain that generates them.In that sense, we clarify that the lahars we have referred to from from the SGC in relation to the activity of the Nevado del Ruiz volcano are different from those that the IDEAM mentions emphasizes the entity may interest Spain reaches record temperatures in April with almost 40 C.It should be remembered that the Nevado del Ruiz volcano remains at the level of orange activity which means that it is possible that in days or weeks make an eruption greater than those that the entity has done in the last 10 years the entity remembers that the behavior remains unstable butHe warns that the eruption is just a probability.Follow us on Google News.Recommended topics.Nevado del Ruiz volcano.Nevado del Ruiz.News today.News Colombia.Go to comments</t>
+          <t>Home. Atmosphere. 28 Apr 2023 632 pm. Lahars to which the Geological Survey refers are different from those of Ideam. While the Colombian Geological Service SGC refers to some primary lahars that would appear in the event of a large-scale eruption of the Nevado del Ruiz volcano, the Ideam refers to secondary lahars that could be generated by the rains. The SGC clarifies what each one is about and what are the risks they represent. Drafting Environment. 0. Save. This is what the Nevado del Ruiz volcano looked like this Friday, April 28. Photo Colombian Geological Service. On Thursday, April 27, the Institute of Hydrology, Meteorology and Environmental Studies Ideam issued an orange and yellow alert in some towns in the area of ​​influence of the Nevado del Ruiz volcano due to the possibility of lahars due to the rains. You can read The recently discovered anemones that They build terraces at the bottom of the sea. The entity alerted different populations of Tolima and Caldas about the possible formation of lahars that could descend through the valleys of the Lagunilla Sabandija Recio rivers and the Nereid Alfombrales ravines of the Molinos Claro and Chinchiná rivers. However, on the afternoon of this Friday, April 28, the Colombian Geological Service SGC issued a statement clarifying that the lahars referred to by the Ideam are secondary and are different from the lahars referred to by the SGC. It may interest you This is how Colombia is going in its plans to achieve sustainable development in 2030. What are primary lahars and secondary lahars. Primary lahars, also known as avalanches, are volcanic phenomena that can occur if the Nevado del Ruiz volcano erupts at a large magnitude and are what the SGC refers to in its publications. These types of lahars are generated by the rapid melting of the ice and snow from the glaciers that cover the volcanic edifice due to the incandescent material that comes out of the volcano at the time of the eruption As they advance through the rivers that are born in the volcano they can increase their volume and become very destructive, destroying everything in their path, explains the SGC. and they have the ability to reach populations far from the volcano, as occurred in the Armero tragedy in 1985, the entity recalls. Now these lahars are very different from the secondary ones, which is what Ideam has referred to in its most recent statements. These, the SGC explains, occur when loose unconsolidated volcanic material deposited in certain places by previous eruptions is remobilized by rain. They tend to be relatively small and their discharge and volume depend on the intensity of the rain that generates them. In this sense, we clarify that the lahars to which we have referred from the SGC in relation to the activity of the Nevado del Ruiz volcano are different from those that the Ideam mentions, emphasizes the entity. It may interest you Spain reaches record temperatures in April with almost 40 C. It should be remembered that the Nevado del Ruiz volcano remains at an orange level of activity, which means that it is possible that in days or weeks it will erupt more than it has in the last 10 years. The entity recalls that the behavior continues to be unstable but warns that the eruption is only a probability. Follow us on Google News. Recommended topics. Ruiz Snowy Volcano. Nevado del Ruiz. News today. Colombian News. go to comments</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ruiz volcano activity is still unstable and remains on orange alert</t>
+          <t>Ruiz volcano activity remains unstable and remains on orange alert</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.28 Apr 2023 1141 A M.Activity of the Ruiz volcano remains unstable and remains on orange alert.The Colombian geological service confirmed that the volcano activity continues unstable so that seismic activity levels can increase a few days and decrease others.Environmental writing.0. Save.To change the level of the volcano and return to yellow, a prudent time is required in which trends and patterns can be observed to infer the possible decrease in activity.PHOTO AFP HANDOUT.The monitoring of the Nevado de Ruiz advanced by the Colombian Geological Service SGC registered that yesterday the seismic activity of the volcano associated with the fracturing of rock inside decreased with respect to April 26 the earthquakes were mainly located in the north -west north -west sectors oriental and southern of the volcanoat depths between 1 and 6 km.Read was believed to be extinct but the Jaguar reappeared on the Cravo Sur Casanare River.Regarding the seismic activity related to the movement of fluids inside the SGC reported that it showed seismic energy levels similar to April 26 activity associated with ash emissions that were confirmed through the web cameras used for monitoring theMaximum registered height of gases or ashes was 1800 meters from the top of the volcano and its dispersion went to the northwest.Read the dogs that are causing a serious problem in Colombia.According to the SGC, the activity of the Nevado del Ruiz volcano remains very unstable, it is possible that seismic activity levels as well as the levels of ash wear or output decrease or are oscillatory so they could increase a few days and decrease others.Read Asia also experiences record temperatures in April 43 C. To change the level of the volcano and return to yellow explains the SGC requires a prudent time in which trends and patterns can be observed to infer the possible decrease in the activity soThe entity clarifies that the orange level will remain for a few more weeks.You want to know the latest news about the atmosphere we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz.Nevado del Ruiz volcano.Go to comments</t>
+          <t>Home. Atmosphere. 28 Apr 2023 1141 am. Ruiz volcano activity remains unstable and remains on orange alert. The Colombian Geological Service confirmed that the activity of the volcano continues to be unstable, so the levels of seismic activity can increase on some days and decrease on others. Drafting Environment. 0. Save. For the level of the volcano to change and return to yellow, a prudent time is required in which trends and patterns can be observed to infer the possible decrease in activity. Photo AFP HANDOUT. The follow-up to Nevado de Ruiz carried out by the Colombian Geological Service SGC recorded that yesterday the seismic activity of the volcano associated with the fracturing of rock inside it decreased compared to April 26. The earthquakes were located mainly in the northwestern, northeastern, eastern and southern sectors of the volcano at depths between 1 and 6 km. Read It was believed to be extinct but the jaguar reappeared in the Cravo Sur Casanare river. Regarding the seismic activity related to the movement of fluids inside, the SGC reported that it showed seismic energy levels similar to those of April 26, activity associated with ash emissions that were confirmed through the web cameras used for monitoring. The maximum recorded height of gases or ashes was 1800 meters from the top of the volcano and its dispersion was towards the northwest. Read The dogs that are causing a serious problem in Colombia. According to the SGC, the activity of the Nevado del Ruiz volcano continues to be very unstable. It is possible that the levels of seismic activity as well as the levels of degassing or ash output may decrease or be oscillating, so they could increase on some days and decrease on others. Lea Asia also experiences record temperatures in April 43 C. For the level of the volcano to change and return to yellow, explains the SGC, a prudent time is required in which trends and patterns can be observed to infer the possible decrease in activity, so The entity clarifies that the orange level will remain for a few more weeks. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Ruiz Snowy Volcano. go to comments</t>
         </is>
       </c>
     </row>
@@ -804,12 +804,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>European Union provides help to the population affected by the Nevado del Ruiz volcano</t>
+          <t>European Union provides aid to the population affected by the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.Bibo.27 Apr 2023 418 P M.European Union provides help to the population affected by the Nevado del Ruiz volcano.The financial aid of the organization is aimed at water filter equipment First aid equipment and individual protection in the departments at risk by volcanic activity.European Union.0. Save.The maximum registered height of gases or ashes was 1800 meters from the top of the volcano.PHOTO SGC.In view of the increase in seismic activity related to the Nevado del Ruiz volcano that since March 24 has threatened about 60000 people, the EU European Union will provide more than one billion Colombian pesos 20000 EUR for humanitarian financing to support families thatThey have been forced to leave their homes and guarantee greater preparation for the most exposed communities.This EU financing will help the Colombian Red Cross to provide emergency services in the departments of Calima Tolima Cundinamarca Risaralda and Quindío Lea Volcán del Ruiz continues on orange alert and its activity remains unstable.The financing will contribute to the Red Cross can position essential equipment such as water filters first aid equipment and individual protective equipment in emergency preparation in five different departments The Red Cross will also carry out community workshops on early alert systems and will formVolunteers will also grant cash aid to families that have been forced to abandon agricultural work due to the emergency, the aid will directly benefit 16647 people in the most affected areas, priority will be given to families with vulnerable members.The high representative of the European Union and vice president of the European Commission Josep Borrell declared thanks to this EU humanitarian aid we will guarantee security and support the affected communities the preparation against catastrophes is a key component of EU's help in America in AmericaLatin and the Caribbean that is a very prone region to natural risks read the reason why marine elephants immerse themselves to take short naps.The Crisis Management Commissioner of the European Commission Janez Lenarčič affirms the world humanitarian panorama is severely affected by natural disasters that give rise to sudden emergencies with dire consequences this is the reason why the humanitarian commitment of the EU must go beyondFrom the aid after the crisis with this new financing channeled through the Colombian Red Cross we are reinforcing the local response capacity in the areas near the Nevado del Ruiz volcano through an anticipatory action a key component of our projects that will allow usSave lives and contain damage.Financing is part of the EU overall contribution to the Emergency Fund for the DREF Disaster Response of the International Red Cross Federation and the Red Moon Ficr.Follow us on Google News.Recommended topics.Nevado del Ruiz volcano.Nevado del Ruiz.Colombia Volcano.Volcano today.Go to comments</t>
+          <t>Home. Atmosphere. BIBO. 27 Apr 2023 418 pm. The European Union provides aid to the population affected by the Nevado del Ruiz volcano. The organization's economic aid is aimed at equipping water filters, first aid equipment, and individual protection in departments at risk from volcanic activity. European Union. 0. Save. The maximum recorded height of gases or ashes was 1800 meters from the top of the volcano. SGC photo. In view of the increased seismic activity related to the Nevado del Ruiz volcano, which has threatened some 60,000 people since March 24, the European Union EU will provide more than one billion Colombian pesos EUR 200,000 of humanitarian funding to support families who they have been forced to leave their homes and ensure greater preparation for the most exposed communities. This EU funding will help the Colombian Red Cross to provide emergency services in the departments of Caldas, Tolima, Cundinamarca, Risaralda and Quindío. Lea Volcán del Ruiz continues on orange alert and its activity remains unstable. The funding will help the Red Cross to position essential equipment such as water filters, first aid kits and personal protective equipment in preparation for emergencies in five different departments. The Red Cross will also hold community workshops on early warning systems and train volunteers In addition, cash aid will be granted to families who have been forced to abandon agricultural work due to the emergency. The aid will directly benefit 16,647 people in the most affected areas. Priority will be given to families with vulnerable members. The High Representative of the European Union and Vice President of the European Commission Josep Borrell declared Thanks to this humanitarian aid from the EU we will guarantee security and support affected communities Disaster preparedness is a key component of EU aid in the Americas Latin America and the Caribbean, which is a region very prone to natural hazards Read The reason why elephant seals dive to take short naps. European Commission Commissioner for Crisis Management Janez Lenarčič says The global humanitarian landscape is severely affected by natural disasters giving rise to sudden emergencies with dire consequences This is why the EU's humanitarian commitment must go further of post-crisis aid With this new funding channeled through the Colombian Red Cross we are reinforcing the local response capacity in the areas close to the Nevado del Ruiz volcano through anticipatory action, a key component of our projects that will allow us to save lives and contain damage. The funding is part of the overall EU contribution to the International Federation of Red Cross and Red Crescent IFRC Disaster Response Emergency Fund DREF. Follow us on Google News. Recommended topics. Nevado del Ruiz volcano. Nevado del Ruiz. Colombian volcano. volcano today. go to comments</t>
         </is>
       </c>
     </row>
@@ -822,12 +822,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ruiz volcano continues on orange alert and its activity remains unstable</t>
+          <t>Ruiz Volcano continues on orange alert and its activity remains unstable</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.27 Apr 2023 1035 A M.Ruiz volcano continues on orange alert and its activity remains unstable.The Colombian Geological Service confirmed that the volcano activity continues to be unstable so that seismic activity levels can be oscillatory, that is, they increase one day and decrease another.Environmental writing.0. Save.Since March 30, it was declared to alert orange in the Nevado Volcano of the Ruiz Photographic Archive of the Colombian Geological Service.PHOTO SGC.According to the monitoring of the Nevado de Ruiz advanced by the Colombian Geological Service SGC yesterday the seismic activity of the volcano associated with the fracturing of rock inside increased compared to April 25, the earthquakes were mainly located in the northeastern and eastern sectors of the volcano todepths between 2 and 35 km may interest the coral that suffocates reef in Venezuela and threatens the Caribbean.Regarding the seismic activity related to the movement of fluids inside the SGC reported that it showed seismic energy levels similar to April 25 activity associated with ash emissions that were confirmed through the web cameras used for monitoring theMaximum registered height of gases or ashes was 1800 meters from the top of the Volcano Read without climate change the horn of Africa would not be going through its worst drought.Extraordinary Bulletin of Activity of the Nevado del Ruiz volcano April 27 0950 The level of activity continues in orange httpstco6pk9BS0WMSSGCVOLCANES PICTWITTERCOMGEOX9XCREV.Colombian Geological Service SGCOL APRIL 27 2023. The SGC also indicated that both important thermal anomalies continue at the bottom of the crater and the tear of sulfur dioxide to the atmosphere and the exit of water vapor in the volcano so they ratify that theActivity of the volcano continues to be unstable so that the levels of seismic activity can be oscillatory that is to say they can continue to increase one day and decrease another read first lion seen in Chad after 20 years of absence.As explained by the SGC to change the level of the volcano and return to yellow, a prudent time is required in which trends and patterns can be observed to infer the possible decrease in the activity, so the entity clarifies that the orange level will remain by somemore weeks.You want to know the latest news about the atmosphere we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz.Nevado del Ruiz volcano.Go to comments</t>
+          <t>Home. Atmosphere. 27 Apr 2023 1035 am. Ruiz Volcano remains on orange alert and its activity remains unstable. The Colombian Geological Service confirmed that the activity of the volcano continues to be unstable, so the levels of seismic activity can be oscillating, that is, they increase one day and decrease another. Drafting Environment. 0. Save. Since March 30, an orange alert was declared on the Nevado del Ruiz volcano Photographic archive of the Colombian Geological Service. SGC photo. According to the follow-up to Nevado de Ruiz advanced by the Colombian Geological Service SGC, yesterday the seismic activity of the volcano associated with the fracturing of rock inside it increased compared to April 25. The earthquakes were located mainly in the northeastern and eastern sectors of the volcano at depths between 2 and 35 km It may interest you The coral that suffocates reefs in Venezuela and threatens the Caribbean. Regarding the seismic activity related to the movement of fluids inside, the SGC reported that it showed seismic energy levels similar to those of April 25, activity associated with ash emissions that were confirmed through the web cameras used for monitoring. The maximum recorded height of gases or ashes was 1,800 meters from the top of the Lea volcano. Without climate change, the Horn of Africa would not be experiencing its worst drought. Extraordinary activity bulletin for the Nevado del Ruiz volcano April 27, 0950 The level of activity continues at ORANGE httpstco6pk9bs0WmSSGCVolcanoes pictwittercomgEOX9XcRev. Servicio Geológico Colombiano sgcol April 27 2023. The SGC also pointed out that both important thermal anomalies continue at the bottom of the crater, as well as the degassing of sulfur dioxide into the atmosphere and the release of water vapor from the volcano, thus confirming that the The volcano's activity continues to be unstable so that the levels of seismic activity can be oscillating, that is, they can continue to increase one day and decrease another Lea First lion seen in Chad after 20 years of absence. As explained by the SGC, for the level of the volcano to change and return to yellow, a prudent time is required in which trends and patterns can be observed to infer the possible decrease in activity, so the entity clarifies that the orange level will remain for some weeks more. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Nevado del Ruiz volcano. go to comments</t>
         </is>
       </c>
     </row>
@@ -840,12 +840,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RUIZ activity continues in orange earthquakes increased compared to Sunday</t>
+          <t>Ruiz activity continues in Naranja earthquakes increased compared to Sunday</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.0. Create your account right now and enjoy 10 free monthly contents.Creat your account.25 Apr 2023 946 A M.RUIZ activity continues in orange earthquakes increased compared to Sunday.The maximum magnitude reported by the SGC was 17 corresponding to the earthquake of the 0535 pm on Monday located 41 km east of the crater and 32 km deep this earthquake was reported as meaning by inhabitants in the Canyon of the Lagunilla River.Drafting Science.0. Save.View of the Ruiz from the Cerro Guali Colombian Geological Service.Photo Colombian Geological Service.The SGC Colombian Geological Service continues to monitor the activia of the Volcan Nevado del Ruiz in its today's report reports that during this April 24 and so far this day the seismic activity related to the movement of fluidVolcanic ducts showed an increase in seismic energy compared to the previous day April 23 and has been associated with several ash emissions that were confirmed through the web cameras used for volcanic monitoring.Follow us on Google News.Recommended topics.Snowy situation of the Ruiz.Nevado del Ruiz.Crater Nevado del Ruiz.Snowy Ruiz eruption.Go to comments.Links sponsored by Taboola.It may interest you.Former Bogotá diabetic says how to keep glucose in 85. Diabetes Secret.Sophistication at your feet Premium leather tennis.VLZ Premium.1 glass before sleeping will burn abdominal fat during the night.EmagBogotá calculate how much I could win by investing on Amazon CFD.Dailymarkets.Military glasses arrive in Colombia for less than 140000 and become fever between drivers.Tips and recommendations.The most wanted European tennis at prices ever seen before.Verified store.2023 elections Yahir Acuña leads surveys in Sincelejo.Volvo XC40 Plus B4 pays 50 today and 50 in 2025. By Tabola.Sponsored links.It may interest you.Free daily horoscope today May 11, 2023. The spectator.Wrinkles and spots you can follow this simple advice.Health portal.Solar panels are now a bargain thanks to the government.Solar panels search ads</t>
+          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 25 Apr 2023 946 am. Ruiz activity continues in Naranja earthquakes increased compared to Sunday. The maximum magnitude reported by the SGC was 17 corresponding to the earthquake at 0535 pm on Monday located 41 km to the east of the crater and 32 km deep. This earthquake was reported as felt by inhabitants in the Lagunilla river canyon. Writing Science. 0. Save. View of Ruiz from Cerro Guali Colombian Geological Service. Photo Colombian Geological Service. The Colombian Geological Service SGC continues to monitor the activity of the Nevado del Ruiz volcano. In its report today, the entity informs that during this April 24 and so far today the seismic activity related to the movement of fluids inside the The volcanic conduits showed an increase in seismic energy compared to the previous day, April 23, and has been associated with several ash emissions that were confirmed through the web cameras used for volcanic monitoring. Follow us on Google News. Recommended topics. Snowy situation of Ruiz. Nevado del Ruiz. Ruiz snow-capped crater. Nevado del Ruiz eruption. Go to comments. Links sponsored by Taboola. It may interest you. Former diabetic from Bogotá tells how to maintain glucose at 85. Diabetes secret revealed. Sophistication at your feet Premium leather tennis shoes. VLZ PREMIUM. 1 glass before bed will burn abdominal fat overnight. Emag. Bogotá calculate how much you could earn by investing in Amazon CFDs. Daily Markets. Military glasses arrive in Colombia for less than 140,000 and become a fever among drivers. Tips And Recommendations. The most sought after European sneakers at prices never seen before. Verified Store. Elections 2023 Yahir Acuña leads the polls in Sincelejo. Volvo xc40 plus b4 Pay 50 today and 50 in 2025. for Taboola. Sponsored links. It may interest you. Free daily horoscope today May 11, 2023. El Espectador. Wrinkles and spots You can follow this simple advice. Health Portal. Solar panels are now a bargain thanks to the government. Solar Panels Want Ads</t>
         </is>
       </c>
     </row>
@@ -858,12 +858,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ruiz volcano behavior remains unstable activity is monitored</t>
+          <t>Behavior of the Ruiz volcano continues to be unstable activity is monitored</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Home.Science.24 APR 2023 1117 A M.Ruiz volcano behavior remains unstable activity is monitored.The Colombian Geological Service recommends following the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities and being attentive to information about the evolution of the volcano state.Drafting Science.0. Save.Since March 30, it was declared to alert orange in the Nevado Volcano of the Ruiz Photographic Archive of the Colombian Geological Service.PHOTO SGC.The Colombian Geological Service SGC maintains its monitoring on the Nevado del Ruiz volcano The activity of this Sunday, April 23 maintained a similar behavior in terms of seismic number and energy with respect to the previous day April 22 The earthquakes associated with the fracturing of the rock were mainly locatedIn the southern and orientalnoriental southern sectors of the volcano as well as in the sandy sand at depths between 04 and 4 km the maximum magnitude recorded was 08. The seismicity related to fluid movement was basically concentrated in the crater sector and some of these earthquakesThey were associated with ash pulsatile emissions that were confirmed through the web cameras used for volcanic monitoring the maximum height of the gase column I observed ash was 1400 meters from the top of the volcano in addition the SGC reports that the thermal anomalies inThe crater bottom continues the same as the sulfur dioxide output to the atmosphere.You can see scientists discover more than 19000 new submarine volcanoes.The entity then reiterates that the activity of the Ruiz continues in orange although it is possible that the levels of seismic activity as well as the levels of degasification or exit of ash decrease or are oscillatory in the sense of increasing a few days and decreasing others this does not imply that theVolcan has returned to its normal levels of activity to change level and return at the yellow level is required to observe more continuous trends and patterns.During this time in the event that an acceleration of the processes that suggest an imminent eruption or that the eruption itself will occur, the level of activity will be changed to red.Follow us on Google News.Recommended topics.Nevado del Ruiz.Nevado del Ruiz volcano.Activity Volcán Nevado del Ruiz.Go to comments</t>
+          <t>Home. Science. 24 Apr 2023 1117 am. Behavior of the Ruiz volcano remains unstable activity is monitored. The Colombian Geological Service recommends following the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities and being attentive to information on the evolution of the state of the volcano. Writing Science. 0. Save. Since March 30, an orange alert was declared on the Nevado del Ruiz volcano Photographic archive of the Colombian Geological Service. SGC photo. The Colombian Geological Service SGC maintains its monitoring of the Nevado del Ruiz volcano The activity on Sunday, April 23, maintained a similar behavior in terms of number and seismic energy compared to the previous day, April 22. The earthquakes associated with rock fracturing were mainly located in the south-southeast and east-northeast sectors of the volcano as well as in the Arenas crater at depths between 04 and 4 km. The maximum magnitude recorded was 08. The seismicity related to fluid movement was basically concentrated in the crater sector and some of these earthquakes were associated with pulsatile ash emissions that were confirmed through the web cameras used for volcanic monitoring. The maximum height of the column of gases and/or ash observed was 1,400 meters from the top of the volcano. In addition, the SGC reports that thermal anomalies in the bottom of the crater continue just like the output of sulfur dioxide into the atmosphere. You can see Scientists discover more than 19,000 new submarine volcanoes. The entity then reiterates that the Ruiz activity continues in Naranja Although it is possible that the levels of seismic activity as well as the levels of degassing or ash output decrease or are oscillating in the sense of increasing on some days and decreasing on others, this does not imply that the volcano has returned to its normal levels of activity To change the level and return to the yellow level, a reasonable amount of time is required to observe more continuous trends and patterns. During this time, in the event that there is an acceleration of the processes that suggest an imminent eruption or that the eruption itself occurs, the activity level will change to red. Follow us on Google News. Recommended topics. Nevado del Ruiz. Ruiz Snowy Volcano. Nevado del Ruiz volcano activity. go to comments</t>
         </is>
       </c>
     </row>
@@ -876,12 +876,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>It is possible that the ash exit of the Nevado del Ruiz volcano decreases SGC</t>
+          <t>It is possible that the output of ash from the Nevado del Ruiz volcano will decrease SGC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.0. Create your account right now and enjoy 10 free monthly contents.Creat your account.23 APR 2023 303 P M.It is possible that the ash exit of the Nevado del Ruiz volcano decreases SGC.The AGRD the National Army and the governorates continue to work on improving the roads to improve the evacuation in case of an emergency.Environmental writing.0. Save.The maximum height reached by the gas column of the Nevado del Ruiz volcano was 1300 meters Efe Ernesto Guzmán.Photo Efe Ernesto Guzmán.According to the most recent Bulletin of the SGC Colombian Geological Service on the activity of the Nevado Volcano of the Ruiz corresponding to Saturday, April 22, seismicity levels are kept at levels similar to those presented in previous days.Follow us on Google News.Recommended topics.Nevado del Ruiz volcano.Nevado del Ruiz.Colombia Volcano.volcano today.Go to comments.Links sponsored by Taboola.It may interest you.Former Bogotá diabetic says how to keep glucose in 85. Diabetes Secret.Sophistication at your feet Premium leather tennis.VLZ Premium.This trick melts belly fat even eating everything.EmagMilitary glasses arrive in Colombia for less than 140000 and become fever between drivers.Tips and recommendations.Bogotá calculate how much I could win by investing on Amazon CFD.Dailymarkets.Why the luxury villas in Dubai are so cheap to see prices.Villas in Dubai sponsored links.2023 elections Yahir Acuña leads surveys in Sincelejo.Thus Bogotá advances in hospital infrastructure.The most seen in the environment.Atmosphere.Ash emission of the Nevado del Ruiz volcano reached a height of 2000 meters.May 1023 1217 P m.Atmosphere.Caldas will invest to improve alert system in the area near the Nevado del Ruiz.16 hours ago.Blog El Río.How we study whales if we just see them when they emerge to the surface.15 hours ago.By Tabola.Sponsored links.It may interest you.Uribe clarifies Trino about Coronell after knowing that he would face charges for slander.The viewer.Solar panels are now a bargain thanks to the government.Solar panels Search ads.Diabetes is not why the enemy of diabetes knows.Diasulin</t>
+          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 23 Apr 2023 303 pm. It is possible that the output of ash from the Nevado del Ruiz volcano will decrease SGC. The UNGRD, the National Army and the governorates continue to work on improving roads to improve evacuation in the event of an emergency. Drafting Environment. 0. Save. The maximum height reached by the column of gases from the Nevado del Ruiz volcano was 1,300 meters EFE Ernesto Guzmán. Photo EFE Ernesto Guzman. According to the most recent bulletin of the Colombian Geological Service SGC on the activity of the Nevado del Ruiz volcano corresponding to Saturday, April 22, seismicity levels remain at levels similar to those presented in previous days. Follow us on Google News. Recommended topics. Nevado del Ruiz volcano. Nevado del Ruiz. Colombian volcano. volcano today. Go to comments. Links sponsored by Taboola. It may interest you. Former diabetic from Bogotá tells how to maintain glucose at 85. Diabetes secret revealed. Sophistication at your feet Premium leather tennis shoes. VLZ PREMIUM. This trick melts belly fat even if you eat everything. Emag. Military glasses arrive in Colombia for less than 140,000 and become a fever among drivers. Tips And Recommendations. Bogotá calculate how much you could earn by investing in Amazon CFDs. Daily Markets. Why luxury villas in Dubai are so cheap See Prices. Villas in Dubai Sponsored Links. Elections 2023 Yahir Acuña leads the polls in Sincelejo. This is how Bogotá advances in hospital infrastructure. The most viewed in Environment. Atmosphere. Ash emission from the Nevado del Ruiz volcano reached a height of 2000 meters. 10 May 2023 1217 pm. Atmosphere. Caldas will invest to improve the alert system in the area near Nevado del Ruiz. 16 hours ago. Blog The River. How do we study whales if we barely see them when they rise to the surface. 15 hours ago. by Taboola. Sponsored links. It may interest you. Uribe clarifies trill about Coronell after learning that he would face charges for slander. The viewer. Solar panels are now a bargain thanks to the government. Solar panels Want ads. Diabetes is not so sweet Meet the enemy of diabetes. Diasulin</t>
         </is>
       </c>
     </row>
@@ -894,12 +894,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>What happened to the Nevado del Ruiz volcano since he is on orange alert</t>
+          <t>What has happened to the Nevado del Ruiz volcano since it is on orange alert</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.22 Apr 2023 1127 A M.What has happened with the Nevado del Ruiz volcano since he is on orange alert.The increase in earthquakes began to register since March 24 although this activity has decreased in recent days there are other anomalies that make the volcano activity very unstable according to the most recent bulletins of the SGC.Environmental writing.0. Save.Since March 30, it was declared to alert orange in the Nevado Volcano of the Ruiz Photographic Archive of the Colombian Geological Service.PHOTO SGC.The SGC Colombian Geological Service issued a new newsletter on the activity of the Nevado del Ruiz volcano during Friday, April 21 according to the document The earthquakes and thermal anomalies continue and remain at levels similar to those registered in previous days.Some of these earthquakes were associated with the activity of the lava dome located at the bottom of the crater, the SGC reported the most magnitude earthquake and occurred at 304 in the afternoon at 27 km depth Read present prevention actions to possible eruptionof the Nevado del Ruiz volcano.The institution also announced that the output of sulfur dioxide and water vapor continues in the volcano reason why they continue to constantly monitor through satellites the volcanic activity The orange alert will continue for several weeks.Since March 24, there was an increase in the seismicity associated with rock fracturing inside the Nevado del Ruiz volcano 4 km away from the Arenas craterdaily earthquakes since 2010 in this 6500 volcanNevado del Ruiz.In the first week of April the seismicity associated with rock fracturing continued with daily rates of between 5000 and 10500 earthquakes until April 5 the magnitude of these movements also increased.However, in this week the seismicity began to decrease but the output of volcanic gases water and ash as well as the temperature at the bottom of the crater increased.From the SGC this phenomenon was interpreted as a possible magma migration from the south -west of the volcano to a reservoir that was already 3 km below the crater additionally during this week several confirmed ash emissions were recorded and several reports were receivedIn the municipality of Murillo Tolima explains the Institution LEA No eruption of the Nevado del Ruiz volcano is not imminent as they assure through networks.In the following week the number of registered daily earthquakes ceased to be a determining indicator of the volcano activity, however the alert continues due to the seismic activity associated with the output of volcanic gases Water vapor I ash the possible mobilization of magma towards thesurface and thermal anomalies.As of April 13, the seismicity in the crater increased there almost 2000 small and repetitive earthquakes associated with the pressure that the magma that is being mobilized to the surface exerts on the dome that has been located since the end of 2015 at the bottom of the craterArenasSulfur dioxide emissions continue, which indicates that the volcano system is not completely closed if the gases were inside the structure would accumulate causing the probability of an eruption to increase exponentially support the SGC read Nevado del Ruiz are normalreports reported in the northern part of the volcano.Inhabitants of the El Siphon sector about 7 km to the northeast of the crater have reported noises from the volcano at dawn hours this phenomenon is within the parameters contemplated at the level of orange activity of a volcano like this and does not accelerate the condition thatAn eruption greater than those made in the last 10 years in the end of days or weeks is probable.To change level and return at the yellow level, it requires several weeks where trends and patterns can be observed that allow inferring the possible decrease in the activity during this time if the activity that demonstrates an imminent eruption or that the eruption itself occurs in itself increases the eruption itselfactivity level will be changed to red.Follow us on Google News.Recommended topics.Nevado del Ruiz volcano.Nevado del Ruiz.Volcano today.Nevado del Ruiz news.Go to comments</t>
+          <t>Home. Atmosphere. 22 Apr 2023 1127 am. What has happened to the Nevado del Ruiz volcano since it is on orange alert. The increase in earthquakes began to be registered since March 24. Although this activity has decreased in recent days, there are other anomalies that make the volcano's activity very unstable according to the most recent bulletins from the SGC. Drafting Environment. 0. Save. Since March 30, an orange alert was declared on the Nevado del Ruiz volcano Photographic archive of the Colombian Geological Service. SGC photo. The Colombian Geological Service SGC issued a new bulletin on the activity of the Nevado del Ruiz volcano on Friday, April 21. According to the document, the earthquakes and thermal anomalies continue and remain at levels similar to those registered in previous days. Some of these earthquakes were associated with the activity of the lava dome located at the bottom of the crater, the SGC reported. The largest earthquake was 14 and occurred at 304 in the afternoon at a depth of 27 km Read Prevention actions are presented in the event of a possible eruption of the Nevado del Ruiz volcano. The institution also announced that the output of sulfur dioxide and water vapor in the volcano continues, which is why they continue to constantly monitor volcanic activity through satellites. The orange alert will continue for several weeks. Since March 24, there has been an increase in seismicity associated with rock fracturing inside the Nevado del Ruiz volcano, 4 km away from the Arenas crater. In the following days this type of seismicity increased, reaching the highest number of earthquakes on March 28. 6,500 daily earthquakes have been registered in this volcano since 2010. During March 29 and 30, the number and magnitude of earthquakes reached unprecedented levels Due to this situation, an orange alert was declared Read Do not be confused by the image of a supposed crack in the Nevado del Ruiz. In the first week of April, the seismicity associated with rock fracturing continued with daily rates of between 5,000 and 10,500 earthquakes until April 5. The magnitude of these movements also increased. However, in this same week the seismicity began to decrease but the output of volcanic gases, water vapor and ash as well as the temperature at the bottom of the crater increased. From the SGC, this phenomenon was interpreted as a possible migration of magma from the southwest of the volcano to a reservoir that was already 3 km below the crater. Additionally, during this week several confirmed ash emissions were recorded and several reports of ash fall were received. in the municipality of Murillo Tolima explains the institution Lea No eruption of the Nevado del Ruiz volcano is not imminent as they assure by networks. In the following week, the number of registered daily earthquakes ceased to be a determining indicator of the volcano's activity. However, the alert continues due to the seismic activity associated with the release of volcanic gases, water vapor and/or ash, the possible mobilization of magma towards the surface and thermal anomalies. As of April 13, the seismicity in the crater increased, there occurred almost 2000 small and repetitive earthquakes associated with the pressure that the magma that is mobilizing to the surface exerts on the dome that has been at the bottom of the crater since the end of 2015. sands. Sulfur dioxide emissions continue, which indicates that the Volcano system is not completely closed, if it were, the gases inside the structure would accumulate, causing the probability of an eruption to increase exponentially, the SGC Lea Nevado del Ruiz maintains, the amounts are normal. noises reported in the northern part of the volcano. Inhabitants of the El Sifón sector, about 7 km northeast of the crater, have reported noises coming from the volcano at dawn. This phenomenon is within the parameters contemplated in the orange activity level of a volcano like this and does not accelerate the condition that a bigger eruption is likely than it has done in the last 10 years in terms of days or weeks. To change the level and return to the Yellow level, it takes several weeks where trends and patterns can be observed that allow us to infer the possible decrease in activity. During this time, if the activity increases, it shows an imminent eruption or the eruption itself occurs. activity level will change to red. Follow us on Google News. Recommended topics. Ruiz Snowy Volcano. Nevado del Ruiz. volcano today. Nevado del Ruiz volcano news. go to comments</t>
         </is>
       </c>
     </row>
@@ -912,12 +912,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nevado de Ruiz volcano This is its state on April 21</t>
+          <t>Nevado de Ruiz volcano this is its state on April 21</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Home.Science.21 Apr 2023 1150 A M.Nevado de Ruiz volcano This is its state on April 21.The activity of the volcano continues to be very unstable says the latest report of the Colombian Geological Service.Environmental writing.0. Save.The Nevado del Ruíz volcano is 5321 meters above sea level.Photo Colombian Geological Service.All eyes continue on the Nevado del Ruiz volcano that has been on orange alert during the last weeks that means that there is a probability that in the next few days or weeks it will make a greater rash than the one that has occurred in the last decade LeaAn old NASA satellite fell to Earth over the Sahara desert.The situation has not yet changed much in the face of what is reported in previous days, the activity of the volcano continues to be very unstable according to the latest report of the SGC Colombian service its indicators suggest that the alert state must still maintain especially in the nearby municipalities.Although the seismicity of fracture can vary and change the location the presence of thermal anomalies at the bottom of the crater greater than those presented in previous months associated with the exit on the occasion of ash are sometimes parameters that indicate a higher level of activity of this withRegarding previous weeks, I reiterates in the Document Read by test flight exploits the Starship ship.In a little more technical words, the situation is as follows on the one hand the seismic activity associated with rock fracturing inside the volcanic building maintained similar behavior in terms of number and seismic energy with respect to the previous day April 19 explains the SGC.On the other hand, the earthquakes were located around the volcano in the southwestern and northeastern western sectors at depths between 1 and 6 kilometers also continues the seismicity related to the movement of fluids inside the volcanic ducts associated mainly to the steam output of vapor ofWater and volcanic gases.The Nevado del Ruiz volcano continues to expel a gase column and ash its height was 1300 meters measured from the top of the volcano as well as the tear of sulfur dioxide to the atmosphere and the thermal anomalies at the bottom of the crater.Faced with this, the entity's recommendation is the same as in recent days to follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities.You want to know the latest news about science we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News Colombia.science.volcano.Nevado del Ruiz.Go to comments</t>
+          <t>Home. Science. 21 Apr 2023 1150 am. Nevado de Ruiz volcano this is its state on April 21. The volcano's activity continues to be very unstable, says the latest report from the Colombian Geological Service. Drafting Environment. 0. Save. The Nevado del Ruíz volcano is 5321 meters above sea level. Photo Colombian Geological Service. All eyes continue to be on the Nevado del Ruiz volcano, which has been on orange alert for the past few weeks. This means that there is a probability that in the coming days or weeks it will erupt more than it has in the last decade. Read An old NASA satellite fell to Earth over the Sahara desert. The situation has not yet changed much compared to what was reported in previous days The volcano's activity continues to be very unstable according to the latest report from the Colombian Geological Service SGC Its indicators suggest that the alert status must still be maintained, especially in nearby municipalities. Although the seismicity of the fracture can vary and change location, the presence of thermal anomalies in the bottom of the crater greater than those presented in previous months associated with the continuous output of ash are parameters that indicate a higher level of activity of this with Compared to previous weeks, he reiterates in the document Lea The Starship spacecraft explodes in a test flight. In slightly more technical words, the situation is as follows: On the one hand, the seismic activity associated with rock fracturing inside the volcanic edifice maintained a similar behavior in terms of seismic number and energy compared to the previous day, April 19, explains the SGC. On the other hand, the earthquakes were located in the surroundings of the volcano in the western, southwestern, and northeastern sectors at depths between 1 and 6 kilometers. The seismicity related to the movement of fluids inside the volcanic conduits, mainly associated with the release of steam from water and volcanic gases. The Nevado del Ruiz volcano continues to expel a column of gases and ash. Its height was 1,300 meters measured from the top of the volcano. Likewise, the degassing of sulfur dioxide into the atmosphere and thermal anomalies at the bottom of the crater continue. Faced with this, the entity's recommendation is the same as it has been doing in recent days to follow all the instructions of the UNGRD National Unit for Disaster Risk Management and local authorities. Do you want to know the latest news on science? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. Colombian News. science. volcano. Nevado del Ruiz. go to comments</t>
         </is>
       </c>
     </row>
@@ -930,12 +930,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>They present prevention actions to possible eruption of the Nevado del Ruiz volcano</t>
+          <t>Prevention actions are presented in the event of a possible eruption of the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Home.Policy.0. Create your account right now and enjoy 10 free monthly contents.Creat your account.20 Apr 2023 945 P M.They present prevention actions to possible eruption of the Nevado del Ruiz volcano.During a political control debate in Congress, the director in charge of the Risk Management Unit Luis Fernando Velasco said that the entity works to sensitize families that must evacuate their homes as they are in a threat zone.Political writing.0. Save.Luis Fernando Velasco responds for government actions before the alert of the Nevado del Ruíz volcano.AGRD Photo.Luis Fernando Velasco attended a debate on political control in the Fifth Commission of the House of Representatives that cited him to respond for the actions of the Government against the orange alert that generated the activity of the Nevado volcano of the Ruiz.Follow us on Google News.Recommended topics.Policy.news.Colombia today.Today news.Political news.Go to comments</t>
+          <t>Home. Policy. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 20 Apr 2023 945 pm. They present prevention actions against a possible eruption of the Nevado del Ruiz volcano. During a political control debate in Congress, the director in charge of the Risk Management Unit, Luis Fernando Velasco, said that the entity works to sensitize families who must evacuate their homes when they are in a threat zone. Political Writing. 0. Save. Luis Fernando Velasco responds for actions of the Government before alert of the Nevado del Ruíz volcano. UNGRD photo. Luis Fernando Velasco attended a political control debate on Thursday in the Fifth Commission of the House of Representatives, which summoned him to answer for the Government's actions in response to the orange alert generated by the activity of the Nevado del Ruiz volcano. Follow us on Google News. Recommended topics. Policy. news. Columbia today. Today news. Political news. go to comments</t>
         </is>
       </c>
     </row>
@@ -948,12 +948,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz These are the latest changes reported in the volcano</t>
+          <t>Nevado del Ruiz these are the latest changes reported in the volcano</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.20 Apr 2023 1137 A M.Nevado del Ruiz These are the latest changes reported in the volcano.The SGC Colombian Geological Service explained that the predominant seismic activity in the volcano reported yesterday was related to the movement of fluids inside the volcanic ducts, the entity added that there was a slight increase in the number of earthquakes.Environmental writing.0. Save.In Murillo the Colombian people closest to the Nevado del Ruiz its inhabitants live the day to day normally despite the orange alert.Photo Efe Ernesto Guzmán.Since the orange alert was declared in the Nevado del Ruiz volcano, the SGC Colombian Geological Service issues a daily statement in which it reports the latest changes that are recorded in its most recent bulletin said that the predominant seismic activity in the volcano reported yesterday was relatedWith the movement of fluids inside the volcanic ducts also added is associated with the emission of gases and ash read Nevado del Ruiz are normal the noise reported in the northern part of the volcano.As for the seismicity which is associated with the fracturing of the rock inside the volcanic building, the service assured that it showed a slight increase in the number of earthquakes was located on the northeastern and southwestern flanks of the volcano at an average distance of the 10 crater of 10and 30 kilometers respectively pointed the service.The service also pointed out that the wear of sulfur dioxide to the atmosphere and water vapor in the volcano and the thermal anomalies in the bottom of the crater continue which are observed from the satellite monitoring platforms.He also reported that on Wednesday, April 19, the Colombia FAC Air Force made a overflow around the crater and at this time the information obtained is being analyzed and processed and as soon as there are results, they will be informed can read the planned coal mines in Colombia will raise themethane emissions.Through its Twitter account, the service also explained that it is possible1985 1989 and 2012. It should be remembered that the activity of the volcano remains very unstable and that it will continue on orange alert during the next weeks may interest this could cost Colombia to eradicate the hippos.We know that many people are interested in knowing more about the change of level of activity to orange of the Nevado Volcano del Ruiz so we prepare for you answers to the 5 most frequent questions in our social networks.We open thread.Colombian Geological Service Sgcol April 19 2023. You want to know the latest news about the environment we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz.Nevado del Ruiz volcano.Go to comments</t>
+          <t>Home. Atmosphere. 20 Apr 2023 1137 am. Nevado del Ruiz these are the latest changes reported in the volcano. The Colombian Geological Service SGC explained that the predominant seismic activity in the volcano reported yesterday was related to the movement of fluids inside the volcanic conduits. The entity added that there was a slight increase in the number of earthquakes. Drafting Environment. 0. Save. In Murillo, the closest Colombian town to Nevado del Ruiz, its inhabitants live their daily lives normally despite the orange alert. Photo EFE Ernesto Guzman. Since the orange alert was declared in the Nevado del Ruiz volcano, the Colombian Geological Service SGC issues a daily statement in which it reports the latest changes that have been registered. In its most recent bulletin, it assured that the predominant seismic activity in the volcano reported yesterday was related with the movement of fluids inside the volcanic conduits. He also added that it is associated with the emission of gases and ash Lea Nevado del Ruiz, the noises reported in the northern part of the volcano are normal. Regarding seismicity, which is associated with the fracturing of the rock inside the volcanic edifice, the service assured that it showed a slight increase in the number of earthquakes. It was located on the northeastern and southwestern flanks of the volcano at an average distance from the crater of 10 and 30 kilometers respectively pointed out the service. The service also pointed out that the degassing of sulfur dioxide into the atmosphere and of water vapor in the volcano continue and the recording of thermal anomalies at the bottom of the crater which are observed from satellite monitoring platforms. He also reported that on Wednesday, April 19, the Colombian Air Force FAC carried out an overflight around the crater and at this moment the information obtained is being analyzed and processed and as soon as the results are available they will be reported. You can read The planned coal mines in Colombia will raise the methane emissions. Through its Twitter account, the service also explained that it is possible to determine if the probability of an eruption is greater or lesser and approximately estimate its magnitude. This can be achieved thanks to permanent monitoring and the knowledge left by past eruptions such as that of 1985 1989 and 2012. It should be remembered that the volcano's activity is still very unstable and that it will remain on orange alert for the next few weeks It may interest you This could cost Colombia to eradicate the hippos. We know that many people are interested in learning more about the change of activity level to ORANGE of the Nevado del Ruiz volcano. That is why we have prepared for you answers to the 5 most frequently asked questions on our social networks. We open thread. Colombian Geological Service sgcol April 19 2023. Do you want to know the latest news about the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Nevado del Ruiz volcano. go to comments</t>
         </is>
       </c>
     </row>
@@ -966,12 +966,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Do not be confused by the image of an alleged crack in the Nevado del Ruiz</t>
+          <t>Do not be confused by the image of a supposed crack in the Nevado del Ruiz</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Home.Science.19 Apr 2023 1217 P M.Do not be confused by the image of an alleged crack in the Nevado del Ruiz.These days, an image of an alleged crack that has the Nevado del Ruiz volcano has circulated but part of the information with which they have presented it is false at the moment the orange alert is maintained.Drafting Science.0. Save.Photograph of the Nevado Volcano of the Ruiz Colombian Geological Service.PHOTO COLOMBIAN GEOLOGICAL GEOLOGICAL EPESERVICE.These days, an image has circulated in which a kind of huge crack is observed in the Nevado del Ruiz volcano on social networks some users have associated it with the current activity of the volcano generating alarm between the settlers read a tragedy and a huge effort like thisWe learned to know our volcanoes.However, as explained by the Colombian Geological Service SGC, it is not a crack but a wall corresponding to the limit of a crystallized lava body a feature that this volcano has been presented for years and that is not related to its current activity.This trait is made more or less visible according to the amount of snow and ice present at every moment of the year the SGC clarifies this is the photograph that has circulated on the Internet.At the time according to the last bulletin of the entity, the activity of the volcanThey have presented in the last 10 years.Although the seismicity of fracture can vary and change the location the presence of thermal anomalies at the bottom of the crater greater than those presented in previous months associated with the exit on the occasion of ash are sometimes parameters that indicate a higher level of activity of this withRegarding previous weeks ensures the SGC.According to the statement issued on April 19, the seismic activity of the volcano was related to the movement of fluids inside the volcanic ducts and associated with gas emission and ash this seismicity presented an increase with respect to the previous day April 18 ensures.However, the seismicity record associated with rock fracturing inside the volcanic building showed a slight decrease in the number of earthquakes.On the other hand, the maximum height of the gase column was 600 meters measured from the top of the volcano there was also a deraxed of sulfur dioxide to the atmosphere and water vapor in the volcano the emission of ash with a column that reached 1800 mmeasured from the top of the volcano.The recommendation of the SGC is to follow all the instructions of the National Unit for Disaster Risk Management UNRD and local authorities.You want to know the latest news about science we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News Colombia.Nevado del Ruiz volcano.Status of the Nevado del Ruiz volcano.Go to comments</t>
+          <t>Home. Science. 19 Apr 2023 1217 pm. Do not be confused by the image of a supposed crack in the Nevado del Ruiz. These days an image of an alleged crack that the Nevado del Ruiz volcano has has circulated, but part of the information with which they have presented it is false. For the moment, the orange alert is maintained. Writing Science. 0. Save. Photograph of the Nevado del Ruiz volcano Colombian Geological Service. Photo EFE Colombian Geological Service Colombian Geological Service. These days an image has circulated in which a kind of huge crack is observed in the Nevado del Ruiz volcano. In social networks, some users have associated it with the current activity of the volcano, generating alarm among the residents Read A tragedy and a huge effort like this we learned to know our volcanoes. However, as the Colombian Geological Service SGC explained, it is not a crack but a wall corresponding to the limit of a crystallized lava body, a feature that this volcano has had for years and that is not related to its current activity. This feature becomes more or less visible depending on the amount of snow and ice present at each moment of the year, clarifies the SGC This is the photograph that has circulated on the internet. At the moment, according to the last bulletin of the entity, the activity of the volcano continues to be very unstable and therefore the orange level is maintained, indicating that there is a probability that in the coming days or week there will be a greater eruption than those expected. have presented in the last 10 years. Although the seismicity of the fracture can vary and change location, the presence of thermal anomalies in the bottom of the crater greater than those presented in previous months associated with the continuous output of ash are parameters that indicate a higher level of activity of this with compared to previous weeks ensures the SGC. According to the statement issued on April 19, the seismic activity of the volcano was related to the movement of fluids inside the volcanic conduits and associated with the emission of gases and ash. This seismicity presented an increase compared to the previous day, April 18, he says. However, the seismicity record associated with rock fracturing inside the volcanic edifice showed a slight decrease in the number of earthquakes. On the other hand, the maximum height of the column of gases was 600 meters measured from the top of the volcano. There was also degassing of sulfur dioxide into the atmosphere and of water vapor in the volcano. The emission of ash with a column that reached 1800 m measured from the top of the volcano. The SGC's recommendation is to follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities. Do you want to know the latest news on science? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. Colombian News. Nevado del Ruiz volcano. state of the nevado del ruiz volcano. go to comments</t>
         </is>
       </c>
     </row>
@@ -984,12 +984,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Families near the Nevado del Ruiz will receive 250 tons of animal food</t>
+          <t>Families near Nevado del Ruiz will receive 250 tons of animal feed</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Home.The Zoocial Network.0. Create your account right now and enjoy 10 free monthly contents.Creat your account.18 Apr 2023 332 P m.Families near the Nevado del Ruiz will receive 250 tons of animal food.The Tolima Government through the Secretary of Agricultural Development and Food Production delivered balanced food for the livelihood of livestock as part of the strategies to support families that may be affected by a possible eruption of the volcano.The Zoocial Network.0. Save.AME9352 MURILLO COLOMBIA 06042023 Work is being done on the realization of a livestock wheel so that families in this region can sell cattle that are already ready for reference photo consumption.Photo Efe Ernesto Gúzman Jr. In the municipality of Murillo fifteen tons of concentrate began to surrender to 68 livestock families whose farms are settled in the area of influence of the Nevado del Ruiz volcano this after it was noted that the seismic activity of this mountain stillContinue on orange alert as reported by the SGC Colombian Geological Service.Follow us on Google News.Recommended topics.The Zoocial Network.Animals.Pets.RanchersNevado del Ruiz.Go to comments.The most seen in dogs.Dogs.How to know the age of a dog adopted or rescued so can calculate it.21 hours ago.Dogs.Not for animal abuse was found with wounds in a Transmilenio.23 hours ago.The Zoocial Network.Guardians of the galaxy was awarded to raise awareness about animal abuse.May 1023 953 A M</t>
+          <t>Home. The Zoo Network. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 18 Apr 2023 332 pm. Families near Nevado del Ruiz will receive 250 tons of animal feed. The Government of Tolima, through the Secretary of Agricultural Development and Food Production, delivered balanced food for the livelihood of livestock as part of the strategies to support families that may be affected by a possible eruption of the volcano. The Zoo Network. 0. Save. AME9352 MURILLO COLOMBIA 06042023 Work is being done on the realization of a Livestock Round so that the families of this region can sell the cattle that are ready for consumption Reference photo. Photo EFE Ernesto Gúzman Jr. In the municipality of Murillo fifteen tons of concentrate began to be delivered to 68 cattle families whose farms are located in the area of ​​influence of the Nevado del Ruiz volcano. This after it was warned that the seismic activity of this mountain still continues on orange alert as reported by the Colombian Geological Service SGC. Follow us on Google News. Recommended topics. The Zoo Network. Animals. Pets. Ranchers. Nevado del Ruiz. Go to comments. The most viewed in Dogs. Dogs. How to know the age of an adopted or rescued dog This is how you can calculate it. 21 hours ago. Dogs. Not for animal abuse Perrita was found with injuries in a Transmilenio. 23 hours ago. The Zoo Network. Guardians of the Galaxy was awarded for raising awareness about animal abuse. 10 May 2023 953 am</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz are normal the noise reported in the northern part of the volcano</t>
+          <t>Nevado del Ruiz the noises reported in the northern part of the volcano are normal</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.0. Create your account right now and enjoy 10 free monthly contents.Creat your account.18 Apr 2023 249 P m.Nevado del Ruiz are normal the noise reported in the northern part of the volcano.The SGC Colombian Geological Service clarified that we must not panic since this phenomenon is common within a volcano that is wear down and that regularly makes ash emissions as is the case of the Nevado del Ruiz.Environmental writing.0. Save.Seismic activity continues inside the Nevado del Ruiz volcano.PHOTO SGC.In the newsletter published on the morning of this Tuesday, April 18 by the SGC Colombian Geological Service and the Ministry of Mines and Energy there was a fact that caught the attention several of the inhabitants of the siphon sector located about seven kilometers to the northeastern craterThey reported noise during the early hours of Monday read this is the state of the Nevado Volcano del Ruiz on Tuesday, April 18.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz.Nevado del Ruiz volcano.Go to comments.The most seen in the environment.Atmosphere.Ash emission of the Nevado del Ruiz volcano reached a height of 2000 meters.May 1023 1217 P m.Atmosphere.Caldas will invest to improve alert system in the area near the Nevado del Ruiz.16 hours ago.Atmosphere.Up to the middle of the world could be in a different climatic zone for 2100. 21 hours ago</t>
+          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 18 Apr 2023 249 pm. Nevado del Ruiz noises reported in the northern part of the volcano are normal. The Colombian Geological Service SGC clarified that there is no need to panic since this phenomenon is common within a volcano that is degassing and regularly emits ash as is the case of Nevado del Ruiz. Drafting Environment. 0. Save. Seismic activity continues inside the Nevado del Ruiz volcano. SGC photo. In the bulletin published on the morning of this Tuesday, April 18, by the Colombian Geological Service SGC and the Ministry of Mines and Energy, there was a piece of information that drew the attention of several of the inhabitants of the Sifón sector located about seven kilometers northeast of the crater. reported noises during the early hours of Monday Read This is the state of the Nevado del Ruiz volcano on Tuesday, April 18. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Nevado del Ruiz volcano. Go to comments. The most viewed in Environment. Atmosphere. Ash emission from the Nevado del Ruiz volcano reached a height of 2000 meters. 10 May 2023 1217 pm. Atmosphere. Caldas will invest to improve the alert system in the area near Nevado del Ruiz. 16 hours ago. Atmosphere. Up to half the world could be in a different climate zone by 2100. 21 hours ago</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.18 Apr 2023 1121 A M.This is the state of the Nevado del Ruiz volcano on Tuesday, April 18.According to the Colombian Geological Service SGC, the activity of the volcano continues to be very unstable some inhabitants of the sector reported noise that is completely normal.Environmental writing.0. Save.The Nevado del Ruiz 5321 MSNM is the third largest in the country after the Sierra Nevada de Santa Marta and the Nevado del Huila.Private file photo.The last bulletin published by the Colombian Geological Service on the state of the Nevado del Ruiz volcano shows that as the activity has happened the activity continues to be very unstable read Nevado del Ruiz was included in the Decree of Natural Disaster Situation.According to this entity, the data collected until April 18 indicates a higher level of volcano activity with respect to previous weeks one of the parameters they analyzed has to do with the seismic activity associated with rock fracturing inside the volcanic building which showedA slight increase in the number of earthquakes compared to April 17.This type of seismicity continues mainly characterized by the occurrence of small earthquakes located in the Arenas crater which are associated with the activity of the protuberance dome or lava mound located at the bottom of the crater explains the SGC.According to the report, the seismicity located to the southwest of the volcano also presented low energy levels and remained at an average distance of the 40 km crater.Likewise, sulfur dioxide continues to the atmosphere and the degassing of the volcano the dynamics of the gases inside the volcano has shown some changes as evidenced by the additionally inhabitant seismic signals in the siphon sector about 7 km to the northeastern crate of the craterThey reported noise at dawn yesterday says the SGC that clarifies phenomenon is very common within a volcano that is wear down and regularly makes ash emissions such as the snowy of the Ruiz.Another of the parameters that is analyzing the geological service is the movement of fluids inside the volcanic ducts and the emission of ash the maximum height of the gase column I ash was 1800 meters that are measured from the top of the volcano that fact that factHe was associated with the Ash broadcast of April 18 at 0711 am.As other opportunities have said due to this scenario, the orange level of the volcano is maintained in other words means that there is a greater probability that in the next few days and weeks there is a greater eruption than the one that has occurred in the lastdecade.In the event that an acceleration of the processes that suggest an imminent eruption is produced or the eruption occurs, the level of activity will be changed to red, the SGC is scheduled.Its main recommendation is to keep the calm to follow all the instructions of the National Unit for Disaster Risk Management UNRGR and local authorities.You want to know the latest news about the atmosphere we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz.volcano.Nevado del Ruiz volcano.Go to comments</t>
+          <t>Home. Atmosphere. 18 Apr 2023 1121 am. This is the state of the Nevado del Ruiz volcano on Tuesday, April 18. According to the Colombian Geological Service SGC, the activity of the volcano continues to be very unstable. Some inhabitants of the sector reported noises, something that is completely normal. Drafting Environment. 0. Save. The Nevado del Ruiz 5321 masl is the third largest in the country after the Sierra Nevada de Santa Marta and the Nevado del Huila. Photo Archive private. The latest bulletin published by the Colombian Geological Service on the status of the Nevado del Ruiz volcano shows that, as has happened in previous days, the activity continues to be very unstable Lea Nevado del Ruiz volcano was included in the Natural Disaster Situation decree. According to this entity, the data collected up to this April 18 indicate a higher level of activity of the volcano compared to previous weeks. One of the parameters they analyzed has to do with the seismic activity associated with fracturing of rock inside the volcanic edifice, which showed a slight increase in the number of earthquakes compared to April 17. This type of seismicity continues, mainly characterized by the occurrence of small earthquakes located in the Arenas crater, which are associated with the activity of the bulge dome or lava mound located at the bottom of the crater, explains the SGC. According to the report, the seismicity located to the southwest of the volcano also presented low energy levels and remained at an average distance of 40 km from the crater. Likewise, sulfur dioxide continues to flow into the atmosphere and the degassing of the volcano. The dynamics of the gases inside the volcano have shown some changes, as evidenced by the seismic signals. Additionally, there are inhabitants in the Sifón sector, about 7 km northeast of the crater. they reported noises at dawn yesterday says the SGC This phenomenon clarifies that it is very common within a volcano that is degassing and that regularly emits ash such as Nevado del Ruiz. Another of the parameters that the Geological Service is analyzing is the movement of fluids inside the volcanic conduits and the emission of ash. The maximum height of the column of gases and/or ash was 1800 meters, measured from the top of the volcano. That fact It was associated with the ash emission on April 18 at 0711 am. As you have said on other occasions, due to this panorama, the orange level of the volcano remains. In other words, it means that there is a greater probability that in the coming days and weeks there will be a larger eruption than the one that has occurred in the last decade. In the event that there is an acceleration of the processes that suggest an imminent eruption or that the eruption occurs, the activity level will change to red, notes the SGC. His main recommendation is to remain calm, follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz. volcano. Nevado del Ruiz volcano. go to comments</t>
         </is>
       </c>
     </row>
@@ -1038,12 +1038,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>These are the latest changes recorded in the Nevado del Ruiz volcano</t>
+          <t>These are the last changes registered in the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.17 Apr 2023 1032 A M.These are the latest changes recorded in the Nevado del Ruiz volcano.In comparison of the previous day the seismic activity associated with the fracturing of rock inside the volcanic building showed a slight increase the orange level is maintained.Environmental writing.0. Save.The activity of the volcano is still very unstable.Photo IvanchoFr.The last Bulletin of the SGC Colombian Service on the Nevado del Ruiz volcano indicates that there have been some variations in the face of the activity that has been presented in previous days the seismic activity associated with the fracturing of the rock inside the volcanic building showed in front of Sunday 16 ofApril a slight increase in the number of earthquakes.According to the SGC, this type of seismicity was mainly characterized by the occurrence of small earthquakes located in the Arenas crater which are associated with the activity of the protuberance or lava mound.The volcano also presented low levels in energy and remained at an average distance of the 50 km crater.In a little simpler words, these indicators indicate that the activity of the volcano that must be constantWeek makes an eruption greater than those made in the last 10 years can also read Nevado del Ruiz volcano was included in the natural disaster situation decree.To change level and return at the yellow level, a prudential time is required where trends and patterns can be observed that allow inferring the possible decrease in the activity explains the SGC.According to this entity, the seismicity related to the movement of fluids inside the volcanic ducts and associated with ash emission has also continued the maximum height of the gase column I was observed as 1100 m measured from the top of the volcano with a directionof predominant dispersion to northwestern it reads in the last bulletin.Likewise, thermal anomalies have continued at the bottom of the crater which are observed from satellite platforms.Given this situation a few days ago, the Risk Management Unit presented the strategy so that the five municipalities that are in a greater threat in case of eruption can make an evacuation.However, there are 22 municipalities from four departments that are in a state of high threat by Tolima Department that declared public calamity earlier this month there are 14 municipalities Ambalema Armero Casabianca Falan Fresno Herveo Honda Honda Lérida Llebano Murillo Palocabildo San Sebastián de Mariquita Venadillo and Villahermosa.In Caldas Anserma Chinchiná Manizales Neira Palestina and Villamaría are the municipalities with the most risk.While in Cundinamarca is Guagudas and in Risaralda Santa Rosa de Cabal.You want to know the latest news about the atmosphere we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz.Nevado del Ruiz volcano.Go to comments</t>
+          <t>Home. Atmosphere. 17 Apr 2023 1032 am. These are the last changes registered in the Nevado del Ruiz volcano. Compared to the previous day, the seismic activity associated with the fracturing of the rock inside the volcanic edifice showed a slight increase. The orange level is maintained. Drafting Environment. 0. Save. The activity of the volcano is still very unstable. Photo ivanchofr. The latest bulletin from the Colombian Geological Service SGC on the Nevado del Ruiz volcano indicates that there have been some variations compared to the activity that has occurred in previous days. The seismic activity associated with the fracturing of rock inside the volcanic edifice showed on Sunday, December 16. April a slight increase in the number of earthquakes. According to the SGC, this type of seismicity was mainly characterized by the occurrence of small earthquakes located in the Arenas crater, which are associated with the activity of the bulge dome or mound of lava located at the bottom of the crater. The seismicity that is located to the southwest of the volcano also presented low energy levels and remained at an average distance from the crater of 50 km. In slightly simpler words, these indicators indicate that the activity of the volcano, which must be constantly monitored, continues to be very unstable. For this reason, the activity continues at an orange level, which means that there is a greater probability that in the next few days or week make a larger eruption than it has done in the last 10 years You can also read Nevado del Ruiz volcano was included in the Natural Disaster Situation decree. To change the level and return to the yellow level, a reasonable time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity, explains the SGC. According to this entity, the seismicity related to the movement of fluids inside the volcanic conduits and associated with the emission of ash has also continued. The maximum height of the column of gases and/or ash observed was 1100 m measured from the top of the volcano with a direction of predominant dispersion towards the northwest is read in the last bulletin. Likewise, thermal anomalies have continued at the bottom of the crater, which are observed from satellite platforms. Faced with this situation a few days ago, the Risk Management Unit presented the strategy so that the five municipalities that are in the greatest threat in the event of an eruption can carry out an evacuation. However, there are 22 municipalities in four departments that are in a state of high threat. On the part of Tolima, the department that declared a public calamity earlier this month, there are 14 municipalities: Ambalema Armero, Casabianca, Falan, Fresno, Herveo, Honda, Lérida, Líbano, Murillo, Palocabildo, San Sebastián de Mariquita, Venadillo, and Villahermosa. . In Caldas Anserma Chinchiná Manizales Neira Palestina and Villamaría are the municipalities with the highest risk. While in Cundinamarca there is Guagudas and in Risaralda Santa Rosa de Cabal. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Ruiz Snowy Volcano. go to comments</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.16 Apr 2023 951 A M.This is the state of the Nevado del Ruiz volcano on April 16.The Colombian geological service said that the seismicity related to the movement of fluids inside the volcanic ducts still continues.Environmental writing.0. Save.Image of the Nevado del Ruiz volcano.Photo IvanchoFr.This April 16, the SGC Colombian Geological Service issued a new statement that shows the state of the Nevado del Ruiz volcano according to the entity, the activity remains very unstable, so the orange level must be maintained read a tragedy and a huge effort like thisWe learned to know our volcanoes.As the SCG explains that level indicates that it is likely that in days or weeks the volcano will make an eruption greater than those it has done in the last 10 years.To change level and return at the yellow level, a prudential time is required where trends and patterns can be observed that allow inferring the possible decrease in activity adds in the bulletin.In the event that there is an acceleration of the processes that indicate that there may be an imminent eruption, the level of activity will be changed to red in that case all plans will be activated to avoid a tragedy in fact a few days ago President Gustavo Petro signed the extensionof decree 2113 of 2022 with which the national disaster situation was decreed last November to include the Nevado del Ruiz volcano.According to the SGC, the seismic activity associated with rock fracturing inside the volcanic building maintained similar levels with respect to the previous day, April 14, the earthquakes are read in the statement, they were located in the eastern and south -western sectors of the volcano and in the sandy sandat depths between 05 and 45 km.The maximum magnitude was 08 corresponding to the earthquake of the 1249 am located 11 km to the Crater East 36 km deep adds.The seismicity related to the movement of fluids inside the volcanic ducts associated with ash pulsatile emissions has also continued thanks to web cameras used in the monitoring of the volcano, this fact could be confirmed.The maximum height of the I ash gase column was 1600 meters.You want to know the latest news about the atmosphere we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.volcano.Nevado del Ruiz.Nevado del Ruiz volcano.Go to comments</t>
+          <t>Home. Atmosphere. 16 Apr 2023 951 am. This is the state of the Nevado del Ruiz volcano on April 16. The Colombian Geological Service assured that the seismicity related to the movement of fluids inside the volcanic conduits continues. Drafting Environment. 0. Save. Image of the Nevado del Ruiz volcano. Photo ivanchofr. This April 16, the Colombian Geological Service SGC issued a new statement that shows the status of the Nevado del Ruiz volcano According to the entity, the activity continues to be very unstable, which is why the orange level must be maintained Read A tragedy and a huge effort like this we learned to know our volcanoes. As the SCG explains, this level indicates that it is likely that in days or weeks the volcano will erupt more than it has in the last 10 years. To change the level and return to the yellow level, a reasonable time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity added in the bulletin. In the event that there is an acceleration of the processes that indicate that there may be an imminent eruption, the level of activity will be changed to red. In this case, all the plans will be activated to avoid a tragedy. In fact, a few days ago, President Gustavo Petro signed the extension Decree 2113 of 2022 with which the National Disaster Situation was decreed last November to include the Nevado del Ruiz volcano. According to the SGC, the seismic activity associated with rock fracturing inside the volcanic edifice maintained similar levels compared to the previous day, April 14. The earthquakes, the statement read, were located in the eastern-northeast and southwest sectors of the volcano and in the Arenas crater. at depths between 05 and 45 km. The maximum magnitude was 08 corresponding to the 1249 am earthquake located 11 km east-northeast of the crater at a depth of 36 km added. Seismicity related to the movement of fluids inside the volcanic conduits associated with pulsatile ash emissions has also continued. Thanks to web cameras used to monitor the volcano, this fact could be confirmed. The maximum height of the column of gases and/or ash was 1600 meters. Likewise, the SGC details that thermal anomalies continue at the bottom of the crater and there is still an output of sulfur dioxide into the atmosphere at levels similar to those of previous days. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. volcano. Nevado del Ruiz. Nevado del Ruiz volcano. go to comments</t>
         </is>
       </c>
     </row>
@@ -1074,12 +1074,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A tragedy and a huge effort we learned to know our volcanoes</t>
+          <t>A tragedy and a huge effort, so we learned to know our volcanoes</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Home.Science.16 Apr 2023 850 A M.A tragedy and a huge effort so we learned to know our volcanoes.In recent weeks the country has been attentive to the Nevado del Ruiz volcano that already caused a catastrophe in 1985 an episode that promoted the study of volcanoes in Colombia today we know them in great detail thanks to the effort of a network of scientists who continued the workFrom pioneers like Marta Calvache thanks to them we have a robust monitoring system and solid bases to prevent disasters.Daniela Quintero Díaz.Environment journalist.1. Save.Expeditions of the first volcanologists of Colombia from left to right Federman Trujillo Marta Calvache Jairo Luis Socarras and Stanley Williams forward Jaime González Díaz.Photo courtesy Colombian Geological Service.Usually when scientists are asked why they studied what they studied their answers, words such as curiosity or fascination with bugs or elements that some seem to draw their attention to their anecdotes infect the desire to solve difficult questions that end up becomingalmost in an obsession.By Daniela Quintero Díaz.DanielaquinterddquinteroLelesComcom.Follow us on Google News.Recommended topics.News today.News Colombia.volcanoesvolcano.Nevado del Ruiz.Go to comments</t>
+          <t>Home. Science. 16 Apr 2023 850 am. A tragedy and a huge effort so we learned to know our volcanoes. In recent weeks, the country has been attentive to the Nevado del Ruiz volcano, which already caused a catastrophe in 1985, an episode that prompted the study of volcanoes in Colombia. Today we know them in great detail thanks to the efforts of a network of scientists who continued the work from pioneers like Marta Calvache Thanks to them we have a robust monitoring system and solid foundations to prevent disasters. Daniela Quintero Diaz. Environment Journalist. 1. Save. Expeditions of the first volcanologists in Colombia From left to right Federman Trujillo Marta Calvache Jairo Luis Socarras and Stanley Williams Forward Jaime González Díaz. Photo Courtesy Colombian Geological Service. Usually, when scientists are asked why they studied what they studied, their answers usually have background words such as curiosity or fascination for bugs or elements that few seem to attract their attention. Their anecdotes spread the desire to solve difficult questions that end up becoming almost an obsession. By Daniela Quintero Diaz. DanielaQuinterddquinterodelespectadorcom. Follow us on Google News. Recommended topics. News today. Colombian News. volcanoes. volcano. Nevado del Ruiz. go to comments</t>
         </is>
       </c>
     </row>
@@ -1092,12 +1092,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>The activity of the Nevado del Ruiz volcano is still very unstable SGC</t>
+          <t>The activity of the Nevado del Ruiz volcano continues to be very unstable SGC</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.0. Create your account right now and enjoy 10 free monthly contents.Creat your account.15 Apr 2023 1046 A M.The activity of the Nevado del Ruiz volcano remains very unstable SGC.According to the Colombian Geological Service, the volcano activity continues at the orange level.Environmental writing.0. Save.Image of the Nevado del Ruiz volcano taken a couple of years ago.Photo IvanchoFr.After President Gustavo Petro signed the expansion of Decree 2113 of 2022 with which the national disaster situation was decreed last November to include the SNEVADO VOLCÁN of the Ruiz the Colombian Geological Service SGC warned that the activity of the volcano continues to beunstable.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz volcano.Nevado del Ruiz.Go to comments.Links sponsored by Taboola.It may interest you.Former Bogotá diabetic says how to keep glucose in 85. Diabetes Secret.Sophistication at your feet Premium leather tennis.VLZ Premium.This trick melts belly fat even eating everything.EmagMilitary glasses arrive in Colombia for less than 140000 and become fever between drivers.Tips and recommendations.Why the luxury villas in Dubai are so cheap to see prices.Villas in Dubai sponsored links.Bogotá calculate how much I could win by investing on Amazon CFD.Dailymarkets.Take advantage of seasonal prices to buy Mom's gift at the Santafé Shopping Center.Audi Q3 Sportback Bonus of 3000000 with Porsche Mobility and Allies apply TC.By Tabola.Sponsored links.It may interest you.The Shivech volcano in Russia erupted.The viewer.Wrinkles and spots you can follow this simple advice.Health portal.The most wanted European tennis at prices ever seen before.Verified store</t>
+          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 15 Apr 2023 1046 am. The activity of the Nevado del Ruiz volcano continues to be very unstable SGC. According to the Colombian Geological Service, the volcano's activity continues at an orange level. Drafting Environment. 0. Save. Image of the Nevado del Ruiz volcano taken a couple of years ago. Photo ivanchofr. After President Gustavo Petro signed the expansion of decree 2113 of 2022 with which the National Disaster Situation was decreed last November to include the Nevado del Ruiz volcano, the Colombian Geological Service SGC warned that the volcano's activity continues to be unstable. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Nevado del Ruiz. Go to comments. Links sponsored by Taboola. It may interest you. Former diabetic from Bogotá tells how to maintain glucose at 85. Diabetes secret revealed. Sophistication at your feet Premium leather tennis shoes. VLZ PREMIUM. This trick melts belly fat even if you eat everything. Emag. Military glasses arrive in Colombia for less than 140,000 and become a fever among drivers. Tips And Recommendations. Why luxury villas in Dubai are so cheap See Prices. Villas in Dubai Sponsored Links. Bogotá calculate how much you could earn by investing in Amazon CFDs. Daily Markets. Take advantage of the seasonal prices to buy a gift for mom at the Santafé Shopping Center. Audi Q3 Sportback Bonus of 3,000,000 with Porsche Mobility and allies TC apply. by Taboola. Sponsored links. It may interest you. The Shiveluch volcano in Russia has erupted. The viewer. Wrinkles and spots You can follow this simple advice. Health Portal. The most sought after European sneakers at prices never seen before. Verified Store</t>
         </is>
       </c>
     </row>
@@ -1110,12 +1110,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano was included in the natural disaster situation decree</t>
+          <t>Nevado del Ruiz volcano was included in the Natural Disaster Situation decree</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.14 Apr 2023 750 P M.Nevado del Ruiz volcano was included in the natural disaster situation decree.President Gustavo Petro signed the inclusion of this situation in the decree that gives him powers to have resources for risk management in the event of an eventual eruption.Drafting Science.0. Save.Seismic activity continues inside the Nevado del Ruiz volcano.PHOTO SGC.This April 13, President Gustavo Petro signed the extension of Decree 2113 of 2022 with which the national disaster situation was decreed last November to include the Nevado del Ruiz volcano. They may be interested in these are the municipalities in high threat by activityof the Nevado del Ruiz volcano.With this extension, it is contemplated to have the resources of the vital Colombia of the National Risk Management Fund for the effects that have been generated so far by the orange alert situation in the Nevado del Ruiz volcano as well as for the actions that are madeThey must take before an eventual eruption.The national disaster situation had been decreed on November 1 due to the ravages caused by the girl's phenomenon in different parts of the country now after the announcement of the SGC Colombian service last March 30 the alert level for the activity of the volcano changedorange and decided to include this situation in the decree.The four departments that are in the threat zone of the Calima Quindío and Risaralda volcano have begun to work in emergency plans and have declared public calamity also President Gustavo Petro ordered last April 5 evacuate 2500 families living near the craterFrom the volcano you can also read government presents evacuation routes against possible eruption of the volcano.However, there is still no certainty about the number of families that have been evacuated in all areas where public calamity has been declared, the evacuation is being led by territorial authorities and has faced difficulties between them that families refuse to evacuate.The resources that the Presidency could dispose of would be destined to facilitate and promote evacuations. The coordination of alert systems Training Equipment Reserve centers Shelter training and drills necessary before an eventual emergency as well as to reduce the risk that emerges from the activity of the volcanoWe recommend this way the Nevado del Ruiz is taken.The SGC has been emphatic that the activity within the volcano has been unstable but that it is not possible to predict whether there will be an eruption or at what time the importance of paying attention to the indications of the National Unit for Risk Management will occur.of AGRD disasters about evacuation routes and recommendations to a possible emergency.You want to know the latest news about the atmosphere we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz volcano.Colombian Geological Service.Go to comments</t>
+          <t>Home. Atmosphere. 14 Apr 2023 750 pm. Nevado del Ruiz volcano was included in the Natural Disaster Situation decree. President Gustavo Petro signed the inclusion of this situation in the decree that gives him powers to dispose of resources for risk management in the event of an eventual eruption. Writing Science. 0. Save. Seismic activity continues inside the Nevado del Ruiz volcano. SGC photo. This April 13, President Gustavo Petro signed the extension of Decree 2113 of 2022 with which the National Disaster Situation was decreed last November to include the Nevado del Ruiz volcano. It may interest you These are the municipalities in high threat due to activity of the Nevado del Ruiz volcano. With this expansion, it is contemplated to have the resources of the Colombia Vital sub-account of the National Risk Management Fund for the affectations that have been generated up to now by the orange alert situation in the Nevado del Ruiz volcano as well as for the actions that should take before an eventual eruption. The National Disaster Situation had been decreed on November 1 due to the havoc caused by the La Niña phenomenon in different parts of the country. Now, after the announcement of the Colombian Geological Service SGC on March 30, the alert level for the activity of the volcano changed to orange and it was decided to include this situation in the decree. The four departments that are in the threat zone of the Caldas Tolima Quindío and Risaralda volcano have started working on emergency plans and have declared a public calamity. President Gustavo Petro also ordered on April 5 to evacuate 2,500 families living near the crater of the volcano You can also read Government presents evacuation routes before possible eruption of the volcano. However, there is still no certainty about the number of families that have evacuated in all the areas where the public calamity has been declared. The evacuation is being led by territorial authorities and there have been difficulties among them that the families refuse to evacuate. . The resources available to the presidency would be used to facilitate and promote evacuations, coordination, alert systems, training, equipment, reserve centers, shelters, training and drills necessary in the event of an emergency, as well as to reduce the risk arising from the activity of the volcano. We recommend it This is how you take the pulse of Nevado del Ruiz. The SGC has been emphatic that the activity inside the volcano has been unstable but that it is not possible to predict if there will be an eruption or when it will occur. Hence the importance of paying attention to the indications of the National Unit for Risk Management of UNGRD Disasters about evacuation routes and recommendations in case of a possible emergency. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Ruiz Snowy Volcano. Colombian Geological Service. go to comments</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1128,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz rule out evacuation of cattle in municipalities of Tolima</t>
+          <t>Nevado del Ruiz rules out cattle evacuation in Tolima municipalities</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Home.The Zoocial Network.14 Apr 2023 605 P M.Nevado del Ruiz rule out evacuation of cattle in municipalities of Tolima.Tolima farmers say that moving animals would significantly affect production and generate wear for cattle in the region.The Zoocial Network.0. Save.The decision to leave cattle in the area of influence was taken after hearing the requests of the community and the productive sectors.AFP Photo Joaquin Sarmiento.The seismic activity of the Nevar volcano of the Ruiz continues on orange alert as reported by the Colombian Geological Service SGC due to the risk of a possible eruption, local authorities continue to implement measures to protect people domestic animals and wildlife and wildlife residing in theDepartments of influence of the volcano.Read after death of recognized animalist look for home to 27 puppies in Antioquia.The Deputy Minister of Agricultural Affairs Luis Alberto Villegas reported that in the last hours the evacuation of animals especially of the cattle that are in the municipalities closest to the Nevado was ruled out in the department of Tolima.It should be remembered that the Ministry of Agricultural Development had announced last week the evacuation of about 12000 cattle in the municipalities of Murillo Villahermosa Casabianca and Herveo Tolima.According to Villegas, the decision to leave cattle in the area of influence was taken after hearing the requests of the community and the productive sectors will maintain their cattle in the area in a first stage that is preventive and they go down to safe sites toSleep and are moving daily to their work areas that allows farms of farms and plots to maintain their productive activities and take care of animals and crops expressed the vice minister to Caracol Radio.For their part, Tolima's farmers said that moving animals would significantly affect production and generate wear for bovines in the region are not going to run with the wear of moving animals for other high parts because that implies that animals lose weight to us thoseAreas should have the load capacity but we know that the cold weather farms each has its own load capacity and we would incur a problem to other regions said Julián Hernández representative of the farmers of Murillo in the aforementioned medium.Hernández also mentioned that the support of the National Government for the feeding of livestock is required for a while we need on the grounds of the upper part to have food for an eventual eruption of the Nevado del Ruiz volcano and that we can have enough food for at least 20 daysFor our animals to be held if a catastrophe happens pointed out the livestock leader.It might interest animal abandonment in Transmilenio what is happening.Given this, the Deputy Minister of Agricultural Affairs announced that they are working on other strategies such as food banks in each municipality with Silo Salt and Food for the cattle.He wants to be up to date and knowing the latest news about the animal world invites him to see them in the Zoocial Network also if he has a story or is interested in having his with his pet can write us to Laredoocialellelespectadorcom.Follow us on Google News.Recommended topics.The Zoocial Network.Animals.Pets.Nevado del Ruiz.Nevado del Ruiz Animals.Go to comments</t>
+          <t>Home. The Zoo Network. 14 Apr 2023 605 pm. Nevado del Ruiz rule out cattle evacuation in Tolima municipalities. The Tolima ranchers assure that moving the animals would considerably affect production and would cause wear and tear on bovines in the region. The Zoo Network. 0. Save. The decision to leave the cattle in the area of ​​influence was made after listening to the requests of the community and the productive sectors. Photo AFP JOAQUIN SARMIENTO. The seismic activity of the Nevado del Ruiz volcano continues on orange alert, as reported by the Colombian Geological Service SGC Given the risk of a possible eruption, local authorities continue to implement measures to protect people, domestic animals, livestock and wildlife that reside in the Departments of influence of the volcano. Read After the death of a renowned animal lover, 27 puppies are looking for homes in Antioquia. The Vice Minister of Agricultural Affairs Luis Alberto Villegas reported that in the last hours the evacuation of animals, especially cattle found in the municipalities closest to the snow-capped mountain, has been ruled out in the department of Tolima. It should be remembered that the Ministry of Agricultural Development had announced last week the evacuation of nearly 12,000 cattle from the municipalities of Murillo Villahermosa Casabianca and Herveo Tolima. According to Villegas, the decision to leave the cattle in the area of ​​influence was made after listening to the requests of the community and the productive sectors. They are going to keep their cattle in the area in a first stage that is preventive and they go down to safe places to sleep and are moving daily to their work areas. This allows farm and plot workers to maintain their productive activities and take care of animals and crops, the vice minister told Caracol Radio. For their part, the Tolima ranchers stated that moving the animals would considerably affect production and would cause wear and tear on the bovines of the region. Zones should have carrying capacity, but we know that cold weather farms each have their own carrying capacity and we would incur in taking a problem to other regions, said Julián Hernández, representative of the Murillo ranchers, to the previously mentioned medium. Hernández also mentioned that the support of the National Government is required to feed the cattle for a while. We need food in the upper part of the land for an eventual eruption of the Nevado del Ruiz Volcano and for us to have enough food for at least 20 days so that our animals can sustain themselves if a catastrophe happens, pointed out the livestock leader. You might be interested in Abandonment of animals in TransMilenio what is happening. Given this, the Vice Minister of Agricultural Affairs announced that they are working on other strategies such as food banks in each municipality with salt silos and feed for cattle. You want to be up-to-date and know the latest news about the animal world. We invite you to see them at La Red Zoocial Also, if you have a story or are interested in telling yours with your pet, you can write to laredzoocialelespectadorcom. Follow us on Google News. Recommended topics. The Zoo Network. Animals. Pets. Nevado del Ruiz. Nevado del Ruiz animals. go to comments</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1146,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>These are the municipalities in high threat by activity of the Nevado del Ruiz volcano</t>
+          <t>These are the municipalities in high threat due to the activity of the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.0. Create your account right now and enjoy 10 free monthly contents.Creat your account.14 Apr 2023 1056 A M.These are the municipalities in high threat by activity of the Nevado del Ruiz volcano.The situation of the volcano continues to be unstable according to the Bulletin of the Colombian Geological Service The thermal anomalies at the bottom of the crater are greater than those presented in previous months.Environmental writing.0. Save.In Tolima there are 14 municipalities at high risk Efe Ernesto Guzmán.Photo Efe Ernesto Guzmán.The National Unit for Disaster Risk Management Ungrd announced the list of the 22 municipalities of four departments that are in a high threat state due to the activity of the Nevado del Ruiz volcano.Follow us on Google News.Recommended topics.Ruiz Nevado Volcano.Nevado del Ruiz.volcano today.Nevado del Ruiz today.Go to comments</t>
+          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 14 Apr 2023 1056 am. These are the municipalities in high threat due to the activity of the Nevado del Ruiz volcano. The situation of the volcano continues to be unstable according to the bulletin of the Colombian Geological Service. The thermal anomalies at the bottom of the crater are greater than those presented in previous months. Drafting Environment. 0. Save. In Tolima there are 14 municipalities at high risk EFE Ernesto Guzmán. Photo EFE Ernesto Guzman. The National Unit for Disaster Risk Management UNGRD released the list of the 22 municipalities of four departments that are in a state of high threat due to the activity of the Nevado del Ruiz volcano. Follow us on Google News. Recommended topics. snow-capped volcano of Ruiz. Nevado del Ruiz. volcano today. snowy del Ruiz today. go to comments</t>
         </is>
       </c>
     </row>
@@ -1164,12 +1164,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Government presents evacuation routes against possible eruption of the volcano</t>
+          <t>Government presents evacuation routes before possible eruption of the volcano</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.13 Apr 2023 604 P M.Government presents evacuation routes against possible eruption of the volcano.The UNGRD next to the departments and municipalities presented the routes for the places that are in the high threat zone.Environmental writing.0. Save.Recent image of the Nevado del Ruiz volcano that is located 5321 meters above sea level AFP SGC.PHOTO AFP HANDOUT.This Thursday, April 13, the UNGRD National Risk Management Unit announced that after a joint work with the teams of the departments of Caldas and Tolima and their municipalities, it established which are the evacuation routes for the places that are in the area ofHigh threat to the possible eruption of the Nevado del Ruiz Lea Colombia volcano should begin to hunt hippos in the short term Humboldt and UNAL.As explained through a statement, these routes are arranged for the communities of the five municipalities that are in the 15 -kilometer radius to the Casabianca Herveo Murillo and Villahermosa volcano in Tolima and Villamaría in Caldas those points are what the UNGRD recommends evacuating beforethat there is an eruption although there are 22 municipalities that are part of the High Threat Zone of the volcano.In the case of Villamaría Caldas is the Condor route in the high mountain area that ends in the village of the Pyrenees for the low areas of the municipality is the route of evacuation by the sidewalk the banishment which ends in the church of the sidewalkOld rioclaro says the UNGRD.For Casabianca Tolima, a helipad was arranged for the Aguascalientes and Mesetas paths while in the low zone there is an evacuation route that circulates through the sidewalks El Coral and the meeting is the sidewalk the sidewalk the village in the areas of Las RiverasThere is the route that passes through the paths of the jewel Oronazo Cristalina San Ignacio Palmera and in the end it has a shelter in the village of La Esperanza.In Hervero Tolima the teams established the evacuation route for the communities located in the area of the Páramo to the municipal seat of the La Palma and Angulo E paths with a meeting point in Laguna Negra.In Murillo Tolima, the evacuation route is located on the main road and leads to the urban area begins in the village of La Cabaña and has as a meeting point the La Cabaña school.In the case of Villahermosa, which is an area close to the Arenas crater, the evacuation route connects to the Guayabal Siberia and Samaria paths with the urban center of the municipality where the meeting point is identified at the La Samaria school and an area whereIt could operate a helipad.What is the state of the volcano.According to the most recent Bulletin of the Colombian Geological Service SGC continues the seismic activity in the Nevado del Ruiz volcano yesterday, April 12, the type of seismicity increased with respect to the previous day.At 803 in the morning there was an earthquake of magnitude 19 the strongest on Wednesday four kilometers deep from the volcano craterThe maximum magnitude was 18 associated with the earthquake of the 0357 PM at 4 km deep reported the SGC.The emission of ash has also also stopped sulfur dioxide exit to the atmosphere maintained levels similar to previous days the maximum height of the gase column I observed ash was 1800 meters that represents a slight decrease with respect to which theApril 11 that was 2500 meters.Although the seismicity of fracture can vary and change the location the presence of thermal anomalies at the bottom of the crater greater than those presented in previous months associated with the exit sometimes continues ash are parameters that indicate a higher level of activity of the volcano withRegarding previous weeks which must be monitored permanently and specially say from the SGC.Given this panorama, the orange alert will remain during the following weeks because to return at the yellow level, a prudential time is required where trends and patterns can be observed that allow inferring the possible decrease in volcanic activity.You want to know the latest news about the atmosphere we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz volcano.Nevado del Ruiz.Go to comments</t>
+          <t>Home. Atmosphere. 13 Apr 2023 604 pm. Government presents evacuation routes before possible eruption of the volcano. The UNGRD together with the departments and municipalities presented the routes for the places that are in a high threat area. Drafting Environment. 0. Save. Recent image of the Nevado del Ruiz volcano, which is 5,321 meters above sea level AFP SGC. Photo AFP HANDOUT. This Thursday, April 13, the UNGRD National Risk Management Unit announced that after joint work with the teams from the departments of Caldas and Tolima and their municipalities, it established the evacuation routes for the places that are in the area of high threat due to the possible eruption of the Nevado del Ruiz volcano Lea Colombia should start hunting hippos in the short term Humboldt and Unal. As explained through a statement, these routes are arranged for the communities of the five municipalities that are within a 15-kilometer radius of the Casabianca volcano Herveo Murillo and Villahermosa in Tolima and Villamaría in Caldas These points are the ones that the UNGRD recommends evacuating before of an eruption, although there are 22 municipalities that are part of the high threat zone of the volcano. In the case of Villamaría Caldas, there is the route of the Condor in the high mountain area that ends in the Los Pirineos village. For the lower areas of the municipality, there is the evacuation route through the El Destierro village, which ends in the church of the village. Old Rioclaro says the UNGRD. For Casabianca Tolima, a heliport was arranged for the Aguascalientes and Mesetas villages, while in the lower area there is an evacuation route that circulates through the El Cardal El Coral villages and has the El Lembo village as a meeting point In the riverside areas there is the route that passes through the paths of La Joya Oronazo Cristalina San Ignacio Palmera and at the end it has a shelter in the path La Esperanza. In Hervero Tolima, the teams established the evacuation route for the communities located in the páramo area towards the municipal head of the villages of La Palma and Angulo E with a meeting point in Laguna Negra. In Murillo Tolima, the evacuation route is on the main road and leads to the urban area, starting in the village of La Cabaña and meeting point at the La Cabaña school. In the case of Villahermosa, which is an area close to the Arenas crater, the evacuation route connects the Guayabal Siberia and La Samaria villages with the urban center of the municipality where the meeting point at the La Samaria school is identified and an area is available where could operate a heliport. What is the state of the volcano. According to the most recent bulletin of the Colombian Geological Service SGC, seismic activity continues in the Nevado del Ruiz volcano. Yesterday, April 12, the type of seismicity increased compared to the previous day. At 803 in the morning, an earthquake of magnitude 19, the strongest on Wednesday, was recorded four kilometers deep from the volcano's crater. In the afternoon, the earthquakes were registered mainly in the northeastern sector of the volcano at depths between 3 and 5 km the maximum magnitude was 18 associated with the earthquake at 0357 pm at a depth of 4 km, reported the SGC. The emission of ash has not stopped either, although the output of sulfur dioxide into the atmosphere maintained levels similar to previous days. The maximum height of the column of gases and/or ash observed was 1800 meters, which represents a slight decrease compared to the one registered in the April 11 that was 2500 meters. Although the seismicity of the fracture can vary and change location, the presence of thermal anomalies in the bottom of the crater greater than those presented in previous months associated with the continuous output of ash are parameters that indicate a higher level of activity of the volcano with With respect to previous weeks, which must be monitored permanently and in a special way, they say from the SGC. Given this scenario, the orange alert will remain in place for the following weeks, since a reasonable amount of time is required for it to return to the yellow level, where trends and patterns can be observed that allow us to infer the possible decrease in volcanic activity. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Nevado del Ruiz. go to comments</t>
         </is>
       </c>
     </row>
@@ -1182,12 +1182,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano will remain at the orange level for several weeks</t>
+          <t>Nevado del Ruiz volcano will remain in orange level for several weeks</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.0. Create your account right now and enjoy 10 free monthly contents.Creat your account.13 Apr 2023 1106 A M.Nevado del Ruiz volcano will remain at the orange level for several weeks.From the SGC they continue to permanently monitor anomalies especially those related to volcano temperatures.Environmental writing.0. Save.The ash column of the Nevado del Ruiz volcano reached 1800 meters from the crater in the last hours.Photo IvanchoFr.Seismic activity continues in the Nevado del Ruiz volcano according to the most recent Bulletin of the SGC Colombian Geological Service yesterday April 12 increased the type of seismicity with respect to the previous day.Follow us on Google News.Recommended topics.Nevado del Ruiz volcano.Nevado del Ruiz.Volcano today.SGC.UNGRD.Go to comments.The most seen in the environment.Atmosphere.Ash emission of the Nevado del Ruiz volcano reached a height of 2000 meters.May 1023 1217 P m.Atmosphere.Caldas will invest to improve alert system in the area near the Nevado del Ruiz.16 hours ago.Blog El Río.How we study whales if we just see them when they emerge to the surface.15 hours ago</t>
+          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 13 Apr 2023 1106 am. Nevado del Ruiz volcano will remain in orange level for several weeks. The SGC continues to permanently monitor anomalies, especially those related to the volcano's temperatures. Drafting Environment. 0. Save. The column of ash from the Nevado del Ruiz volcano reached 1,800 meters from the crater in the last few hours. Photo ivanchofr. Seismic activity continues in the Nevado del Ruiz volcano according to the most recent bulletin from the Colombian Geological Service SGC Yesterday, April 12, the type of seismicity increased compared to the previous day. Follow us on Google News. Recommended topics. Nevado del Ruiz volcano. Nevado del Ruiz. volcano today. SGC. UNGRD. Go to comments. The most viewed in Environment. Atmosphere. Ash emission from the Nevado del Ruiz volcano reached a height of 2000 meters. 10 May 2023 1217 pm. Atmosphere. Caldas will invest to improve the alert system in the area near Nevado del Ruiz. 16 hours ago. Blog The River. How do we study whales if we barely see them when they rise to the surface. 15 hours ago</t>
         </is>
       </c>
     </row>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.12 Apr 2023 1053 A m.The activity of the Nevado del Ruiz volcano remains at the same levels.The National Mining Agency made 200 people available to them in case of an emergency.Environmental writing.0. Save.The smoke column reached 2500 meters high according to the SGC.PHOTO AFP JJ BONILLA.The Colombian Geological Service SGC announced a new bulletin on the seismic activity in the Nevado del Ruiz volcano according to the entity in the last hours, earthquakes associated with fluid release were reported.Basically, it had left ash almost continued, falls were reported in Villa María and Finland we can say that the fracture -type seismicity is over explained John Makario Londoño Technical Director of Geoamenazas of the SGC Read another great challenge to mobilize the cows that live near the Ruiz volcano.The maximum seismic magnitude that was recorded yesterday was 13 corresponding to a movement that was presented at 0503 am at about 3 km deep compared to the top of the volcano.The maximum height of the gase column I observed ash was 2500 meters from the top of the volcano which represents an increase since in previous days this era of 1800 m.Londoño explained that they are now monitoring fluid activities in the crater and in the nearby area that indicates that the activity of the Nevado del Ruiz remains very unstable, so the orange arta continues to read Hippo Causes another accident in Puerto Triunfo Antioquia.The community is recommended to keep the calm to follow all the instructions of the National Unit for Disaster Risk Management and local authorities and be attentive to the information provided by the Colombian Geological Service about the evolution of the state of the volcano indicated the entity inThe most recent newsletter.The UNRGRD continues to monitor the situation through a unified command post to make sure the population evacuation process that is led by the Departmental Risk Management Councils the adequacy of evacuation roads and the contingency plans read five dead elephants inCountry of Africa light alarms due to ivory traffic.Recently, the National Mining Agency Anm announced that it made available to UNGRD a team with approximately 200 mining rescue helping to support in case of an emergency.Socorredores are properly trained and prepared to support not only mining emergencies but also those that have to do with landslides of rescue prehospital care and the management of logistics said Álvaro Pardo President of the ANM.Follow us on Google News.Recommended topics.volcano.Nevado del Ruiz volcano.Nevado del Ruiz volcano today.Nevado del Ruiz.Go to comments</t>
+          <t>Home. Atmosphere. 12 Apr 2023 1053 am. The activity of the Nevado del Ruiz volcano remains at the same levels. The National Mining Agency made available 200 people who could support in case of an emergency. Drafting Environment. 0. Save. The column of smoke reached 2,500 meters in height according to the SGC. Photo AFP JJ BONILLA. The Colombian Geological Service SGC released a new bulletin on the seismic activity in the Nevado del Ruiz volcano. According to the entity, in the last few hours, earthquakes associated with the release of fluids were reported. Basically, ash came out almost continuously Falls were reported in Villa María and Finland We can say that fracture-type seismicity has ended, explained John Makario Londoño, technical director of geohazards at the SGC Lea Another great challenge is to mobilize the cows that live near the Ruiz volcano. The maximum seismic magnitude that was registered yesterday was 13, corresponding to a movement that occurred at 0503 am at a depth of more or less 3 km with respect to the top of the volcano. The maximum height of the column of gases and/or ash observed was 2,500 meters from the top of the volcano, which represents an increase since in previous days it was 1,800 m. Londoño explained that they are now monitoring the activities of fluids in the crater and in the nearby area, which indicates that the activity of the Nevado del Ruiz is still very unstable, which is why the orange arta continues. Lea Hipopótamo causes another accident in Puerto Triunfo Antioquia. The community is recommended to remain calm, follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities and be attentive to the information provided by the Colombian Geological Service on the evolution of the state of the volcano, the entity indicated in the most recent newsletter. The UNGRD continues to monitor the situation through a Unified Command Post to ensure the evacuation process of the population, which is led by the Departmental Risk Management Councils, the adequacy of evacuation routes and contingency plans Read Five elephants killed in African country raise alarms for ivory trafficking. Recently, the ANM National Mining Agency announced that it made available to the UNGRD a team of approximately 200 Mining Rescue workers to support in case of an emergency. The rescuers are duly trained and prepared to support the care not only of mining emergencies but also those that have to do with landslides, rescue, pre-hospital care and logistics management, said Álvaro Pardo, president of the ANM. Follow us on Google News. Recommended topics. volcano. Nevado del Ruiz volcano. Nevado del Ruiz volcano today. Nevado del Ruiz. go to comments</t>
         </is>
       </c>
     </row>
@@ -1218,12 +1218,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Another great challenge mobilize the cows that live near the Ruiz volcano</t>
+          <t>Another great challenge is to mobilize the cows that live near the Ruiz volcano</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.11 Apr 2023 709 P M.Another great challenge mobilize the cows that live near the Ruiz volcano.Although the Government has insisted on the need for 2500 families to evacuthat some have not left their properties.María Paula Lizarazo.Amazon and environment journalist.1. Save.Some cows in Murillo Tolima El Ica estimates that in the risk areas of the four departments there are around 65000 animals.AFP Photo Joaquin Sarmiento.Last week, the Government announced that the evacuation of 2500 families is necessary due to the orange alert in the Ruiz Nevado volcano, these evacuations are leading by the authorities of each territory, however there is still no national balance of how many people how many people have evacuatedAccording to the National Unit for Disaster Risk Management, who already evacuated themselves at home or friends, so there are still no families in the shelters arranged by mayors and governorates.By María Paula Lizarazo.MARIAP_LIZARAZOMLIAROZOELESPECTADORCOM.Follow us on Google News.Recommended topics.News today.News today Colombia.Nevado del Ruiz.Snowy Evacuation of the Ruiz.Go to comments</t>
+          <t>Home. Atmosphere. 11 Apr 2023 709 pm. Another great challenge is to mobilize the cows that live near the Ruiz volcano. Although the government has insisted on the need to evacuate 2,500 families from the areas that are at risk due to the orange alert of the Nevado del Ruiz volcano, there is still no clear logistics regarding the mobilization of animals such as pigs, horses, cows, among others. the one that some have not left their properties. Maria Paula Lizarazo. Journalist of Amazonia and Environment. 1. Save. Some cows in Murillo Tolima The ICA estimates that in the risk areas of the four departments there are around 65,000 animals. Photo AFP JOAQUIN SARMIENTO. Last week the Government announced that the evacuation of 2,500 families is necessary due to the orange alert in the Nevado del Ruiz volcano. These evacuations are being led by the authorities of each territory, however there is still no national balance of how many people have evacuated According to the National Unit for Disaster Risk Management, UNGRD, those who have already evacuated stayed at the home of their relatives or friends, so there are still no families in the shelters arranged by the mayors and governors. By Maria Paula Lizarazo. mariap_lizarazomlizarazozelespectadorcom. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Nevado del Ruiz evacuation. go to comments</t>
         </is>
       </c>
     </row>
@@ -1236,12 +1236,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz in Risaralda prepare contingency for animal protection</t>
+          <t>Nevado del Ruiz in Risaralda prepare contingency for the protection of animals</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Home.The Zoocial Network.11 Apr 2023 1103 A M.Nevado del Ruiz in Risaralda prepare contingency for animal protection.According to local authorities between 120 and 150 animals will be taken to a temporary shelter.The Zoocial Network.0. Save.Local authorities continue to manage the evacuation processes of both people and domestic animals cattle and wildlife.AFP Photo Joaquin Sarmiento.The seismic activity of the Nevar volcano of the Ruiz continues on orange alert as reported by the Colombian Geological Surthat reside in the departments of influence of the volcano among them Risaralda.Reading Antioquia prosecute three people for marketing and having wildlife.Before the contingency for the activity of the volcano, the Ministry of Environment delivered a series of recommendations to the authorities of this department to be able to advance with the transfer of animals at first the director of the Regional Autonomous Corporation of Risaralda Carder Julio César Gómez had indicatedthat camps should be set up to attend and safeguard mammals.The bears that are quite large mammals that are very large for that we would have to mount some camps to attend all that fauna from the snowy area a minor fauna that we could move to clinics we are already talking to Ukumarí with the APA with veterinary clinics so that weThey help if necessary reported the official.However, the Secretary of Agricultural Development Juan Carlos Toro warned that the proposal to mobilize animals towards provisional shelters was discarded we realized that this is not possible there are animals that are 2700 meters above sea level if we lower those animals to 1500Or at 1000 meters we can affect them and indicated that there are only between 120 and 150 animals of several producers can be taken to a temporary shelter.Nevado del Ruiz might interest him how to take care of animals for the fall of ash.Consequently, the head of the Agricultural Development Office reported that at a meeting with the Ministry of Agriculture and with the Colombian Agricultural Institute Ica it was defined that to protect them from the ash falling the remaining animals, the remaining animals will be housed under roof in the same farms through a known processas fixed stabulation.In the same way, Toro explained that to feed the stabulated animals preventing the consuming grass contaminated by the ash we send a letter to the President of the Republic with a copy to the Minister of Agriculture where we ask for rejecting a procedure that is done to the grass to preserve itFor a long time as long as the bag is not opened the silage lasts years.Finally, the Secretary of Agricultural Development of Risaralda acknowledged the will to help the national government and said that the department is attentive to a positive response to effectively deploy contingency.He wants to be up to date and knowing the latest news about the animal world invites him to see them in the Zoocial Network also if he has a story or is interested in having his with his pet can write us to Laredoocialellelespectadorcom.Follow us on Google News.Recommended topics.The Zoocial Network.Animals.Pets.Nevado del Ruiz.Nevado del Ruiz Animals.Go to comments.Links sponsored by Taboola.It may interest you.Take this 1 time and lose 1 kg a week.EmagOperate gold CFDs with one of the lowest differentials.IC Markets.We cannot believe who Yalitza Aparicio is married.Healthy George.Incredible ways to use Greedy Finance table salt.Greedyfinance.If you have spots and wrinkles this trick can help you.The Colombia portal.Cardiologists are begging people to stop eating this.InvestingcomTake advantage of seasonal prices to buy Mom's gift at the Santafé Shopping Center.2023 elections Yahir Acuña leads surveys in Sincelejo.By Tabola.Sponsored links.It may interest you.This is the state of the Nevado del Ruiz volcano on April 16.The viewer.Scientists make a huge discovery to prove that biblical history on Mount Kilimanjaro is true.Greedyfinance.You want to live a unique adventure in Colombia.Wingo</t>
+          <t>Home. The Zoo Network. 11 Apr 2023 1103 am. Nevado del Ruiz in Risaralda prepare contingency for the protection of animals. According to local authorities between 120 and 150 animals will be taken to a temporary shelter. The Zoo Network. 0. Save. Local authorities continue to manage the evacuation processes for both people and domestic animals, livestock and wildlife. Photo AFP JOAQUIN SARMIENTO. The seismic activity of the Nevado del Ruiz volcano continues on orange alert as reported by the Colombian Geological Service SGC Given the risk of a possible eruption, local authorities continue to manage the evacuation processes for both people and domestic animals, livestock and wildlife. who reside in the departments influenced by the volcano, including Risaralda. Read Antioquia prosecute three people for trading and having wildlife. Given the contingency due to the activity of the volcano, the Ministry of the Environment delivered a series of recommendations to the authorities of this department in order to move forward with the transfer of animals. At first, the director of the Regional Autonomous Corporation of Risaralda Carder Julio César Gómez had indicated that camps should be set up to care for and safeguard mammals. The bears, which are quite large, mammals that are very large for that, we would have to set up some camps to care for all that fauna in the snowy area, a minor fauna that we could transfer to clinics, we are already talking with Ukumarí, with the APA, with veterinary clinics so that they can help if necessary informed the official. However, the Secretary for Agricultural Development Juan Carlos Toro warned that the proposal to move the animals to provisional shelters was discarded. We realized that this is not possible, there are animals that are 2,700 meters above sea level if we lower those animals to 1,500 or at 1000 meters we can affect them and indicated that there are only between 120 and 150 animals from various producers that can be taken to a temporary shelter. You might be interested in Nevado del Ruiz how to care for animals due to ash fall. Consequently, the head of the Agricultural Development office reported that in a meeting with the Ministry of Agriculture and the Colombian Agricultural Institute ICA, it was defined that in order to protect them from ash fall, the remaining animals will be housed indoors on the same farms through a known process. as fixed stable. In the same way, Toro explained that in order to feed the stabled animals, preventing them from consuming grass contaminated by ash, we sent a letter to the President of the Republic with a copy to the Minister of Agriculture where we requested silage, a procedure that is done to the grass to preserve it. For a long time, as long as the bag is not opened, the silage lasts for years. Finally, the Secretary of Agricultural Development of Risaralda recognized the willingness of the National Government to help and affirmed that the department is attentive to a positive response to effectively deploy the contingency. You want to be up-to-date and know the latest news about the animal world. We invite you to see them at La Red Zoocial Also, if you have a story or are interested in telling yours with your pet, you can write to laredzoocialelespectadorcom. Follow us on Google News. Recommended topics. The Zoo Network. Animals. Pets. Nevado del Ruiz. Nevado del Ruiz animals. Go to comments. Links sponsored by Taboola. It may interest you. Take this 1 time a day and lose 1 kg a week. Emag. Trade gold CFDs with one of the lowest spreads. IC Markets. We can't believe who Yalitza Aparicio is married to. Healthy George. Amazing ways to use Greedy Finance table salt. Greedyfinance. If you have spots and wrinkles, this trick can help you. The Colombian Portal. Cardiologists are begging people to stop eating this. investingcom. Take advantage of the seasonal prices to buy a gift for mom at the Santafé Shopping Center. Elections 2023 Yahir Acuña leads the polls in Sincelejo. by Taboola. Sponsored links. It may interest you. This is the state of the Nevado del Ruiz volcano on April 16. The viewer. Scientists make a huge discovery to prove the Biblical story on Mount Kilimanjaro is true. Greedyfinance. You want to live a unique adventure in Colombia. Wingo</t>
         </is>
       </c>
     </row>
@@ -1254,12 +1254,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>The orange alert continues by activity of the Nevado del Ruiz volcano</t>
+          <t>The orange alert continues due to the activity of the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Home.Atmosphere.11 Apr 2023 1025 A M.The orange alert continues by activity of the Nevado del Ruiz volcano.The Colombian geological service reported that although the activity can fluctuar, the alert will be very unstable will be maintained until a pattern of constant decrease in seismic activity is evidenced.Environmental writing.0. Save.Seismic activity continues inside the Nevado del Ruiz volcano.PHOTO SGC.The seismic activity of the Nevado del Ruiz volcano remains unstable according to what is indicated by the monitoring of the SGC Colombian service for this reason, the orange alert level is expected to remain for several weeks.It is happening with the volcano.The fluid movements and the emission of ashes caused by the earthquakes and the fracture of rock inside the mountain remained on Monday, April 10 and whatever runs on Tuesday.The gase column issued by the volcano for its activity reached a level of 2300 meters according to the SGC.km and at a distance from the crater between 2 and 6 km.In addition, the SGC asked the Nevado Communities to calm the National Unit for Disaster Risk Management, UNHRD remains in charge of the evacuation of the communities that are at risk, so they recommend following the indications of this entity we recommend Nevado of theRuiz three keys to understand what is happening with the volcano.Although the activity fluctuates and at times it decreases this does not mean that it has returned to a lower level of activity to change level and return at the yellow level is required prudential time where trends and patterns can be observed that allow inferring the possible decrease in activityassured the SGC.It is also recommended to be attentive to the official information that is issued on the activity of the volcano during the last weeks since the orange alert was declared.of an eagle minor harpy in Colombia.This is why the SGC clarifies that only when the alert level is changed to red there will be an imminent or ongoing eruption.You can see real -time images of the Nevado del Ruiz volcano in the cameras that the Colombian geological service has arranged from several points.You want to know the latest news about the atmosphere we invite you to see them in the viewer.Follow us on Google News.Recommended topics.News today.News today Colombia.Volcano news.Nevado del Ruiz volcano.Go to comments</t>
+          <t>Home. Atmosphere. 11 Apr 2023 1025 am. The orange alert continues due to the activity of the Nevado del Ruiz volcano. The Colombian Geological Service reported that although the activity may fluctuate, it is still very unstable. The alert will remain until a pattern of constant decrease in seismic activity is evidenced. Drafting Environment. 0. Save. Seismic activity continues inside the Nevado del Ruiz volcano. SGC photo. The seismic activity of the Nevado del Ruiz volcano remains unstable as indicated by the monitoring of the Colombian Geological Service SGC. For this reason, the orange alert level is expected to remain for several weeks. Nevado del Ruiz may be interested in three keys to understanding what is happening with the volcano. The movements of fluids and the emission of ash caused by the earthquakes and the fracture of the rock inside the mountain continued during Monday, April 10, and so far this Tuesday. The column of gases emitted by the volcano due to its activity reached a level of 2,300 meters according to the SGC. Likewise, the rock fracture inside it continues to be constantly monitored, which continues to be located in the southwestern sector of the volcano at depths between 2 and 4 km and at a distance from the crater between 2 and 6 km. In addition, the SGC requested calm from the communities surrounding the snowfall The National Unit for Disaster Risk Management UNGRD is still in charge of the evacuation of communities that are at risk, so they recommend following the indications of this entity We recommend Nevado del Ruiz three keys to understand what is happening with the volcano. Although the activity fluctuates and at times decreases, this does not mean that it has returned to a lower level of activity. To change the level and return to the yellow level, a reasonable time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity. assured the SGC. It is also recommended to be attentive to the official information that is issued about the activity of the volcano. During the last weeks since the orange alert was declared, chains of disinformation have circulated through social networks that can generate panic You can also read The story of the first birth record of a lesser harpy eagle in Colombia. For this reason, the SGC clarifies that only when the alert level is changed to red will there be an imminent or ongoing eruption. You can see real-time images of the Nevado del Ruiz volcano in the cameras that the Colombian Geological Service has arranged from various points. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Volcano news. Ruiz Snowy Volcano. go to comments</t>
         </is>
       </c>
     </row>

--- a/Output/el_espectador.xlsx
+++ b/Output/el_espectador.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,830 +436,643 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/esto-dice-el-ultimo-reporte-sobre-el-estado-del-volcan-nevado-del-ruiz-2/
-</t>
+          <t>Unnamed: 0</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Esto dice el último reporte sobre el estado del volcán Nevado del Ruiz</t>
+          <t>Unnamed: 1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Home
-Ambiente
-4
-Aún puedes leer 4 artículos más. Crea tu cuenta ahora mismo y disfruta de 10 contenidos mensuales gratis.
-Crea tu cuenta
-11 May 2023 - 11:35 a. m.
-Esto dice el último reporte sobre el estado del volcán Nevado del Ruiz
-La actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos presentó un leve aumento relacionado al número de sismos y la energía sísmica liberada, en comparación con el registro anterior.
-Redacción Ambiente
-0
-Guardar
-El nivel de actividad permanece en naranja.
-Foto: Servicio Geológico Colombiano
-Este jueves 11 de mayo, el Servicio Geológico Colombiano (SGC) publicó el último reporte sobre el estado del volcán Nevado del Ruiz, que ha estado en nivel de actividad naranja desde finales de marzo. Según el comunicado, el volcán permanece en ese nivel de actividad y se espera que siga así durante semanas.
-Desde las 9:00 a.m. de ayer, 10 de mayo, hasta las 9:00 a.m. del este 11 de mayo, “continuó predominando la actividad sísmica relacionada con el movimiento de fluidos al interior de los conductos volcánicos. Esta sismicidad presentó un leve aumento en el número de sismos y en la energía sísmica liberada respecto al día anterior”, indicó el SGC. (También puede leer: Entregan implementos a organismos de socorro en área cercana al Nevado del Ruiz)
-Asimismo, continuó el registro de sismos asociados al fracturamiento de roca al interior del edificio volcánico. Este indicador mostró un comportamiento similar en el número de sismos y en la energía sísmica con respecto al 9 de mayo. Los sismos se localizaron al suroccidente y al oriente del cráter Arenas, a una distancia máxima de 4 kilómetros y a profundidades entre 2 y 5 kilómetros.
-Con respecto a la altura máxima de la columna de gases y/o ceniza observada fue de 1800 metros medidos desde la cima del volcán, y la dirección de dispersión preferencial esta estuvo hacia el noroccidente -suroccidente y suroriente del volcán. “Por otro lado, se mantienen las variaciones en la desgasificación de dióxido de azufre y la salida de vapor de agua desde el cráter a la atmósfera”, agregó el SGC. (Le puede interesar: Emisión de ceniza del volcán nevado del Ruiz alcanzó una altura de 2000 metros)
-Todos estos indicadores respaldan el mensaje que ha dado el servicio desde hace varias semanas: la actividad del volcán Nevado del Ruiz sigue siendo muy inestable. Aunque es posible que indicadores como los sismos o gases varíen de día a día, esto no quiere decir que el volcán haya retornado a su nivel normal de actividad y, por eso, se recomienda adelantar medidas de prevención ante una posible emergencia.
-Este pasado miércoles, la Gobernación de Caldas anunció que adjudicó un contrato de 50 millones para mejorar los Sistemas de Alerta Temprana (SAT) en la zona que potencialmente resultaría afectada por una erupción.
-El contrato es por un valor de 50 millones de pesos y el contratista deberá “revisar el estado actual de las alarmas, potenciarlas y dejarlas para activación remota desde la sala de radios de la Cruz Roja”, indicó la Gobernación a través de un comunicado.
-Esto, con el objetivo de que, en caso de que haya una erupción, se activen todas las alarmas al mismo tiempo y las personas puedan evacuar. En la zona, varios habitantes habían denunciado previamente que red de alerta no contaba con suficiente cobertura.
-🌳 📄 ¿Quieres conocer las últimas noticias sobre el ambiente? Te invitamos a verlas en El Espectador. 🐝🦜
-Síguenos en Google Noticias
-Temas recomendados:
-Noticias hoy
-Noticias hoy Colombia
-Nevado del Ruiz
-Volcán Nevado del Ruiz
-Ir a los comentarios
-Lo más visto en Ambiente
-Ambiente
-Emisión de ceniza del volcán nevado del Ruiz alcanzó una altura de 2000 metros
-10 May 2023 - 12:17 p. m.
-Ambiente
-Caldas invertirá para mejorar sistema de alerta en área cercana al Nevado del Ruiz
-Hace 16 horas
-Blog El Río
-¿Cómo estudiamos a las ballenas si apenas las vemos cuando emergen a la superficie?
-Hace 15 horas</t>
+          <t>Unnamed: 2</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/entregan-implementos-a-organismos-de-socorro-en-area-cercana-al-nevado-del-ruiz/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/este-es-el-estado-del-volcan-nevado-del-ruiz-el-sabado-27-de-mayo/
 </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>They deliver implements to relief agencies in the area near Nevado del Ruiz</t>
+          <t>This is the state of the Nevado del Ruiz volcano on Saturday, May 27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 11 May 2023 730 am. They deliver supplies to relief agencies in the area near Nevado del Ruiz. The delivery of equipment is being carried out in 14 municipalities of the department of Tolima for people who are in the radius of the closest 15 kilometers to the volcano Among the delivered implements are first aid kits, rescue kits at heights and communication radios. Drafting Environment. 0. Save. 17 type B first aid kits have already been delivered. Photo Gobernación del Tolima. In Tolima, authorities began the delivery of implements and equipment to relief agencies and local communities in the area of ​​influence of the Nevado del Ruiz volcano. According to the department's Governor's Office, they are type B first-aid kits, rescue kits at heights, power plants, and portable radios to people who are in the radius of the closest 15 kilometers to the volcano. In other words, the delivery of equipment will be carried out in the 14 municipalities of the area of ​​influence of the Nevado del Ruiz volcano. The management for the delivery was carried out by the Government of Tolima together with the National Unit for Disaster Risk Management UNGRD the Ministry of ICT the Colombian Red Cross and the United States Agency for International Development USAID You can also read Up to half the world could be in a different climate zone by 2100. Andrea Mayorquín Perdomo, Director of Risk Management for the Government of Tolima reported that they delivered 17 type B first aid kits and three height rescue kits. He added that they also have power plants and 22 communications radios which have already been delivered to the communities that make up the 15 kilometer radius and we are delivering 38 more for a total of 60 portable communication radios. These radios will be linked to the communications room of the Secretary of the Environment and Risk Management of the Government of Tolima, the Colombian Geological Service and relief agencies There is constant communication with these agencies added Mayorquín in the event of an emergency. interest How do we study whales if we hardly see them when they emerge to the surface. We have articulated the risk management system for about 150 men who have increased awareness throughout the community by preparing and disseminating the response protocol in the event of a volcanic eruption, said the official. According to the latest report from the Colombian Geological Service SGC, the volcano remains at an orange level of activity, where it has been maintained for more than a month. During the day last Tuesday and Wednesday, there was a slight increase in earthquakes related to the movement of fluids. inside the volcano. Ash emissions also continue At 321 am on Wednesday, one that reached a height of 2000 meters was recorded. At 740 am communities in the Ventanas sector in Villahermosa and La Cabaña in Murillo, both in Tolima, recorded ash fall. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Volcano. Nevado del Ruiz volcano. go to comments</t>
+          <t>Home. Atmosphere. 4. You can still read 4 more articles Create your account right now and enjoy 10 free monthly content. Creat your account. 27 May 2023 1133 am. This is the state of the Nevado del Ruiz volcano on Saturday, May 27. The Colombian Geological Service SGC warns that due to all these variations the activity of the volcano continues to be very unstable. The entity also pointed out that the seismicity related to the movement of fluids inside the volcanic conduits increased in the number of registered earthquakes. Drafting Environment. 0. Save. This is what the Nevado del Ruiz volcano looks like this Saturday, May 27. Photo SGC SGC. The Colombian Geological Service SGC and the Ministry of Mines and Energy published the latest report on the situation of the Nevado del Ruiz volcano In the document they presented the data obtained from 0900 am on Friday, May 26 These are the most relevant data Read Erosion of the rivers may be a key factor in the diversity of fish species. The number of registered earthquakes increased due to the seismicity related to the movement of fluids inside the volcanic conduits. The seismic energy levels were maintained with respect to those registered on May 25. This type of seismicity was mainly characterized by the occurrence of small earthquakes located in the Arenas crater, which are associated with the activity of the bulge dome or lava mound located at the bottom of the crater. Some of the seismic signals were associated with pulsatile ash emissions. Seismic activity associated with rock fracturing inside the volcanic edifice continued. Since May 24, it has been recorded in the northeastern sector of the volcano at a maximum distance of 4 kilometers from the Arenas crater and at depths between 4 and 6 kilometers. Compared to Thursday, May 25, this seismicity presented a decrease in the number of earthquakes and similar seismic energy. Also read Emergency in Providencia due to fire in The Peak Regional Natural Park. Seismicity was occasionally recorded in the Arenas crater. The maximum magnitude recorded was 14 ML corresponding to the 0203 pm earthquake located 4 km to the northeast of the Arenas crater and at an approximate depth of 5 km from the top of the volcano. Regarding surface activity, the maximum height of the column of gases and/or ash was 1000 meters measured from the top of the volcano. The preferential direction of dispersion was maintained mainly towards the northwest and west of the volcano. The SGC warns that due to all these variations, the activity of the Nevado del Ruiz volcano continues to be very unstable and that it will continue to be classified as an orange level. You can see Oxygen levels are reduced in the depth of the Antarctic sea due to melting ice. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Nevado del Ruiz volcano state. Follow us on Google News. Go to comments. The most viewed in Blog El Río. Blog The River. River erosion may be a key factor in the diversity of fish species. 27 May 2023 1055 am</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/economia/municipios-en-riesgo-por-el-nevado-del-ruiz-tendran-cuatro-emisoras-de-emergencia/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/este-es-el-estado-del-volcan-nevado-del-ruiz-el-viernes-26-de-mayo/
 </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Municipalities at risk from Nevado del Ruiz will have four emergency stations</t>
+          <t>This is the state of the Nevado del Ruiz volcano on Friday, May 26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Home. Economy. 2. You can still read 2 more articles Create your account right now and enjoy 10 free monthly content. Creat your account. 10 May 2023 1150 am. Municipalities at risk from Nevado del Ruiz will have four emergency stations. The Ministry of ICT issued the licenses for these radio stations, which will focus on providing communication channels that facilitate prevention, care and recovery actions in the event of an eventual eruption. Writing Economy. 0. Save. Since March 30, an orange alert was declared on the Nevado del Ruiz volcano Photographic archive of the Colombian Geological Service. SGC photo. In order to mitigate and address the risks posed by the orange alert in which the Nevado del Ruiz volcano remains, the Ministry of ICT approved the licenses for four emergency stations to start operating. These will benefit municipalities close to the snow-capped mountain, including Casabianca Murillo Villahermosa and Santa Isabel in the department of Tolima. It must be taken into account that the first three have been declared high-risk territories by the National Risk Management Unit. Also read Nevado del Ruiz Volcano this is its state on May 9. It is expected that the municipality of Herveo will also have this channel in the coming days, the portfolio detailed. It must be said that the licenses were requested by the mayors of the municipalities and they will be responsible for their proper management. The purpose of these radio stations is to provide communication channels that facilitate prevention, care and recovery actions in the event of an eventual eruption. With the entry into operation of these stations, we are giving the people of the region the possibility of receiving timely information on the state of the volcano's emergency, the recommendations of the attention agencies and instructions that will be key to avoiding a disaster and safeguarding lives. that it is our priority, affirmed the ICT Minister Mauricio Lizcano. It may interest you. The Animal Foundation near Nevado del Ruiz needs your help. The ministry described the issuance of these licenses as taking record time, taking into account that the procedure that was carried out with the National Spectrum Agency was brought forward in less than a week. However, the ministry did not report on which dials will be used to tune in to these stations. . Having this license is excellent news. A station is the way people have to communicate through the radio, we can inform what happens with the volcano permanently and immediately, explained the mayor of Murillo, Antonio José García. The operating time of these stations will depend on the declaration of disaster or calamity in the municipalities where they operate. In other words, their permanence may be extended as long as the need is demonstrated. You already found out about the latest economic news. We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. Economic news. Economy. Mintic. Nevado del Ruiz volcano. Go to comments. The most viewed in Economics. Economy. Disney registered a drop in the number of subscribers. 5 hours ago. Personal finance. Consumer confidence is the lowest since May 2021 Fedesarrollo. 18 hours ago. Personal finance. Citizen Income check online if you are a beneficiary and avoid lines. 21 hours ago</t>
+          <t>Home. Atmosphere. 26 May 2023 1235 pm. This is the state of the Nevado del Ruiz volcano on Friday, May 26. The Colombian Geological Service SGC warns that due to all these variations, the activity of the Nevado del Ruiz volcano continues to be very unstable and that it will continue to be classified as orange level. Drafting Environment. 0. Save. This is how the Nevado del Ruiz volcano looked like this Wednesday, May 10. Photo Colombian Geological Service. The Colombian Geological Service SGC and the Ministry of Mines and Energy published the latest report on the situation of the Nevado del Ruiz volcano In the document they presented the data obtained from 0900 am on Thursday, May 25 These are the most relevant data Read Oxygen levels are reduced in the depth of the Antarctic sea by melting ice. The seismic activity associated with rock fracturing inside the volcanic edifice that has been recorded since May 24 continued. This occurred in the northeastern sector of the volcano at a maximum distance of 4 kilometers from the Arenas crater and at depths between 4 and 6 kilometers . The seismicity showed an increase in the number of earthquakes and in the levels of seismic energy compared to Thursday, May 25. The levels of seismicity related to the movement of fluids inside the volcanic conduits are similar in the number of events and in the seismic energy released with respect to May 25. Some of the seismic signals were associated with pulsatile ash emissions You can read A video made scientists think that octopuses can have nightmares. The surface activity was recorded at the maximum height of the column of gases and/or ash, 2800 meters measured from the top of the volcano. These were associated with the ash emission at 0513 in the afternoon. The preferential direction of dispersion remained mainly towards the northeast of the volcano, although on Friday morning they were observed towards the northwest. The SGC warns that due to all these variations, the activity of the Nevado del Ruiz volcano continues to be very unstable and that it will continue to be classified as orange level Read also There is not much talk about the financial risk linked to the loss of biodiversity. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Nevado del Ruiz volcano state. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-nevado-del-ruiz-este-es-su-estado-el-9-de-mayo/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/este-es-el-estado-del-volcan-nevado-del-ruiz-el-martes-23-de-mayo/
 </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano this is its state on May 9</t>
+          <t>This is the state of the Nevado del Ruiz volcano on Tuesday, May 23</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 9 May 2023 957 am. Nevado del Ruiz volcano this is its state on May 9. The activity level of the volcano remains orange. Drafting Environment. 0. Save. Seismic activity continues inside the Nevado del Ruiz volcano. SGC photo. This Tuesday, May 9, the Colombian Geological Service SGC published the latest report on the state of the Nevado del Ruiz volcano. According to the statement, the Nevado remains at the orange level of activity as it has been since the end of March and could stay there for more weeks, the entity reported. . During last Monday, May 8 and so far today, the seismic activity related to the movement of fluids inside the volcanic conduits continues to predominate. Compared to what was registered on Sunday, the number of earthquakes and the seismic energy released showed increases in yesterday's session You can also read How to act when ash is released from Nevado del Ruiz This is what the Ministry of Health says. The seismicity associated with fracturing of rock inside the volcanic edifice also continues, which showed a similar behavior in the number of earthquakes and in seismic energy compared to May 7. These earthquakes were located in the Arenas crater in a scattered manner around it at a maximum distance of 5 kilometers and at depths between 1 and 6 kilometers. Regarding the maximum height of the column of gases and/or ash observed, this was 1000 meters measured from the top of the volcano and was related to an ash emission recorded on May 8 at 0727 pm. The preferential dispersion direction of the gas column was towards the west-southwest and northwest of the volcano From the satellite monitoring platforms, several important thermal anomalies were observed at the bottom of the crater On the other hand, variations in the degassing of sulfur dioxide and the exit of water vapor from the crater to the atmosphere added the SGC It may interest you Slight increase in the number of earthquakes in the Nevado del Ruiz volcano. All these indicators support what the Service has reiterated since the level of activity of the volcano was raised, it is still very unstable. That is why it is necessary to maintain the prevention measures that the authorities at the national, regional and local levels have recommended. From the SGC we warn that the level of activity of the Nevado del Ruiz volcano will remain at an orange level for several weeks. During this time, in the event that there is an acceleration of the processes that suggest an imminent eruption or that the eruption itself occurs, the level of activity will change to red indicated the SGC. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Nevado del Ruiz. go to comments</t>
+          <t>Home. Atmosphere. 23 May 2023 1122 am. This is the state of the Nevado del Ruiz volcano on Tuesday, May 23. According to the Colombian Geological Service, the activity of the volcano continues to be very unstable. In addition, the seismic activity related to the movement of fluids inside the volcanic conduits presented an increase in the number of earthquakes. Drafting Environment. 0. Save. The activity of the Nevado del Ruiz volcano continues at an orange level, which indicates that there is a probability that in days or weeks it will erupt more than it has in the last 10 years. SGC photo. In the most recent bulletin published by the Colombian Geological Service SGC, the entity reported that from 0900 am on Monday, May 22, seismic activity related to the movement of fluids inside the volcanic conduits presented an increase in the number of earthquakes and continued showing levels of seismic energy released similar to those of the previous day Read No the gases from the slopes of the Cerro Bravo volcano are not volcanic. The service explained that several of these seismic signals were related to pulsatile ash emissions. This was confirmed thanks to the web cameras that have been used for volcanic monitoring. Regarding the seismicity associated with the fracturing of the rock inside the volcanic edifice, both the number of earthquakes and the levels of seismic energy released increased. However, the SCG warned that both indicators are similar to those of Sunday, May 21. This seismicity was located in the north-eastern and southern sectors of the volcano and in the Arenas crater at a maximum distance of 6 kilometers from it and at depths that ranged between 1 and 7 kilometers, the entity explained in the bulletin. You can read In images like this Popocatépetl, the volcano that has Mexico on alert. The maximum height of the column of gases and/or ash was 1,300 meters measured from the top of the volcano. These indicators ratify what the SGC has reiterated, the activity of the Nevado del Ruiz volcano continues to be very unstable. It is possible that the levels of seismic activity as well as the levels of degassing or ash output decrease or are oscillating, that is, they can increase on some days and decrease on others, he warned. It should be noted that the activity of the Nevado del Ruiz volcano continues at an orange level, which indicates that there is a probability that in days or weeks it will erupt more than it has in the last 10 years. Read also The Monserrate hill is a volcano Colombian Geological Service responds. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Nevado del Ruiz. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/la-red-zoocial/fundacion-de-animales-aledana-al-nevado-del-ruiz-necesita-su-ayuda-noticias-hoy/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/el-cambio-climatico-podria-provocar-grandes-tsunamis-en-la-antartida/
 </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Animal Foundation near Nevado del Ruiz needs your help</t>
+          <t>This is the state of the Nevado del Ruiz volcano on Thursday, May 25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Home. The Zoo Network. 1. You can still read 1 more article Create your account right now and enjoy 10 free monthly content. Creat your account. 8 May 2023 638 pm. Animal Foundation near Nevado del Ruiz needs your help. The Amparo Foundation located in Vereda Nueva Primavera in Villamaría Caldas cares for 220 animals including dogs, cats and pigs. The Zoo Network. 0. Save. Juliana Coco, founder of the shelter, told La Red Zoocial that she fears for the integrity of the animals. Photo Amparo Foundation. The seismic activity of the Nevado del Ruiz volcano continues on orange alert, as reported by the Colombian Geological Service SGC Given the risk of a possible eruption, the community continues to implement measures to protect people, domestic animals, livestock and wildlife residing in the departments. of influence of the volcano. Read Animal abuse in Antioquia they find a bird of prey tied to one of its legs. The Amparo Foundation located in Vereda Nueva Primavera in Villamaría Caldas cares for 220 animals including dogs, cats and pigs. Juliana Coco, founder of the shelter, told La Red Zoocial that she fears for their integrity. At this moment we are close to the Chinchiná river located in the Central South region of the department of Caldas and we are concerned about the possible eruption of the Nevado del Ruiz volcano because the avalanche passed through here in 1985. Also, every day we must feed each one of them and maintain Juliana assures her very clean places. According to the content creator known as Cotry, who has spread the case through his social networks, the help they are requesting is to make an evacuation route for the animals since making a foundation from scratch or moving it is very expensive. It is easier to take the evacuation route. In such an emergency, you would have about 10 minutes or so to open the kennels and for all the animals to leave by that route, the content creator told La Red Zoocial. It might interest you Why it is important to have a cat or dog in the house Advantages and benefits. At this time the foundation is receiving food for dogs, cats and pigs In addition to toiletries such as clean powdered soap, brooms and mops. On the other hand, if you want to donate money to help animals, you can do it through. Bancolombia savings account 62300015196 and DaviPlata 3136617132. . ICA recommendations to protect animals that are in risk areas due to Nevado del Ruiz. The Colombian Agricultural Institute ICA adopted measures to protect agricultural health and support farmers and ranchers who are in the area of ​​influence of the Nevado del Ruiz Volcano. The ICA decided to give urgent and priority attention for the issuance of Sanitary Guides for Internal Mobilization to the peasant producers and marketers who move with their animals to properties or temporary shelters by virtue of the preventive evacuation that is being carried out in the area of ​​arriving at declaring a state of alert at red level the mobilization of livestock is authorized without the precise sanitary guide the press report clarifies that once the animals are at the destination site they will have to be reported to the office of the Institute within the following eight days. Likewise, it authorizes the provisional lifting of blockades to the mobilization of properties of origin that are located in areas where preventive evacuation is required. The ICA clarifies that these exceptional measures will only apply to the movement of animals in. Tolima Villahermosa Herveo Murillo Lebanon Lleida Gunsmith Guayabal Falan Palocabildo Fresno Honda Mariquita Venadillo Ambalema and Casabianca. Caldas Villamaría Chinchiná Palestine Anserma Marulanda Neira and Manizales. Risaralda Santa Rosa de Cabal Dosquebradas Marseille and Pereira. Cundinamarca Guaduas. You want to be up-to-date and know the latest news about the animal world. We invite you to see them at La Red Zoocial Also, if you have a story or are interested in telling yours with your pet, you can write to laredzoocialelespectadorcom. Follow us on Google News. Recommended topics. The Zoo Network. Animals. Pets. News today. Animal Foundation. Go to comments. The most viewed in Dogs. Dogs. Not for animal abuse Perrita was found with injuries in a Transmilenio. 23 hours ago. Dogs. How to know the age of an adopted or rescued dog This is how you can calculate it. 21 hours ago. The Zoo Network. Guardians of the Galaxy was awarded for raising awareness about animal abuse. 10 May 2023 953 am. by Taboola. Sponsored links. It may interest you. They find Danna Valentina Ovalle Ávila in Bogotá. The viewer. Solar panels are now a bargain thanks to the government. Solar panels Want ads. Forget foot pain with our high-quality orthotic shoes. Verified Store</t>
+          <t>Home. Atmosphere. 25 May 2023 1145 am. This is the state of the Nevado del Ruiz volcano on Thursday, May 25. According to the Colombian Geological Service SGC, the earthquakes were located in the northeast and southwest sectors of the volcano, very close to the Arenas crater. The maximum magnitude registered was 12. Environment Editorial. 0. Save. The Colombian Geological Service reiterates that the state of the volcano continues to be very unstable. Photo Colombian Geological Service. The Colombian Geological Service SGC and the Ministry of Mines and Energy published the latest report on the situation of the Nevado del Ruiz volcano. The document presents the data obtained from 0900 am on Wednesday, May 24 These are the most relevant data Read The seagulls choose what to eat by watching what humans eat. The seismic activity associated with rock fracturing inside the volcanic edifice increased in the number of earthquakes and in seismic energy. The earthquakes were located in the northeast and southwest sectors of the volcano at a maximum distance of 5 kilometers from the Arenas crater and at depths that ranged between 3 and 6 kilometers. The maximum magnitude recorded was 12. The seismic activity related to the movement of fluids inside the volcanic conduits increased in the number of earthquakes You can read This flying gecko is new to science. The surface activity, the maximum height of the column of gases and/or ash, was 1,200 meters measured from the top of the volcano. The preferential direction of dispersion remains to the northeast. The SGC warns that due to all these variations, the activity of the Nevado del Ruiz volcano continues to be very unstable and that it will continue to be classified as orange level Read also France prohibits short-duration flights to deal with contamination. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Nevado del Ruiz volcano state. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/leve-aumento-en-numero-de-sismos-en-el-volcan-nevado-del-ruiz/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/este-es-el-estado-del-volcan-nevado-del-ruiz-el-miercoles-24-de-mayo/
 </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Slight increase in the number of earthquakes in the Nevado del Ruiz volcano</t>
+          <t>This is the state of the Nevado del Ruiz volcano on Wednesday, May 24</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 8 May 2023 1124 am. Slight increase in the number of earthquakes at the Nevado del Ruiz volcano. Since the end of March of this year, the level of activity of the volcano remains orange. Although the level of earthquakes and energy released increased slightly according to the last report, this does not mean that the Nevado is more unstable than in the previous days. In general, during the last weeks has been more unstable than usual. Drafting Environment. 0. Save. Image of the volcano this May 8. SGC photo. The Colombian Geological Service SGC published the latest report on the status of the Nevado del Ruiz volcano, which has been at the orange level of activity since the end of March of this year. According to the document, the volcano remains at this level with reports of very unstable activity. Follow us on Google News. Recommended topics. News today. News today Colombia. Volcano. Nevado del Ruiz volcano. Go to comments. The most viewed in Environment. Atmosphere. Ash emission from the Nevado del Ruiz volcano reached a height of 2000 meters. 10 May 2023 1217 pm. Atmosphere. Caldas will invest to improve the alert system in the area near Nevado del Ruiz. 16 hours ago. Atmosphere. Up to half the world could be in a different climate zone by 2100. 21 hours ago</t>
+          <t>Home. Atmosphere. 24 May 2023 1232 pm. This is the state of the Nevado del Ruiz volcano on Wednesday, May 24. According to the Colombian Geological Service, the volcano's activity continues to be very unstable. It also reported that seismic activity associated with rock fracturing inside the volcanic building had been recorded. Drafting Environment. 0. Save. This is how the overturned Nevado del Ruiz dawned on May 24 from the Pitayó sector. Photo SCG SCG. Since the alert began in the Nevado del Ruiz volcano, the Colombian Geological Service SGC and the Ministry of Mines and Energy have issued a daily bulletin reporting its status. In the most recent document, the entities explain that from 0900 am on Tuesday, May 23 until moment, the seismic activity related to the movement of fluids inside the volcanic conduits presented an increase in the number of earthquakes and in the seismic energy released Read Nicotine and antidepressants found in Antarctic waters. This they added could have been related to pulsatile ash emissions confirmed through the web cameras used for volcanic monitoring. They also warned that seismic activities associated with rock fracturing were recorded inside the volcanic building that also showed an increase in the number of earthquakes and levels similar in seismic energy. The earthquakes were located in the Arenas crater and in the northeastern and southwestern sectors of it at a maximum distance of 3 kilometers from it and at depths that ranged between 1 and 6 kilometers, the entity added. You can read The Montreal protocol prevented them from getting lost large amounts of sea ice. Regarding surface activity, the maximum height of the column of gases and/or ash was 1800 meters measured from the top of the volcano. The service reiterates that due to all these indicators, the activity of the Nevado del Ruiz volcano continues to be very unstable, therefore it continues in orange level. This indicates that there is a probability that in days or weeks it will erupt more than it has in the last 10 years. To change the level and return to the yellow level, a prudential time is required where trends and patterns can be observed that allow inferring the possible decrease in activity they concluded It may interest you Marsupials would be the most evolved mammals. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano activity. Nevado del Ruiz volcano. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/esto-dice-el-ultimo-reporte-sobre-el-estado-del-volcan-nevado-del-ruiz/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/se-mantiene-la-actividad-sismica-la-interior-del-volcan-nevado-del-ruiz/
 </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>This says the latest report on the state of the Nevado del Ruiz volcano</t>
+          <t>Seismic activity continues inside the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 7 May 2023 236 pm. This says the latest report on the state of the Nevado del Ruiz volcano. The Colombian Geological Service reported this Sunday, May 7, that the level of activity of the volcano remains orange. Drafting Environment. 0. Save. Since March 30, an orange alert was declared on the Nevado del Ruiz volcano Photographic archive of the Colombian Geological Service. SGC photo. According to the latest report on the Nevado del Ruiz volcano issued by the Colombian Geological Service SGC, the level of activity remains in orange, the same as since the end of March when the level of activity first rose. According to John Makario Londoño, technical director of geothreats of the SGC, the activity of Nevado del Ruiz yesterday, May 6, and today continues at levels similar to previous days, that is, the general fracture seismicity continues at low levels. some earthquakes are located in the crater itself but with low energy and what persists is the activity related to the fluids, both outflow of gases and ash. He added that the thermal anomalies at the bottom of the crater also continue. The general behavior of the volcano has been consistent with what has been reported in recent weeks. You can also read Nevado del Ruiz Volcano, this is its activity on May 6. The seismicity related to the fracturing of rock within the volcanic edifice was located mainly in the Arenas crater and in the northeastern, eastern, and southeastern sectors of Nevado, at a maximum distance of 2 kilometers from it and with depths between 2 and 6 kilometers. Some of these earthquakes occurred They were related to the activity of the bulge dome or mound of lava located at the bottom of the crater indicated the SGC. The maximum magnitude of earthquakes recorded was 16 corresponding to an earthquake that occurred at 0309 am located 2 km southeast of the volcano and approximately 3 km deep. The maximum height of the column of gases and/or ash observed was 800 meters measured from the top of the volcano, the entity informed. This past Saturday, May 6, the preferential dispersion direction of this column was to the west to the northwest of the volcano. received reports of sightings of various ash emissions from Murillo Tolima and of a slight ash fall in the municipality of Manizales Caldas during the day last Saturday. It may interest you Latin America cannot return to the natural resource extraction cycle Minambiente. On the other hand, the variations in the degassing of sulfur dioxide into the atmosphere also continue with levels similar to those observed in recent days and the release of water vapor from the crater into the atmosphere. All these conditions are consistent with what the SGC has reported during the last weeks, activity of the Nevado del Ruiz volcano continues to be very unstable. Although changes in the intensity of the conditions are observed, this does not mean that the volcano has returned to its normal level of activity reiterated the entity. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Volcano. Nevado del Ruiz. Nevado del Ruiz volcano. go to comments</t>
+          <t>Home. Atmosphere. 19 May 2023 1213 pm. Seismic activity continues inside the Nevado del Ruiz volcano. This is the report of the Colombian Geological Service for this May 19. The orange activity level announced since last March 30 is maintained. Drafting Environment. 0. Save. This is how the Nevado del Ruiz volcano looked like on the morning of May 19. SGC photo. The Colombian Geological Service SGC reported this Friday, May 19, that the seismic activity of the Nevado del Ruiz volcano in the last 24 hours remained at levels similar to those registered last Wednesday. It may interest you In three decades, 50% of fresh water was lost in the largest lakes in the world. The activity related to rock fracturing was concentrated in the north-northeast, south and southeast areas of the mountain at a maximum distance of 8 km from the Arenas crater with depths ranging between 1 and 6 km and low magnitudes, the entity explained. Regarding the seismic activity linked to the movement of fluids inside the volcano, it maintained low levels in the number of earthquakes and in the seismic energy released, something similar to what happened on Wednesday. In addition, there were some ash emissions that the SGC confirmed through their web cameras. The column of gases that the mountain expels and that is visible from different points due to the expulsion of vapors and degassing reached a maximum height of 1000 meters and its dispersion occurred to a greater extent to the north You can also read Renewable energies also have an impact The Biodiversity. Additionally, the Colombian Air Force made an overflight over the snowy peak, but the SGC explained that due to the weather conditions that have occurred in recent days, it was not possible to see the interior of the crater. For now, the orange activity level will be maintained, indicating that an eruption could occur in a matter of days or weeks. However, the SGC clarifies that an eruption will only be imminent or will have occurred when the activity level is changed to red. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Atmosphere. Ruiz Snowy Volcano. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-nevado-del-ruiz-asi-esta-su-actividad-este-6-de-mayo/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-nevado-del-ruiz-disminuye-la-actividad-sismica-pero-sigue-el-nivel-naranja-este-18-de-mayo/
 </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano, this is its activity this May 6</t>
+          <t>Nevado del Ruiz volcano decreases seismic activity but remains orange level</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 6 May 2023 1110 am. Nevado del Ruiz volcano, this is its activity this May 6. The seismic activity associated with rock fracturing inside the volcanic edifice showed a decrease in the number of registered earthquakes and in the seismic energy released compared to the previous day. The level of activity remains in orange. Drafting Environment. 0. Save. Image of the Nevado del Ruiz volcano on May 6. SGC photo. According to the latest report from the Colombian Geological Service SGC, the Nevado del Ruiz volcano remains with an orange level of activity, as the institution has reiterated in recent weeks. Between this past Friday, May 5, and the course of this May 6, seismic activity has predominated. related to the movement of fluids inside the volcanic conduits. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Nevado del Ruiz. Go to comments. Links sponsored by Taboola. It may interest you. Former diabetic from Bogotá tells how to maintain glucose at 85. Diabetes secret revealed. This trick melts belly fat even if you eat everything. Emag. Sophistication at your feet Premium leather tennis shoes. VLZ PREMIUM. Wrinkles and spots You can follow this simple advice. Health Portal. Diabetes is not so sweet Meet the enemy of diabetes. Diasulin. This simple recipe is a great cure for insomnia. News. Elections 2023 Yahir Acuña leads the polls in Sincelejo. This is how Bogotá advances in hospital infrastructure. The most viewed in Environment. Atmosphere. Ash emission from the Nevado del Ruiz volcano reached a height of 2000 meters. 10 May 2023 1217 pm. Atmosphere. Caldas will invest to improve the alert system in the area near Nevado del Ruiz. 16 hours ago. Blog The River. How do we study whales if we barely see them when they rise to the surface. 15 hours ago. by Taboola. Sponsored links. It may interest you. The AI ​​explained what the former Miss Antioquia meant in 2008 man with man. The viewer. The most sought after European sneakers at prices never seen before. Verified Store. Why luxury villas in Dubai are so cheap See Prices. Villas in Dubai Sponsored Links</t>
+          <t>Home. Atmosphere. 18 May 2023 1204 pm. Nevado del Ruiz volcano decreases seismic activity but remains orange level. The latest report from the Colombian Geological Service indicates that the activity of the volcano continues to be very unstable. Drafting Environment. 0. Save. Since March 30, an orange alert was declared on the Nevado del Ruiz volcano Photographic archive of the Colombian Geological Service. SGC photo. The latest report from the Colombian Geological Service SGC on the Nevado del Ruiz volcano published this May 18 indicates something that this entity has already been reiterating in recent weeks the activity of the volcano continues to be very unstable Read In Colombia there are more than 7000 useful plants for what do they serve For this reason, the orange level of the last few weeks is maintained. As you have already explained, it is possible that the levels of degassing or ash output decrease or are oscillating, but that does not mean that the volcano has returned to its normal activity levels. Read See a world in a grain of sand or how I learned to love the end of the world. In fact, in the last bulletin published this May 18, the SGC replies that the seismic activity associated with rock fracturing inside the volcanic edifice presented a decrease in the number of earthquakes and in the seismic energy released compared to the previous day. The indicated seismicity was located in the Arenas crater and in the northwestern and southwestern sectors of the volcanic edifice with depths that ranged between 1 and 5 km. The maximum magnitude registered was 04 corresponding to the earthquake registered on May 17 at 0600 pm located 3 km northwest of the Arenas crater and at a depth of approximately 5 km Regarding the seismicity related to the movement of fluids inside the volcanic conduits this seismic activity decreased both in the number of registered events and in the seismic energy released compared to the previous day, reads the statement published by the SGC. Likewise, unlike other days, there have been no ash emissions in the last hours. At the moment, the maximum height of the gas column was 1100 m measured from the top of the volcano. Due to this situation, his recommendation is the same as previous days to remain calm and follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Nevado del Ruiz. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/volveran-a-clase-los-alumnos-de-5-colegios-que-estaban-en-casa-por-nevado-del-ruiz-noticias-colombia-hoy/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/este-es-el-reporte-sobre-la-actividad-del-volcan-nevado-del-ruiz-este-17-de-mayo/
 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Students from 5 schools that were at home in Nevado del Ruiz will return to class</t>
+          <t>This is the report on the activity of the Nevado del Ruiz volcano on May 17</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 5 May 2023 510 pm. Students from 5 schools that were at home in Nevado del Ruiz will return to class. There were 30 educational centers that attended learning at home because they were in the area of ​​influence of the volcano. As of May 16, five of them will return to face-to-face in the department of Caldas. Drafting Environment. 0. Save. Reference image The five schools belong to the Villamaría municipality in the department of Caldas and a total of 242 students will return to the classroom. Photo Pixabay. Five of the 30 educational centers that are learning at home because they are located in the area of ​​influence of the Nevado del Ruiz volcano will return to face-to-face classes starting next May 16 The five schools belong to the Villamaría municipality in the department of Caldas and in total there will be 242 students who return to classrooms. Follow us on Google News. Recommended topics. Colombian News Today. Columbia today. Nevado del Ruiz. Snowy Ruiz Today. Go to comments. Links sponsored by Taboola. It may interest you. Former diabetic from Bogotá tells how to maintain glucose at 85. Diabetes secret revealed. Sophistication at your feet Premium leather tennis shoes. VLZ PREMIUM. This trick melts belly fat even if you eat everything. Emag. Why luxury villas in Dubai are so cheap See Prices. Villas in Dubai Sponsored Links. Military glasses arrive in Colombia for less than 140,000 and become a fever among drivers. Tips And Recommendations. The most sought after European sneakers at prices never seen before. Verified Store. Elections 2023 Yahir Acuña leads the polls in Sincelejo. This is how Bogotá advances in hospital infrastructure. The most viewed in Environment. Atmosphere. Ash emission from the Nevado del Ruiz volcano reached a height of 2000 meters. 10 May 2023 1217 pm. Atmosphere. Caldas will invest to improve the alert system in the area near Nevado del Ruiz. 16 hours ago. Blog The River. How do we study whales if we barely see them when they rise to the surface. 15 hours ago. by Taboola. Sponsored links. It may interest you. The AI ​​explained what the former Miss Antioquia meant in 2008 man with man. The viewer. Bogotá calculate how much you could earn by investing in Amazon CFDs. Daily Markets. Solar panels are now a bargain thanks to the government. Solar Panels Want Ads</t>
+          <t>Home. Atmosphere. 17 May 2023 1216 pm. This is the report on the activity of the Nevado del Ruiz volcano on May 17. The Colombian Geological Service reported that there have been decreases in seismicity in the last two days but an orange level of activity is still maintained. Drafting Environment. 0. Save. Image of the Nevado del Ruiz volcano in past weeks. SGC photo. The Colombian Geological Service SGC reported this Wednesday that during Tuesday, May 16, there was a decrease in the seismic activity registered inside the Nevado del Ruiz volcano with respect to that registered on Monday. It may interest you First clues to the origin of the gases that They come out at the Cerro Bravo volcano. During the last two days there have been decreases in seismicity, but this does not mean that the orange level of activity has changed. As reported by the SGC, the unstable activity of the volcano causes decreases and increases in seismicity to occur in a matter of days. Seismicity continues to be located in the southwestern sector of the volcanic edifice at a distance between 3 and 4 km from the Arenas crater with depths that ranged between 3 and 4 km. The maximum magnitude recorded was 10 corresponding to the earthquake registered on May 16 at 0214 am located 4 km southwest of the Arenas crater and at a depth of approximately 4 km, the entity reported. Additionally, the seismicity related to the movement of fluids remained at levels similar to those that occurred during May 15. Likewise, the emission of ash and the degassing of the mountain continued. The column of gases reached a maximum height of 1,500 meters and dispersed mainly to the northwest We recommend The next five years will be the warmest ever on UN record. In recent days, the weather conditions have not been favorable, which has limited the visualization of the bottom of the crater and the monitoring of thermal anomalies from satellite monitoring platforms. However, this does not mean that they are not present. On the other hand, variations in the degassing of sulfur dioxide and the release of water vapor from the crater into the atmosphere. Finally, the entity clarifies that the probability that there will be an eruption in the coming days or weeks remains, but this will only be imminent or will have occurred when the level of activity changes to red, something that will be reported directly by the SGC You can also read The problems of the fishing sector after 9 months without leadership in the Petro government. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Colombian Geological Service. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-nevado-del-ruiz-este-es-su-estado-el-4-de-mayo/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-nevado-del-ruiz-disminuyo-sismicidad-pero-continua-actividad-en-naranja/
 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano this is its state on May 4</t>
+          <t>Nevado del Ruiz volcano decreased seismicity but activity continues in orange</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 4 May 2023 1103 am. Nevado del Ruiz Volcano this is its state on May 4th. The Colombian Geological Service reported that the orange level of activity is maintained and that it could remain for several more weeks. Drafting Environment. 0. Save. The Nevado del Ruíz volcano is 5321 meters above sea level. Photo Colombian Geological Service. This Thursday, May 4, the Colombian Geological Service SGC released the latest report on the state of the Nevado del Ruiz volcano, which has been at an orange level of activity since the end of March. According to the entity's bulletin since yesterday, May 3, and during what As of this Thursday, the predominance of seismic activity related to the movement of fluids inside the volcanic conduits continues. This represents a level of seismic activity and energy released similar to that of Monday, May 2. This past Wednesday, the seismic activity associated with the fracturing of rock inside the volcanic edifice also had a behavior similar to that registered on Monday. You can also read Lahars to those who referred to by the Geological Service are different from those of Ideam. The SGC reported that the earthquakes were located mainly in the Arenas crater and in the northeastern sector of the volcano at distances between two and four kilometers from it. The depths of the earthquakes oscillated in turn between two and five kilometers. The maximum height of the column of gases and/or ash observed on May 3 was 1400 meters measured from the top of the volcano The dispersion of the column was directed towards the northwestern sector of the volcano There is also a report of ash fall in the municipality from Neira Caldas You may be interested in Having many more electric cars, a promise that is not so easy to fulfill in Colombia. These indicators together ratify what the SGC has reiterated since the level of activity of the volcano changed, the activity of Nevado del Ruiz continues to be very unstable And although it is possible that the levels of seismic activity as well as the levels of degassing or ash output may decrease or they are oscillatory in the sense of increasing on some days and decreasing on others, this does not mean that the volcano has returned to its usual levels of activity. For this reason, we reiterate that the activity of the Nevado del Ruiz volcano continues at an orange level, which indicates that there is a probability that in days or weeks it will erupt more than it has in the last 10 years, indicated the SGC. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Ruiz volcano. Nevado del Ruiz. go to comments</t>
+          <t>Home. Atmosphere. 16 May 2023 1121 am. Nevado del Ruiz volcano decreased seismicity but activity continues in orange. The Colombian Geological Service affirms that the activity inside the mountain continues to be unstable, so daily monitoring will be maintained. Drafting Environment. 0. Save. Panoramic image of the Nevado del Ruiz volcano. SGC photo. The Colombian Geological Service SGC reported this May 16 that during the last 24 hours there have been decreases in seismic activity related to the fracturing of rock inside the Nevado del Ruiz volcano. It may interest you The publication of the roadmap for energy transition in Colombia. This type of seismicity remained located mainly to the southwest of the volcanic edifice at a distance between 3 and 5 km from the Arenas crater with depths that oscillated between 3 and 4 km. The maximum magnitude registered was 12 corresponding to the earthquake registered on May 15 at 1054 pm located 4 km southwest of the Arenas crater and at a depth of approximately 4 km reported the SGC. On the other hand, the seismicity related to the movement of fluids inside the mountain did present increases with respect to those registered during May 14, but there was a decrease in seismic energy. Due to cloudy weather conditions, it has not been possible to obtain clear images of the volcano from the web cameras that are monitoring and transmitting 24 hours a day. However, the SGC was able to record that the smoke columns generated by the ash and gas emissions that presented yesterday did not exceed 500 meters high. We recommend UN these are the necessary actions to reduce plastic pollution. All these indicators ratify what the SGC has reiterated, the activity of the Nevado del Ruiz volcano continues to be very unstable. It is possible that the levels of seismic activity, as well as the levels of degassing or ash output, may decrease or be oscillating in the sense of increasing by a few days and decrease others ensured the SGC. The unstable activity inside the volcano implies that it will remain at an orange level for the next few weeks under constant monitoring by the SGC, an entity that issues daily bulletins about the volcano. In other words, the probability that there will be an eruption in the coming days or weeks remains, but this will only be imminent or will have occurred when the level of activity changes to red, something that will be reported directly by the SGC You can also read Pollution by artificial light would be threatening the reproduction of corals. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Atmosphere. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/la-actividad-del-volcan-del-ruiz-en-lo-que-va-de-la-semana/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-nevado-del-ruiz-actividad-sismica-aumento-frente-a-la-semana-pasada/
 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The activity of the Ruiz volcano so far this week</t>
+          <t>Nevado del Ruiz volcano seismic activity increased compared to last week</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 3 May 2023 1045 am. The activity of the Ruiz volcano so far this week. The Colombian Geological Service reported that the level of activity of the volcano remains at the orange level. Drafting Environment. 0. Save. This is what the Nevado del Ruiz volcano looked like on the morning of yesterday, May 2. Photo Colombian Geological Service. According to the Colombian Geological Service SGC, since yesterday May 2 and so far this Wednesday in Nevado del Ruiz, the predominance of seismic activity related to the movement of fluids inside the volcanic conduits continues, so that it presents a Behavior similar to that of May 1 in the number of earthquakes and a slight increase in seismic energy, which has been associated with ash emissions that have been confirmed with web cameras. Read Cop28 will be the first climate summit to include health on its agenda. Yesterday's earthquakes were located at an average distance of 2 kilometers south and southeast of the Arenas crater at depths between 2 and 4 km. The maximum magnitude was 12 corresponding to the earthquake registered at 1201 am about 2 km southeast of the crater Arenas and 4 km deep. In addition, the maximum height of the column of gases and/or ashes registered yesterday was 3000 meters. The SGC points out that all these indicators confirm what we have reiterated. The activity of the Nevado del Ruiz volcano continues to be very unstable. It is possible that the levels of seismic activity, as well as the levels of degassing or ash output, may decrease or be oscillating in the direction of increasing. some days and decrease others. Read They seek to rescue the most important swamp in Barranquilla but plans are not convincing. The level of activity of the Ruiz volcano remains at the orange level. For the activity to return to the yellow level, explains the SGC, a reasonable time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity, aspects that are still current Volcano activity does not show. Lea Construction began on a 157-hectare natural park in Antioquia. Both the SGC and other entities have reiterated the call on the communities to remain calm and follow the instructions of the National Unit for Disaster Risk Management UNGRD Also to obtain information through official channels. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Nevado del Ruiz volcano. go to comments</t>
+          <t>Home. Atmosphere. 15 May 2023 1223 pm. Nevado del Ruiz volcano seismic activity increased compared to last week. The Colombian Geological Service indicated that the smell of sulfur that has been reported from different sectors of Manizales does not indicate relevant changes in the volcano's activity. Drafting Environment. 0. Save. This is what the Nevado del Ruiz volcano looks like this Saturday, May 13. Photo Colombian Geological Service. According to the most recent bulletin of the Colombian Geological Service SGC, from 900 am on Sunday, May 14, to 1030 am on Monday, May 15, the seismic activity associated with the fracturing of the ronca inside the volcano presented a significant increase in both the number of earthquakes as in seismic energy released compared to Saturday May 13 and the previous week You can read Protecting the indigenous territories of the Amazon also brings health benefits. As the SGC has been reporting, the seismicity was located mainly to the southwest of the Arenas crater, between four and five kilometers from the crater and at depths that ranged between two and four kilometers. Regarding this seismicity, at 1259 am and 100 pm the two earthquakes with the greatest magnitude were registered, which was respectively 28 ML Local Magnitude It may interest you The 2nd deepest river in Colombia has blind unknown fish and with microplastic. On the other hand, the seismic activity related to the movement of fluids inside the volcanic conduits also presented an increase compared to that of Saturday, May 13. At 520 am this Monday, the emission of ash was recorded In Manizales and Villamaría Caldas, a fall was reported of this stuff. In this bulletin, the SGC indicates that reports of the smell of sulfur have been received in various sectors of Manizales. According to the entity, this could be due to the dispersion of a high concentration of sulfur dioxide SO2 from the volcano, which together with some components of the ash could react with humidity in the environment and perceive smell and irritating sensation similar to sulfur compounds You can also read Moeügchi the Amazonian manatee that was released after six years in rehabilitation. However, they emphasized that this type of phenomenon does not indicate that there have been relevant changes in the activity of the volcano and that this will only affect the health of people in cases where exposure is prolonged and direct. This is not the case of Manizales noted the SGC. Given this panorama, the Service recalls that the level of activity of the Nevado del Ruiz volcano remains orange and that it will remain so for a few weeks. Meanwhile, they insist on their call to the public to stay informed through official channels, follow the recommendations issued by the National Unity for Ungrd Disaster Risk Management and to keep calm. Recommended topics. Nevado del Ruiz volcano. Nevado del Ruiz. Volcano. Volcano eruption. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-nevado-del-ruiz-esto-dice-el-ultimo-reporte-sobre-nivel-de-actividad/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-nevado-del-ruiz-presento-leve-aumento-en-la-sismicidad/
 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>This says the latest report on the level of activity of the Nevado del Ruiz volcano</t>
+          <t>Nevado del Ruiz volcano presented a slight increase in seismicity</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 2 May 2023 946 am. This says the latest report on the level of activity of the Nevado del Ruiz volcano. According to the Colombian Geological Service, the level of activity of the volcano remains orange. Drafting Environment. 0. Save. This is what the Nevado del Ruiz volcano looked like on the morning of this Tuesday, May 2. Photo Colombian Geological Service. According to the monitoring bulletin of this Tuesday, May 2, at the Nevado del Ruiz volcano, there was a slight increase in seismic activity associated with rock fracturing within the volcanic edifice. These earthquakes were located at an average distance of 2 kilometers to the south and southeast of the Arenas crater at depths of between 3 and 4 km At 343 pm an 18 magnitude earthquake occurred, being the largest registered for Monday, May 1. You can read UNGRD recommended immediately evacuating areas near the Nevado del Ruiz crater. According to the Colombian Geological Service SGC, the seismic activity related to the movement of fluids inside the volcanic conduits has shown an increase in the seismic energy released between Monday and Tuesday compared to Sunday, April 30. On the other hand, the SGC highlighted an ash column recorded on Tuesday morning since it reached a height of 3000 meters and had a northwesterly direction. It may interest you The largest reintroduction in history extinct snails return to their habitat. Both due to the above conditions as well as the degassing of sulfur dioxide into the atmosphere and the thermal anomalies at the bottom of the crater, the SGC points out that the activity of the Nevado del Ruiz volcano continues to be very unstable, therefore the level of activity remains in orange level. It should be remembered that this level of activity indicates that there is a probability that in days or weeks the volcano will erupt more than it has in the last 10 years. However, the SGC has been emphatic in pointing out that this is a probability at least that it is also possible that the level of activity decreases and returns to the yellow activity level. You can also read Lahars that the Geological Survey refers to are different from those of Ideam. For the latter to happen, explains the entity, a prudential time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity, aspects that the current activity of the volcano still does not show. Both the SGC and other entities have reiterated the call to the communities to remain calm, follow the instructions of the UNGRD National Unit for Disaster Risk Management and be attentive to the information that is published through official channels. Follow us on Google News. Recommended topics. Nevado del Ruiz volcano. Nevado del Ruiz. Volcano. Volcano eruption. go to comments</t>
+          <t>Home. Atmosphere. 14 May 2023 226 pm. Nevado del Ruiz volcano presented a slight increase in seismicity. The level of activity continues to be orange, emphasizes the Colombian Geological Service. Drafting Environment. 0. Save. This is how the Nevado del Ruiz volcano looked like this Wednesday, May 10. Photo Colombian Geological Service. From 900 am on Saturday, May 13, to 1000 am on this Sunday, May 14, at the Nevado del Ruiz volcano, the seismic activity related to the movement of fluids inside the volcanic conduits showed a slight increase in both the number of earthquakes as in the seismic energy released compared to Friday, May 12 You can read The 2nd deepest river in Colombia has blind unknown fish and microplastic. According to the most recent bulletin of the Colombian Geological Service SGC, the seismic activity associated with the fracturing of rock inside the volcano presented levels similar to those of the previous day. These earthquakes, as they have been occurring, were located to the northeast and southwest of the Arenas crater at a depth of between three and five kilometres. Regarding surface activity, the SGC stated that from 300 am on Thursday, May 11, to 657 am on Sunday, May 14, there was a continuous outflow of ash that reached a maximum height of 1,000 meters. more than 200 homes in Antioquia. For this reason, the entity points out, it is considered that the activity of the Nevado del Ruiz volcano continues to be very unstable and the level of activity remains in orange, which indicates that it is likely that in days or weeks the volcano will erupt more than what it did. in the last 10 years. However, there is also the probability that the level of activity returns to yellow level. For this to happen, they explain from the SGC, a reasonable time is required where trends and patterns can be observed that allow inferring the possible decrease in activity, aspects that the current activity of the volcano still does not show You can also read Moeügchi the Amazonian manatee that was released after six years in rehabilitation. Meanwhile, the entity invites citizens to stay informed through official channels, remain calm and follow the instructions and recommendations of the UNGRD National Unit for Disaster Risk Management. Recommended topics. Nevado del Ruiz volcano. Nevado del Ruiz. Volcano. Volcano eruption. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/continua-la-actividad-inestable-al-interior-del-volcan-nevado-del-ruiz/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/esto-dice-el-ultimo-reporte-sobre-la-actividad-del-volcan-nevado-del-ruiz/
 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The orange level of activity continues in the Nevado del Ruiz volcano</t>
+          <t>This says the latest report on the activity of the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 1 May 2023 1024 am. The orange level of activity continues in the Nevado del Ruiz volcano. The Colombian Geological Service reported that during the weekend there have been ash emissions as well as seismic activity in the mountain as in recent weeks. Drafting Environment. 0. Save. Since March 30, the change in the level of activity in the Nevado del Ruiz volcano to orange was declared Photographic archive of the Colombian Geological Service. SGC photo. Since the Colombian Geological Service SGC announced the change of activity of the Nevado del Ruiz volcano to orange every day, a report is presented about the changes that occur in seismic energy, ash emissions, among other aspects that are monitored in the mountain Le It may interest UNGRD recommended immediately evacuating areas near the Nevado del Ruiz crater. Follow us on Google News. Recommended topics. News today. News today Colombia. Ruiz Snowy Volcano. Atmosphere. Go to comments. Links sponsored by Taboola. It may interest you. Former diabetic from Bogotá tells how to maintain glucose at 85. Diabetes secret revealed. Sophistication at your feet Premium leather tennis shoes. VLZ PREMIUM. This trick melts belly fat even if you eat everything. Emag. Military glasses arrive in Colombia for less than 140,000 and become a fever among drivers. Tips And Recommendations. Why luxury villas in Dubai are so cheap See Prices. Villas in Dubai Sponsored Links. Diabetes is not so sweet Meet the enemy of diabetes. Diasulin. Elections 2023 Yahir Acuña leads the polls in Sincelejo. This is how Bogotá advances in hospital infrastructure. by Taboola. Sponsored links. It may interest you. Free daily horoscope today May 11, 2023. El Espectador. The most sought after European sneakers at prices never seen before. Verified Store. Solar panels are now a bargain thanks to the government. Solar Panels Want Ads</t>
+          <t>Home. Atmosphere. 13 May 2023 954 am. This says the latest report on the activity of the Nevado del Ruiz volcano. It is possible that this Saturday ash fall will be reported in municipalities of Tolima such as Villahermosa Murillo and Líbano The level of activity of the volcano remains orange. Drafting Environment. 0. Save. This is what the Nevado del Ruiz volcano looks like this Saturday, May 13. Photo Colombian Geological Service. According to the most recent report on the level of activity of the Nevado del Ruiz volcano issued by the Colombian Geological Service SGC this Saturday, May 13, the seismic activity related to the movement of fluids inside the volcanic conduits presented similar levels both in number of earthquakes as in seismic energy released to the one that was presented on Friday, May 12. You can read A multimedia jungle in Bogotá to protect Colombian primates. Another parameter monitored by the SGC with respect to the volcano that presented an activity similar to that of Friday was the seismicity associated with the fracturing of rock inside the volcano. The earthquakes were located to the northeast and southeast of the Arenas crater, approximately four kilometers away and between one and four kilometers deep. Regarding surface activity, the entity stated that on Friday columns of gases and/or ash were recorded with heights of up to 1900 meters. For this Saturday, the SGC warns, the forecasts indicate that the wind will be in a northeasterly and eastern direction, so it is possible that If the emission of ash continues, the fall of this material is reported in some municipalities of Tolima such as Villahermosa Murillo and Líbano It may interest you Minambiente will create a group to investigate those responsible for deforestation. As the SGC has pointed out throughout these weeks, the activity of the Nevado del Ruiz volcano continues to be very unstable, so the level of activity continues to be orange. This will remain for a few weeks. Finally, the entity insisted on its call to the community to remain calm, obtain information through the official channels of the SGC and follow the instructions of the National Unit for Disaster Risk Management UNDRGD and other local authorities. Recommended topics. Nevado del Ruiz volcano. Nevado del Ruiz. Volcano. volcanic. Colombian News. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/asi-ha-sido-la-actividad-del-volcan-nevado-del-ruiz-durante-este-puente-festivo/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/leve-disminucion-en-el-numero-de-sismos-en-el-volcan-nevado-del-ruiz/
 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>This has been the activity of the Nevado del Ruiz volcano during this festive bridge</t>
+          <t>Slight decrease in the number of earthquakes in the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 30 Apr 2023 356 pm. This has been the activity of the Nevado del Ruiz volcano during this festive bridge. The Colombian Geological Service reported this Sunday that the activity inside the mountain has remained at levels similar to those that occurred during the week with some variations on the morning of April 30. Drafting Environment. 0. Save. This is what the Nevado del Ruiz volcano looked like this Friday, April 28. Photo Colombian Geological Service. The Colombian Geological Service SGC reported on April 30 that the activity levels of the Nevado del Ruiz volcano have remained at levels similar to those that have occurred during the week with some variations due to the increase in activity on Sunday morning. It may interest UNGRD recommended immediately evacuating areas near the Nevado del Ruiz crater. According to the entity, the seismic activity related to the movement of fluids and the fracturing of rock inside the volcano continued on Saturday. Degassing processes and ash emissions have also continued. The seismicity was located in the Arenas crater and its surroundings within a radius of less than 40 km measured from there The maximum magnitude registered yesterday was 05 corresponding to the 1155 am earthquake located in the Arenas crater at a depth of 09 km reported the SGC. During the morning of this Sunday the volcano presented an increase in its seismic activity The monitoring bulletin registered an increase in seismic energy, highlighting the 0306 am earthquake with a magnitude of 20 located 07 km northeast of the Arenas crater, 30 km from depth We recommend The largest reintroduction in history extinct snails return to their habitat. For its part, the column of gases or ash emitted by the volcano reached a height of 1,400 meters this Saturday, measured from the top of the mountain and has dispersed mainly in a northwesterly direction. As the SGC has reported for several weeks since the volcano's activity level was changed to orange, the activity continues to be very unstable and there have been no sustained patterns of decline that would allow a return to the yellow activity level. Therefore, there is still a probability of an eruption in the coming days or weeks, so it is recommended to be attentive to information from official sources, the Colombian Geological Service, the National Unit for Disaster Risk Management and municipal and departmental units to risk management You can also read Lahars that the Geological Service refers to are different from those of Ideam. The SGC reiterates that an eruption will be imminent or will have occurred only when the activity level turns red. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. SGC. go to comments</t>
+          <t>Home. Atmosphere. 12 May 2023 1049 am. Slight decrease in the number of earthquakes at the Nevado del Ruiz volcano. According to the latest report from the Colombian Geological Service, the volcano registered a decrease in the number of earthquakes and energy released related to the movement of fluids inside the volcanic conduits. This, however, does not mean that the volcano has returned to a normal level of activity. . Drafting Environment. 0. Save. The SGC reported that it is possible that during the day of this Friday there will be ash fall in the municipalities of Murillo and Líbano EFE Ernesto Guzmán. Photo EFE Ernesto Guzman. The Colombian Geological Service SGC issued the latest report on the status of the Nevado del Ruiz volcano Since the end of March the level of activity of this volcano has risen to orange, which indicates that there is a probability that in days or weeks it will erupt more than what has done in the last 10 years. This Friday, May 12, the SGC reported that the volcano is still at an orange level of activity, so it is recommended to follow the instructions of the authorities and be aware of the next updates on the status of the volcano. From the morning of Thursday May 11 until now, the seismic activity related to the movement of fluids inside the volcanic conduits continued to predominate. The seismicity presented a slight decrease with respect to the number of earthquakes and the energy released recorded in the previous report. You can read Minambiente announces the official start of the tropical cyclone season. Along the same lines, the record of earthquakes associated with the fracturing of rock inside the volcanic edifice showed a decrease in the number of earthquakes and in seismic energy compared to May 10. These earthquakes were located to the northeast and southeast of the Arenas crater at a distance Approximately up to 3 kilometers from the east and at depths between 1 and 4 kilometers. With respect to surface activity, the maximum height of the gas column and/or ash observed was 1600 meters measured from the highest part of the volcano. The preferential dispersion direction of the gas column was to the east-southeast. On Thursday morning, ash fall was reported in the sector of La Cabaña, municipality of Murillo, Tolima. For today, the forecasts indicate that the wind will be in the same east-southeast direction, so that if continuous ash emission continues to be recorded, it is It is possible that ash falls in the same sector and in other sectors of the Murillo and Líbano del Tolima municipalities that are located in that direction of the volcano, added the SGC. It may interest you The forest fires in Australia would have aggravated the La Niña phenomenon. On the other hand, the variations in the degassing of sulfur dioxide and the release of water vapor from the crater into the atmosphere continue, and thermal anomalies continue to be observed at the bottom of the crater. All these indicators ratify what the SGC has reiterated for weeks the activity of the Nevado del Ruiz volcano continues to be very unstable It is possible that the levels of seismic activity as well as the levels of degassing or ash output decrease or are oscillating in the sense of increasing some days and decrease others but that does not mean that a decrease in activity in certain reports such as this Friday means that the volcano returned to its normal level of activity. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Volcano. Nevado del Ruiz volcano. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/ungrd-recomendo-evacuar-inmediatamente-zonas-cercanas-al-crater-de-nevado-del-ruiz/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/esto-dice-el-ultimo-reporte-sobre-el-estado-del-volcan-nevado-del-ruiz-2/
 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UNGRD recommended immediately evacuating areas near the Nevado del Ruiz crater</t>
+          <t>This says the latest report on the state of the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 29 Apr 2023 1259 pm. UNGRD recommended immediately evacuating areas near the Nevado del Ruiz crater. The entity issued different preventive recommendations as part of the preparation plan for a possible eruption of the volcano. In total, there are six municipalities that are at risk from a possible eruption, which is why the evacuation of several of its paths is recommended. Drafting Environment. 0. Save. Murillo Tolima is one of the municipalities close to the crater of the volcano and that, on the recommendation of the UNGRD, must evacuate several of its villages. Photo EFE John Jairo Bonilla. The National Unit for Disaster Risk Management UNGRD issued a statement in which it recommends immediately evacuating the areas that are within a perimeter of between 0 and 15 kilometers from the Nevado del Ruiz volcano. This may interest you Families near Nevado del Ruiz will receive 250 tons of animal feed. The recommendation is given because in the event of a possible eruption of the volcano, these areas would have an evacuation time of less than one hour. The municipal and departmental disaster risk management councils continue to carry out different schemes to guarantee the preventive evacuation of the communities that are located 15 kilometers from the Arenas crater In the Unit we are issuing all the recommendations for the territories, said the general director of the UNGRD, Luis Fernando Velasco. In total there are 19 villages located in the municipalities of Herveo Casabianca Villahermosa and Murillo in the department of Tolima eight in the municipality of Villamaría in Caldas and one in Santa Rosa de Cabal Risaralda In coordination with the municipal and departmental risk management entities the UNGRD is advancing actions for preventive evacuation You can also read These are the municipalities in high threat due to activity of the Nevado del Ruiz volcano. In addition, the entity affirmed that the populations that are in high threat located at distances greater than 15 kilometers from the Arenas crater must take into account that the flow of lahars could move along the Gualí river from its source to the mouth of the Magdalena river and it would involve the municipalities of Herveo Fresno Mariquita Honda Falán Palocabildo and Casabianca in Tolima as well as the municipality of Guaduas in the department of Cundinamarca. Other municipalities of Tolima and Caldas are also at risk due to the passage of different rivers that flow into the Magdalena River and that could serve as a flow of volcanic mud to these populations. The entity also called for municipalities that are in high threat due to lahar flows to monitor and follow-up in the field, update the status of secondary and tertiary roads considered evacuation routes, carry out evacuation drills with the community, review and adjust the emergency response strategy and strengthen early warning systems We recommend the Government presents evacuation routes in the event of a possible eruption of the volcano. These are the villages in which the UNGRD recommends an immediate evacuation. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Ruiz Snowy Volcano. UNGRD. go to comments</t>
+          <t>Home. Atmosphere. 11 May 2023 1135 am. This says the latest report on the state of the Nevado del Ruiz volcano. The seismic activity related to the movement of fluids inside the volcanic conduits presented a slight increase related to the number of earthquakes and the seismic energy released compared to the previous record. Drafting Environment. 0. Save. The activity level remains orange. Photo Colombian Geological Service. This Thursday, May 11, the Colombian Geological Service SGC published the latest report on the status of the Nevado del Ruiz volcano, which has been at an orange level of activity since the end of March. According to the statement, the volcano remains at that level of activity and is expected to continue like this for weeks. From 900 am yesterday, May 10, to 900 am this May 11, the seismic activity related to the movement of fluids inside the volcanic conduits continued to predominate. This seismicity presented a slight increase in the number of earthquakes and in the energy seismic released compared to the previous day indicated the SGC You can also read They deliver implements to relief agencies in the area near Nevado del Ruiz. Likewise, the recording of earthquakes associated with the fracturing of rock inside the volcanic edifice continued. This indicator showed a similar behavior in the number of earthquakes and in seismic energy with respect to May 9. The earthquakes were located to the southwest and east of the Arenas crater at a maximum distance of 4 kilometers and at depths between 2 and 5 kilometers. Regarding the maximum height of the column of gases and/or ash observed, it was 1800 meters measured from the top of the volcano and the preferential dispersion direction was towards the northwest, southwest and southeast of the volcano. On the other hand, variations in degassing are maintained of sulfur dioxide and the release of water vapor from the crater into the atmosphere added the SGC It may interest you Ash emission from the Nevado del Ruiz volcano reached a height of 2000 meters. All these indicators support the message that the service has given for several weeks, the activity of the Nevado del Ruiz volcano continues to be very unstable. Although it is possible that indicators such as earthquakes or gases vary from day to day, this does not mean that the volcano has returned. to its normal level of activity and for this reason it is recommended to take prevention measures in the event of a possible emergency. This past Wednesday, the Caldas Government announced that it had awarded a 50 million contract to improve the SAT Early Warning Systems in the area that would potentially be affected by an eruption. The contract is for a value of 50 million pesos and the contractor must review the current status of the alarms, strengthen them and leave them for remote activation from the Red Cross radio room, the Government indicated through a statement. This with the aim that in the event of an eruption all the alarms are activated at the same time and people can evacuate. In the area several inhabitants had previously denounced that the alert network did not have sufficient coverage. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Nevado del Ruiz volcano. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/se-mantiene-en-naranja-la-actividad-del-volcan-nevado-del-ruiz/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/entregan-implementos-a-organismos-de-socorro-en-area-cercana-al-nevado-del-ruiz/
 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The activity of the Nevado del Ruiz volcano remains orange</t>
+          <t>They deliver implements to relief agencies in the area near Nevado del Ruiz</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 29 Apr 2023 1141 am. The activity of the Nevado del Ruiz volcano remains orange. The Geological Service reported that the activity continues to be unstable and that there have been some ash emissions. Drafting Environment. 0. Save. Since March 30, the activity in the Nevado del Ruiz volcano was changed to orange Photographic archive of the Colombian Geological Service. SGC photo. The Colombian Geological Service SGC announced through the bulletin on the activity of the Nevado del Ruiz volcano that the seismicity inside the volcano remained at levels similar to those reported during Thursday, April 27. We recommend Lahars to which the Geological Service refers They are different from those of Ideam. The seismicity was located in the Arenas crater and its surroundings within a radius of less than 25 km measured from there, the entity said about the monitoring of the earthquakes this Friday. Additionally, during the last few days, the SGC has recorded ash emissions. The last one occurred on the morning of April 29 and was monitored with web cameras that record the volcano's activity in real time. At 0738 am this morning, a pulsatile emission of ash confirmed through web cameras was recorded with a column height of 1100 m and a dispersion direction towards the west-southwest, explained the entity. You can also read the European Union provides help to the population affected by the Nevado del Ruiz volcano. The entity also reported that degassing and the release of water vapor from the volcano continue. In addition, due to the atmospheric conditions of recent days, it has not been possible to register thermal anomalies, but the SGC assured that this does not mean that they are not still present in the background. of the crater. With these indicators it is confirmed that the activity of the volcano continues unstable and will remain this way for several weeks. For this reason, the orange level of activity is maintained and constant monitoring of the Ruiz will continue. The SGC has reiterated that in order to return to the yellow level of activity of the volcano, sustained patterns of decreased seismicity, rock fracturing and the movement of fluids inside the mountain must be registered. It may interest you Families near Nevado del Ruiz will receive 250 tons of animal food. For now, there is still a probability that the volcano will erupt in the coming days or weeks. In the event that there is an acceleration of the processes that suggest an imminent eruption or that the eruption itself occurs, the activity level will change to red the entity stated. Finally, the entity said that we recommend that the community remain calm, follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities and be attentive to the information provided by the Colombian Geological Service on the evolution of the state of the volcano. . Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Ruiz Snowy Volcano. SGC. go to comments</t>
+          <t>Home. Atmosphere. 11 May 2023 730 am. They deliver supplies to relief agencies in the area near Nevado del Ruiz. The delivery of equipment is being carried out in 14 municipalities of the department of Tolima for people who are in the radius of the closest 15 kilometers to the volcano Among the delivered implements are first aid kits, rescue kits at heights and communication radios. Drafting Environment. 0. Save. 17 type B first aid kits have already been delivered. Photo Gobernación del Tolima. In Tolima, authorities began the delivery of implements and equipment to relief agencies and local communities in the area of ​​influence of the Nevado del Ruiz volcano. According to the department's Governor's Office, they are type B first-aid kits, rescue kits at heights, power plants, and portable radios to people who are in the radius of the closest 15 kilometers to the volcano. In other words, the delivery of equipment will be carried out in the 14 municipalities of the area of ​​influence of the Nevado del Ruiz volcano. The management for the delivery was carried out by the Government of Tolima together with the National Unit for Disaster Risk Management UNGRD the Ministry of ICT the Colombian Red Cross and the United States Agency for International Development USAID You can also read Up to half the world could be in a different climate zone by 2100. Andrea Mayorquín Perdomo, Director of Risk Management for the Government of Tolima reported that they delivered 17 type B first aid kits and three height rescue kits. He added that they also have power plants and 22 communications radios which have already been delivered to the communities that make up the 15 kilometer radius and we are delivering 38 more for a total of 60 portable communication radios. These radios will be linked to the communications room of the Secretary of the Environment and Risk Management of the Government of Tolima, the Colombian Geological Service and relief agencies There is constant communication with these agencies added Mayorquín in the event of an emergency. interest How do we study whales if we hardly see them when they emerge to the surface. We have articulated the risk management system for about 150 men who have increased awareness throughout the community by preparing and disseminating the response protocol in the event of a volcanic eruption, said the official. According to the latest report from the Colombian Geological Service SGC, the volcano remains at an orange level of activity, where it has been maintained for more than a month. During the day last Tuesday and Wednesday, there was a slight increase in earthquakes related to the movement of fluids. inside the volcano. Ash emissions also continue At 321 am on Wednesday, one was recorded that reached a height of 2,000 meters. At 740 am, communities in the Ventanas sector in Villahermosa and La Cabaña in Murillo, both in Tolima, recorded ash fall. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Volcano. Nevado del Ruiz volcano. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/nevado-del-ruiz-lahares-a-los-que-se-refiere-el-servicio-geologico-son-distintos-a-los-de-ideam-noticias-hoy/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/caldas-invertira-para-mejorar-sistema-de-alerta-en-area-cercana-al-nevado-del-ruiz/
 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Lahars to which the Geological Survey refers are different from those of Ideam</t>
+          <t>Caldas will invest to improve the alert system in the area near Nevado del Ruiz</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 28 Apr 2023 632 pm. Lahars to which the Geological Survey refers are different from those of Ideam. While the Colombian Geological Service SGC refers to some primary lahars that would appear in the event of a large-scale eruption of the Nevado del Ruiz volcano, the Ideam refers to secondary lahars that could be generated by the rains. The SGC clarifies what each one is about and what are the risks they represent. Drafting Environment. 0. Save. This is what the Nevado del Ruiz volcano looked like this Friday, April 28. Photo Colombian Geological Service. On Thursday, April 27, the Institute of Hydrology, Meteorology and Environmental Studies Ideam issued an orange and yellow alert in some towns in the area of ​​influence of the Nevado del Ruiz volcano due to the possibility of lahars due to the rains. You can read The recently discovered anemones that They build terraces at the bottom of the sea. The entity alerted different populations of Tolima and Caldas about the possible formation of lahars that could descend through the valleys of the Lagunilla Sabandija Recio rivers and the Nereid Alfombrales ravines of the Molinos Claro and Chinchiná rivers. However, on the afternoon of this Friday, April 28, the Colombian Geological Service SGC issued a statement clarifying that the lahars referred to by the Ideam are secondary and are different from the lahars referred to by the SGC. It may interest you This is how Colombia is going in its plans to achieve sustainable development in 2030. What are primary lahars and secondary lahars. Primary lahars, also known as avalanches, are volcanic phenomena that can occur if the Nevado del Ruiz volcano erupts at a large magnitude and are what the SGC refers to in its publications. These types of lahars are generated by the rapid melting of the ice and snow from the glaciers that cover the volcanic edifice due to the incandescent material that comes out of the volcano at the time of the eruption As they advance through the rivers that are born in the volcano they can increase their volume and become very destructive, destroying everything in their path, explains the SGC. and they have the ability to reach populations far from the volcano, as occurred in the Armero tragedy in 1985, the entity recalls. Now these lahars are very different from the secondary ones, which is what Ideam has referred to in its most recent statements. These, the SGC explains, occur when loose unconsolidated volcanic material deposited in certain places by previous eruptions is remobilized by rain. They tend to be relatively small and their discharge and volume depend on the intensity of the rain that generates them. In this sense, we clarify that the lahars to which we have referred from the SGC in relation to the activity of the Nevado del Ruiz volcano are different from those that the Ideam mentions, emphasizes the entity. It may interest you Spain reaches record temperatures in April with almost 40 C. It should be remembered that the Nevado del Ruiz volcano remains at an orange level of activity, which means that it is possible that in days or weeks it will erupt more than it has in the last 10 years. The entity recalls that the behavior continues to be unstable but warns that the eruption is only a probability. Follow us on Google News. Recommended topics. Ruiz Snowy Volcano. Nevado del Ruiz. News today. Colombian News. go to comments</t>
+          <t>Home. Atmosphere. 10 May 2023 740 pm. Caldas will invest to improve the alert system in the area near Nevado del Ruiz. The Government of the department announced that it awarded a 50 million contract to review and improve the alarms in the area of ​​influence of the volcano. The objective is to strengthen some of the existing ones, locate some new ones and leave them ready to be activated remotely at the same time from the room of radios of the Red Cross. Drafting Environment. 0. Save. The department declared itself in public calamity. Photo Government of Caldas. This May 10, the Caldas Government, one of the departments in the area of ​​influence of the Nevado Ruiz volcano, announced that it had awarded a contract to improve the SAT Early Warning Systems in the area that would potentially be affected by an eruption. The contract is for a value of 50 million pesos and the contractor must review the current status of the alarms, strengthen them and leave them for remote activation from the Red Cross radio room, the Government indicated through a statement. This with the aim that in the event of an eruption all the alarms are activated at the same time and people can evacuate You can also read Up to half the world could be in a different climate zone by 2100. Due to the public calamity we have a contract for the maintenance of the department's early warning network since some people had mentioned that the system was not providing adequate coverage, said Félix Ricardo Giraldo Delgado, head of the Caldas Risk Management Unit. It must be taken into account that we now have more homes near the Chinchiná and Claro rivers and therefore the radius of action of the sirens must be expanded, he said. Likewise, the existing sirens in sectors such as Viejo Río Claro and El Destierro de Villamaría and those located in the CHEC Pescador sandboxes and in the Santágueda bridge sector in Manizales should also be strengthened. Within the contract, it is also analyzed whether a new alarm should be placed in the Cenicafé sector This installation would be made through an agreement with Manizales in order to improve warning signs in the sandbox area The system that measures the level was also reviewed of flows at Cenicafé and the objective is to link it to the alarm system so that when the flowmeter changes its levels, the alarms are also activated, added the Government. In the same way, it was reviewed to recondition the alarm that exists in the La Manuela sector on the Manizales Medellín road and to increase the range of action for the Chinchiná river area. It may interest you They discover microbes that can digest plastic at low temperatures. According to the latest report from the Colombian Geological Service SGC, the volcano remains at an orange activity level, where it has been maintained for more than a month. During the day last Tuesday and this Wednesday, there was a slight increase in earthquakes related to the movement of fluids inside the volcano. Ash emissions also continue At 321 am this Wednesday, one was recorded that reached a height of 2000 meters. At 740 am communities in the Ventanas sector in Villahermosa and La Cabaña in Murillo, both in Tolima, recorded ash fall. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Caldas. Early alerts. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/actividad-del-volcan-del-ruiz-sigue-siendo-inestable-y-permanece-en-alerta-naranja/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/emision-de-ceniza-del-volcan-nevado-del-ruiz-alcanzo-una-altura-de-2000-metros/
 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ruiz volcano activity remains unstable and remains on orange alert</t>
+          <t>Ash emission from the Nevado del Ruiz volcano reached a height of 2000 meters</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 28 Apr 2023 1141 am. Ruiz volcano activity remains unstable and remains on orange alert. The Colombian Geological Service confirmed that the activity of the volcano continues to be unstable, so the levels of seismic activity can increase on some days and decrease on others. Drafting Environment. 0. Save. For the level of the volcano to change and return to yellow, a prudent time is required in which trends and patterns can be observed to infer the possible decrease in activity. Photo AFP HANDOUT. The follow-up to Nevado de Ruiz carried out by the Colombian Geological Service SGC recorded that yesterday the seismic activity of the volcano associated with the fracturing of rock inside it decreased compared to April 26. The earthquakes were located mainly in the northwestern, northeastern, eastern and southern sectors of the volcano at depths between 1 and 6 km. Read It was believed to be extinct but the jaguar reappeared in the Cravo Sur Casanare river. Regarding the seismic activity related to the movement of fluids inside, the SGC reported that it showed seismic energy levels similar to those of April 26, activity associated with ash emissions that were confirmed through the web cameras used for monitoring. The maximum recorded height of gases or ashes was 1800 meters from the top of the volcano and its dispersion was towards the northwest. Read The dogs that are causing a serious problem in Colombia. According to the SGC, the activity of the Nevado del Ruiz volcano continues to be very unstable. It is possible that the levels of seismic activity as well as the levels of degassing or ash output may decrease or be oscillating, so they could increase on some days and decrease on others. Lea Asia also experiences record temperatures in April 43 C. For the level of the volcano to change and return to yellow, explains the SGC, a prudent time is required in which trends and patterns can be observed to infer the possible decrease in activity, so The entity clarifies that the orange level will remain for a few more weeks. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Ruiz Snowy Volcano. go to comments</t>
+          <t>Home. Atmosphere. 2. You can still read 2 more articles Create your account right now and enjoy 10 free monthly content. Creat your account. 10 May 2023 1217 pm. Ash emission from the Nevado del Ruiz volcano reached a height of 2000 meters. The seismicity inside the volcano has increased slightly in the last 24 hours. In Villahermosa and La Cabaña Tolima, ash fall was recorded. Drafting Environment. 0. Save. The activity of the Nevado del Ruiz volcano remains on orange alert. SGC photo. The earthquakes related to the movement of fluids inside the Nevado del Ruiz volcano showed a slight increase between 900 in the morning of May 9 and 900 am today, May 10, according to the most recent bulletin of the Colombian Geological Service SGC. Ash emissions also continue At 321 am this Wednesday, one was recorded that reached a height of 2000 meters At 740 am communities in the Ventanas sector in Villahermosa and La Cabaña in Murillo, both in Tolima, recorded ash fall Read The activity of the Nevado del Ruiz volcano remains on orange alert. Regarding the seismic activity associated with rock fracturing within the volcanic edifice in the same period, it presented a similar behavior with respect to the number of registered earthquakes as well as a slight increase in the seismic energy released compared to the previous day, May 8, reported the SGC. Thermal anomalies continue to be observed at the bottom of the Arenas crater according to the reports that have been made from satellite monitoring platforms. Due to these factors, the volcano's activity remains orange. Read These frogs from Puerto Rico have changed their sound due to The high temperatures. How are the roads in sectors near the Nevado del Ruiz. According to the UNGRD National Unit for Disaster Risk Management, most of the roads in Tolima and Caldas that are close to the volcano and that function as an evacuation route are enabled, although many have passage restricted to a single lane. These are the roads that are closed. In Aranzazu Caldas, the road El Crucero Salón Rojo La Paila is closed. In Salamina Caldas, the road El Peligro El Águila La Chulasca Alto de las Coles is closed. Supía Caldas the Supía La Quinta La Amalia road is closed. Recommended topics. Nevado del Ruiz volcano. Nevado del Ruiz volcano today 2023. Nevado del Ruiz volcano today. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/bibo/union-europea-brinda-ayuda-a-la-poblacion-afectada-por-el-volcan-nevado-del-ruiz-noticias-hoy/
+          <t xml:space="preserve">https://www.elespectador.com/economia/municipios-en-riesgo-por-el-nevado-del-ruiz-tendran-cuatro-emisoras-de-emergencia/
 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>European Union provides aid to the population affected by the Nevado del Ruiz volcano</t>
+          <t>Municipalities at risk from Nevado del Ruiz will have four emergency stations</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. BIBO. 27 Apr 2023 418 pm. The European Union provides aid to the population affected by the Nevado del Ruiz volcano. The organization's economic aid is aimed at equipping water filters, first aid equipment, and individual protection in departments at risk from volcanic activity. European Union. 0. Save. The maximum recorded height of gases or ashes was 1800 meters from the top of the volcano. SGC photo. In view of the increased seismic activity related to the Nevado del Ruiz volcano, which has threatened some 60,000 people since March 24, the European Union EU will provide more than one billion Colombian pesos EUR 200,000 of humanitarian funding to support families who they have been forced to leave their homes and ensure greater preparation for the most exposed communities. This EU funding will help the Colombian Red Cross to provide emergency services in the departments of Caldas, Tolima, Cundinamarca, Risaralda and Quindío. Lea Volcán del Ruiz continues on orange alert and its activity remains unstable. The funding will help the Red Cross to position essential equipment such as water filters, first aid kits and personal protective equipment in preparation for emergencies in five different departments. The Red Cross will also hold community workshops on early warning systems and train volunteers In addition, cash aid will be granted to families who have been forced to abandon agricultural work due to the emergency. The aid will directly benefit 16,647 people in the most affected areas. Priority will be given to families with vulnerable members. The High Representative of the European Union and Vice President of the European Commission Josep Borrell declared Thanks to this humanitarian aid from the EU we will guarantee security and support affected communities Disaster preparedness is a key component of EU aid in the Americas Latin America and the Caribbean, which is a region very prone to natural hazards Read The reason why elephant seals dive to take short naps. European Commission Commissioner for Crisis Management Janez Lenarčič says The global humanitarian landscape is severely affected by natural disasters giving rise to sudden emergencies with dire consequences This is why the EU's humanitarian commitment must go further of post-crisis aid With this new funding channeled through the Colombian Red Cross we are reinforcing the local response capacity in the areas close to the Nevado del Ruiz volcano through anticipatory action, a key component of our projects that will allow us to save lives and contain damage. The funding is part of the overall EU contribution to the International Federation of Red Cross and Red Crescent IFRC Disaster Response Emergency Fund DREF. Follow us on Google News. Recommended topics. Nevado del Ruiz volcano. Nevado del Ruiz. Colombian volcano. volcano today. go to comments</t>
+          <t>Home. Economy. 10 May 2023 1150 am. Municipalities at risk from Nevado del Ruiz will have four emergency stations. The Ministry of ICT issued the licenses for these radio stations, which will focus on providing communication channels that facilitate prevention, care and recovery actions in the event of an eventual eruption. Writing Economy. 0. Save. Since March 30, an orange alert was declared on the Nevado del Ruiz volcano Photographic archive of the Colombian Geological Service. SGC photo. In order to mitigate and address the risks posed by the orange alert in which the Nevado del Ruiz volcano remains, the Ministry of ICT approved the licenses for four emergency stations to start operating. These will benefit municipalities close to the snow-capped mountain, including Casabianca Murillo Villahermosa and Santa Isabel in the department of Tolima. It must be taken into account that the first three have been declared high-risk territories by the National Risk Management Unit. Also read Nevado del Ruiz Volcano this is its state on May 9. It is expected that the municipality of Herveo will also have this channel in the coming days, the portfolio detailed. It must be said that the licenses were requested by the mayors of the municipalities and they will be responsible for their proper management. The purpose of these radio stations is to provide communication channels that facilitate prevention, care and recovery actions in the event of an eventual eruption. With the entry into operation of these stations, we are giving the people of the region the possibility of receiving timely information on the state of the volcano's emergency, the recommendations of the attention agencies and instructions that will be key to avoiding a disaster and safeguarding lives. that it is our priority, affirmed the ICT Minister Mauricio Lizcano. It may interest you. The Animal Foundation near Nevado del Ruiz needs your help. The ministry described the issuance of these licenses as taking record time, taking into account that the procedure that was carried out with the National Spectrum Agency was brought forward in less than a week. However, the ministry did not report on which dials will be used to tune in to these stations. . Having this license is excellent news. A station is the way people have to communicate through the radio, we can inform what happens with the volcano permanently and immediately, explained the mayor of Murillo, Antonio José García. The operating time of these stations will depend on the declaration of disaster or calamity in the municipalities where they operate. In other words, their permanence may be extended as long as the need is demonstrated. You already found out about the latest economic news. We invite you to see them in El Espectador. Recommended topics. Economic news. Economy. Mintic. Nevado del Ruiz volcano. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-del-ruiz-continua-en-alerta-naranja-y-su-actividad-sigue-siendo-inestable/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-nevado-del-ruiz-este-es-su-estado-el-9-de-mayo/
 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ruiz Volcano continues on orange alert and its activity remains unstable</t>
+          <t>Nevado del Ruiz volcano this is its state on May 9</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 27 Apr 2023 1035 am. Ruiz Volcano remains on orange alert and its activity remains unstable. The Colombian Geological Service confirmed that the activity of the volcano continues to be unstable, so the levels of seismic activity can be oscillating, that is, they increase one day and decrease another. Drafting Environment. 0. Save. Since March 30, an orange alert was declared on the Nevado del Ruiz volcano Photographic archive of the Colombian Geological Service. SGC photo. According to the follow-up to Nevado de Ruiz advanced by the Colombian Geological Service SGC, yesterday the seismic activity of the volcano associated with the fracturing of rock inside it increased compared to April 25. The earthquakes were located mainly in the northeastern and eastern sectors of the volcano at depths between 2 and 35 km It may interest you The coral that suffocates reefs in Venezuela and threatens the Caribbean. Regarding the seismic activity related to the movement of fluids inside, the SGC reported that it showed seismic energy levels similar to those of April 25, activity associated with ash emissions that were confirmed through the web cameras used for monitoring. The maximum recorded height of gases or ashes was 1,800 meters from the top of the Lea volcano. Without climate change, the Horn of Africa would not be experiencing its worst drought. Extraordinary activity bulletin for the Nevado del Ruiz volcano April 27, 0950 The level of activity continues at ORANGE httpstco6pk9bs0WmSSGCVolcanoes pictwittercomgEOX9XcRev. Servicio Geológico Colombiano sgcol April 27 2023. The SGC also pointed out that both important thermal anomalies continue at the bottom of the crater, as well as the degassing of sulfur dioxide into the atmosphere and the release of water vapor from the volcano, thus confirming that the The volcano's activity continues to be unstable so that the levels of seismic activity can be oscillating, that is, they can continue to increase one day and decrease another Lea First lion seen in Chad after 20 years of absence. As explained by the SGC, for the level of the volcano to change and return to yellow, a prudent time is required in which trends and patterns can be observed to infer the possible decrease in activity, so the entity clarifies that the orange level will remain for some weeks more. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Nevado del Ruiz volcano. go to comments</t>
+          <t>Home. Atmosphere. 9 May 2023 957 am. Nevado del Ruiz volcano this is its state on May 9. The activity level of the volcano remains orange. Drafting Environment. 0. Save. Seismic activity continues inside the Nevado del Ruiz volcano. SGC photo. This Tuesday, May 9, the Colombian Geological Service SGC published the latest report on the state of the Nevado del Ruiz volcano. According to the statement, the Nevado remains at the orange level of activity as it has been since the end of March and could stay there for more weeks, the entity reported. . During last Monday, May 8 and so far today, the seismic activity related to the movement of fluids inside the volcanic conduits continues to predominate. Compared to what was registered on Sunday, the number of earthquakes and the seismic energy released showed increases in yesterday's session You can also read How to act when ash is released from Nevado del Ruiz This is what the Ministry of Health says. The seismicity associated with fracturing of rock inside the volcanic edifice also continues, which showed a similar behavior in the number of earthquakes and in seismic energy compared to May 7. These earthquakes were located in the Arenas crater in a scattered manner around it at a maximum distance of 5 kilometers and at depths between 1 and 6 kilometers. Regarding the maximum height of the column of gases and/or ash observed, this was 1000 meters measured from the top of the volcano and was related to an ash emission recorded on May 8 at 0727 pm. The preferential dispersion direction of the gas column was towards the west-southwest and northwest of the volcano From the satellite monitoring platforms, several important thermal anomalies were observed at the bottom of the crater On the other hand, variations in the degassing of sulfur dioxide and the exit of water vapor from the crater to the atmosphere added the SGC It may interest you Slight increase in the number of earthquakes in the Nevado del Ruiz volcano. All these indicators support what the Service has reiterated since the level of activity of the volcano was raised, it is still very unstable. That is why it is necessary to maintain the prevention measures that the authorities at the national, regional and local levels have recommended. From the SGC we warn that the level of activity of the Nevado del Ruiz volcano will remain at an orange level for several weeks. During this time, in the event that there is an acceleration of the processes that suggest an imminent eruption or that the eruption itself occurs, the level of activity will change to red indicated the SGC. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Nevado del Ruiz. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/actividad-del-ruiz-sigue-en-naranja-sismos-aumentaron-respecto-al-domingo/
+          <t xml:space="preserve">https://www.elespectador.com/salud/como-actuar-ante-la-salida-de-ceniza-del-nevado-del-ruiz-esto-dice-minsalud-volcan-nevado-del-ruiz/
 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ruiz activity continues in Naranja earthquakes increased compared to Sunday</t>
+          <t>How to act before the exit of ash from Nevado del Ruiz This says Minsalud</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 25 Apr 2023 946 am. Ruiz activity continues in Naranja earthquakes increased compared to Sunday. The maximum magnitude reported by the SGC was 17 corresponding to the earthquake at 0535 pm on Monday located 41 km to the east of the crater and 32 km deep. This earthquake was reported as felt by inhabitants in the Lagunilla river canyon. Writing Science. 0. Save. View of Ruiz from Cerro Guali Colombian Geological Service. Photo Colombian Geological Service. The Colombian Geological Service SGC continues to monitor the activity of the Nevado del Ruiz volcano. In its report today, the entity informs that during this April 24 and so far today the seismic activity related to the movement of fluids inside the The volcanic conduits showed an increase in seismic energy compared to the previous day, April 23, and has been associated with several ash emissions that were confirmed through the web cameras used for volcanic monitoring. Follow us on Google News. Recommended topics. Snowy situation of Ruiz. Nevado del Ruiz. Ruiz snow-capped crater. Nevado del Ruiz eruption. Go to comments. Links sponsored by Taboola. It may interest you. Former diabetic from Bogotá tells how to maintain glucose at 85. Diabetes secret revealed. Sophistication at your feet Premium leather tennis shoes. VLZ PREMIUM. 1 glass before bed will burn abdominal fat overnight. Emag. Bogotá calculate how much you could earn by investing in Amazon CFDs. Daily Markets. Military glasses arrive in Colombia for less than 140,000 and become a fever among drivers. Tips And Recommendations. The most sought after European sneakers at prices never seen before. Verified Store. Elections 2023 Yahir Acuña leads the polls in Sincelejo. Volvo xc40 plus b4 Pay 50 today and 50 in 2025. for Taboola. Sponsored links. It may interest you. Free daily horoscope today May 11, 2023. El Espectador. Wrinkles and spots You can follow this simple advice. Health Portal. Solar panels are now a bargain thanks to the government. Solar Panels Want Ads</t>
+          <t>Home. Health. 8 May 2023 710 pm. How to act before the exit of ash from Nevado del Ruiz This says the Ministry of Health. Since the activity of the Nevado del Ruiz volcano is on orange alert, there has been a release of gases and ash that can be harmful to health. For this reason, the Ministry of Health issued a series of recommendations to prevent certain affectations and the way in which they should act in if they are exposed. Health Writing. 0. Save. Municipalities of Tolima and Caldas are the most exposed to gases and ashes that come out of the Nevado del Ruiz volcano EFE Ernesto Guzmán. Photo EFE Ernesto Guzman. According to the most recent bulletins on the activity of the Nevado del Ruiz volcano published by the Colombian Geological Service SGC, the outflow of gases and ash from the Arenas crater continues. On May 7, the maximum height of the column of these elements was 1800 meters . This situation, added to the seismic activity in the volcano, has generated an alert since the end of March in the country, especially in the municipalities of Tolima and Caldas. For this reason, the Ministry of Health and Social Protection issued a series of recommendations for care against gas exposure. Volcanics and pollutants to which people who live near Nevado del Ruiz are exposed Lea Slight increase in the number of earthquakes at the Nevado del Ruiz volcano. Volcanic ash can exert its effects at a much lower concentration and many kilometers from the volcano, says the ministry. The effects range from respiratory infections to skin and eye irritations, according to the portfolio. This is why it is important to identify odors related to gas emissions Sulfur dioxide or SO2 smells similar to fireworks Hydrogen sulfide or H2S smells similar to hot springs or rotten food like rotten eggs Hydrogen fluoride HF and hydrochloric acid HCI has a strong and annoying irritating odor On the other hand, carbon dioxide and monoxide have no odor Read Vietnam registers its highest temperature in history 441 C. The main recommendation is to avoid exposure to these gases If in In this case, people should go out, ideally they should wear face masks. The most vulnerable are boys and girls, as well as people with respiratory diseases such as asthma or allergies. If someone is exposed to sulfur dioxide in great consideration, this can trigger a chemical pneumonitis that generates fever and respiratory distress. Affected people must be treated in a medical center. To avoid this, the use of N95 and KN95 masks is recommended since conventional ones do not protect against this chemical. Now, skin contact with volcanic ash can cause contact dermatitis. For this reason, the Ministry of Health recommends wearing long-sleeved clothing, preferably light-colored, and keeping the skin hydrated with creams or Vaseline If they present symptoms such as irritation, pain, or edema they should consult the doctor and avoid scratching Lea A new group of butterflies is named after Sauron from Lord of the Rings. In case they have contact with gases or ash and present conjunctivitis, a type of irritation in the eye, they should wash the affected area with clean water or Hartmann for 15 or 20 minutes. They can also apply non-corticosteroid moisturizing eye drops To prevent this condition the use of protective glasses is essential. These recommendations are for the general public, except for those who have a history and allergies to certain medications. Although there are several municipalities at risk, the indications are directed especially to those who live in the rural areas of Manizales, Villamaría, Chinchiná, Palestina, Neira, and Anserma, in Caldas. for the Tolimense municipalities of Herveo Casabianca Fresno Palocabildo Falan Mariquita Honda Murillo Líbano Lérida and Villahermosa as well as for the people who live on the Recio river basin. Recommended topics. Nevado del Ruiz volcano. Nevado del Ruiz volcano today 2023. Which cities does the Nevado del Ruiz volcano affect? Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ciencia/comportamiento-del-volcan-del-ruiz-sigue-siendo-inestable-actividad-se-monitorea/
+          <t xml:space="preserve">https://www.elespectador.com/la-red-zoocial/fundacion-de-animales-aledana-al-nevado-del-ruiz-necesita-su-ayuda-noticias-hoy/
 </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Behavior of the Ruiz volcano continues to be unstable activity is monitored</t>
+          <t>Animal Foundation near Nevado del Ruiz needs your help</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Home. Science. 24 Apr 2023 1117 am. Behavior of the Ruiz volcano remains unstable activity is monitored. The Colombian Geological Service recommends following the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities and being attentive to information on the evolution of the state of the volcano. Writing Science. 0. Save. Since March 30, an orange alert was declared on the Nevado del Ruiz volcano Photographic archive of the Colombian Geological Service. SGC photo. The Colombian Geological Service SGC maintains its monitoring of the Nevado del Ruiz volcano The activity on Sunday, April 23, maintained a similar behavior in terms of number and seismic energy compared to the previous day, April 22. The earthquakes associated with rock fracturing were mainly located in the south-southeast and east-northeast sectors of the volcano as well as in the Arenas crater at depths between 04 and 4 km. The maximum magnitude recorded was 08. The seismicity related to fluid movement was basically concentrated in the crater sector and some of these earthquakes were associated with pulsatile ash emissions that were confirmed through the web cameras used for volcanic monitoring. The maximum height of the column of gases and/or ash observed was 1,400 meters from the top of the volcano. In addition, the SGC reports that thermal anomalies in the bottom of the crater continue just like the output of sulfur dioxide into the atmosphere. You can see Scientists discover more than 19,000 new submarine volcanoes. The entity then reiterates that the Ruiz activity continues in Naranja Although it is possible that the levels of seismic activity as well as the levels of degassing or ash output decrease or are oscillating in the sense of increasing on some days and decreasing on others, this does not imply that the volcano has returned to its normal levels of activity To change the level and return to the yellow level, a reasonable amount of time is required to observe more continuous trends and patterns. During this time, in the event that there is an acceleration of the processes that suggest an imminent eruption or that the eruption itself occurs, the activity level will change to red. Follow us on Google News. Recommended topics. Nevado del Ruiz. Ruiz Snowy Volcano. Nevado del Ruiz volcano activity. go to comments</t>
+          <t>Home. The Zoo Network. 8 May 2023 638 pm. Animal Foundation near Nevado del Ruiz needs your help. The Amparo Foundation located in Vereda Nueva Primavera in Villamaría Caldas cares for 220 animals including dogs, cats and pigs. The Zoo Network. 0. Save. Juliana Coco, founder of the shelter, told La Red Zoocial that she fears for the integrity of the animals. Photo Amparo Foundation. Listen to this article. 000 428. 1X. The seismic activity of the Nevado del Ruiz volcano continues on orange alert, as reported by the Colombian Geological Service SGC Given the risk of a possible eruption, the community continues to implement measures to protect people, domestic animals, livestock and wildlife residing in the departments. of influence of the volcano. Read Animal abuse in Antioquia they find a bird of prey tied to one of its legs. The Amparo Foundation located in Vereda Nueva Primavera in Villamaría Caldas cares for 220 animals including dogs, cats and pigs. Juliana Coco, founder of the shelter, told La Red Zoocial that she fears for their integrity. At this moment we are close to the Chinchiná river located in the Central South region of the department of Caldas and we are concerned about the possible eruption of the Nevado del Ruiz volcano because the avalanche passed through here in 1985. Also, every day we must feed each one of them and maintain Juliana assures her very clean places. According to the content creator known as Cotry, who has spread the case through his social networks, the help they are requesting is to make an evacuation route for the animals since making a foundation from scratch or moving it is very expensive. It is easier to take the evacuation route. In such an emergency, you would have about 10 minutes or so to open the kennels and for all the animals to leave by that route, the content creator told La Red Zoocial. It might interest you Why it is important to have a cat or dog in the house Advantages and benefits. At this time the foundation is receiving food for dogs, cats and pigs In addition to toiletries such as clean powdered soap, brooms and mops. On the other hand, if you want to donate money to help animals, you can do it through. Bancolombia savings account 62300015196 and DaviPlata 3136617132. . ICA recommendations to protect animals that are in risk areas due to Nevado del Ruiz. The Colombian Agricultural Institute ICA adopted measures to protect agricultural health and support farmers and ranchers who are in the area of ​​influence of the Nevado del Ruiz Volcano. The ICA decided to give urgent and priority attention for the issuance of Sanitary Guides for Internal Mobilization to the peasant producers and marketers who move with their animals to properties or temporary shelters by virtue of the preventive evacuation that is being carried out in the area of ​​arriving at declaring a state of alert at red level the mobilization of livestock is authorized without the precise sanitary guide the press report clarifies that once the animals are at the destination site they will have to be reported to the office of the Institute within the following eight days. Likewise, it authorizes the provisional lifting of blockades to the mobilization of properties of origin that are located in areas where preventive evacuation is required. The ICA clarifies that these exceptional measures will only apply to the movement of animals in. Tolima Villahermosa Herveo Murillo Lebanon Lleida Gunsmith Guayabal Falan Palocabildo Fresno Honda Mariquita Venadillo Ambalema and Casabianca. Caldas Villamaría Chinchiná Palestine Anserma Marulanda Neira and Manizales. Risaralda Santa Rosa de Cabal Dosquebradas Marseille and Pereira. Cundinamarca Guaduas. You want to be up-to-date and know the latest news about the animal world. We invite you to see them at La Red Zoocial Also, if you have a story or are interested in telling yours with your pet, you can write to laredzoocialelespectadorcom. Recommended topics. The Zoo Network. Animals. Pets. News today. Animal Foundation. Follow us on Google News. Go to comments. The most viewed in La Red Zoocial. The Zoo Network. Photos Record a striated scytheman in the Wildlife Refuge in Medellín. 22 hours ago. The Zoo Network. Great adoption day in Medellín These animals are looking for a new home. 23 hours ago. The Zoo Network. We were wrong Zoo Miami apologizes for the controversial video of the kiwi Paora. 18 hours ago</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/es-posible-que-la-salida-de-ceniza-del-volcan-nevado-del-ruiz-disminuya-sgc-noticias-hoy/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/leve-aumento-en-numero-de-sismos-en-el-volcan-nevado-del-ruiz/
 </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>It is possible that the output of ash from the Nevado del Ruiz volcano will decrease SGC</t>
+          <t>Slight increase in the number of earthquakes in the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 23 Apr 2023 303 pm. It is possible that the output of ash from the Nevado del Ruiz volcano will decrease SGC. The UNGRD, the National Army and the governorates continue to work on improving roads to improve evacuation in the event of an emergency. Drafting Environment. 0. Save. The maximum height reached by the column of gases from the Nevado del Ruiz volcano was 1,300 meters EFE Ernesto Guzmán. Photo EFE Ernesto Guzman. According to the most recent bulletin of the Colombian Geological Service SGC on the activity of the Nevado del Ruiz volcano corresponding to Saturday, April 22, seismicity levels remain at levels similar to those presented in previous days. Follow us on Google News. Recommended topics. Nevado del Ruiz volcano. Nevado del Ruiz. Colombian volcano. volcano today. Go to comments. Links sponsored by Taboola. It may interest you. Former diabetic from Bogotá tells how to maintain glucose at 85. Diabetes secret revealed. Sophistication at your feet Premium leather tennis shoes. VLZ PREMIUM. This trick melts belly fat even if you eat everything. Emag. Military glasses arrive in Colombia for less than 140,000 and become a fever among drivers. Tips And Recommendations. Bogotá calculate how much you could earn by investing in Amazon CFDs. Daily Markets. Why luxury villas in Dubai are so cheap See Prices. Villas in Dubai Sponsored Links. Elections 2023 Yahir Acuña leads the polls in Sincelejo. This is how Bogotá advances in hospital infrastructure. The most viewed in Environment. Atmosphere. Ash emission from the Nevado del Ruiz volcano reached a height of 2000 meters. 10 May 2023 1217 pm. Atmosphere. Caldas will invest to improve the alert system in the area near Nevado del Ruiz. 16 hours ago. Blog The River. How do we study whales if we barely see them when they rise to the surface. 15 hours ago. by Taboola. Sponsored links. It may interest you. Uribe clarifies trill about Coronell after learning that he would face charges for slander. The viewer. Solar panels are now a bargain thanks to the government. Solar panels Want ads. Diabetes is not so sweet Meet the enemy of diabetes. Diasulin</t>
+          <t>Home. Atmosphere. 8 May 2023 1124 am. Slight increase in the number of earthquakes at the Nevado del Ruiz volcano. Since the end of March of this year, the level of activity of the volcano remains orange. Although the level of earthquakes and energy released increased slightly according to the last report, this does not mean that the Nevado is more unstable than in the previous days. In general, during the last weeks has been more unstable than usual. Drafting Environment. 0. Save. Image of the volcano this May 8. SGC photo. The Colombian Geological Service SGC published the latest report on the status of the Nevado del Ruiz volcano, which has been at the orange level of activity since the end of March of this year. According to the document, the volcano remains at this level with reports of very unstable activity. Compared to the earthquakes and energy released on May 6, what was recorded during Sunday had a slight increase. Between yesterday, May 7, and so far today, seismic activity related to the movement of fluids to the ground has predominated. interior of the volcanic conduits indicated the SGC. The record of seismicity associated with rock fracturing inside the volcanic edifice also continues. This indicator showed a similar behavior in the number of earthquakes and seismic energy compared to May 6. You can also read This is what the latest report on the state of the Nevado del Ruiz volcano. These earthquakes were located in the Arenas crater scattered around it at a maximum distance of 6 kilometers and at depths between 1 and 5 km. Regarding surface activity, the maximum height of the column of gases and/or ash observed was 1800 m, measured from the top of the volcano and was related to an ash emission recorded on May 6 at 1154 pm added the latest bulletin. Regarding the dispersion of the gas columns, the preferential direction they had was towards the southwest and northwest of the volcano. Several important thermal anomalies were also observed at the bottom of the crater from satellite monitoring platforms. In previous days, ash fall was reported in Manizales and ash emissions in the municipality of Murillo. In addition, variations in the degassing of sulfur dioxide and the release of water vapor from the crater into the atmosphere are maintained. It may interest you They name a new group of butterflies after Sauron from the Lord of the Rings. All these indicators support what the service has reiterated for weeks: the activity of the Nevado del Ruiz volcano continues to be very unstable and that it is necessary to continue with the prevention measures. It is possible that the levels of seismic activity as well as the levels of degassing or output of ash decrease or are oscillatory in the sense of increasing on some days and decreasing on others wrote the SGC. However, this does not mean that the volcano has returned to its normal levels of activity, so it is recommended not to get used to these oscillating changes in activity and to think that it is a normal activity of the volcano. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Volcano. Nevado del Ruiz volcano. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/lo-que-ha-pasado-con-el-volcan-nevado-del-ruiz-desde-que-esta-en-alerta-naranja-noticias-hoy/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/esto-dice-el-ultimo-reporte-sobre-el-estado-del-volcan-nevado-del-ruiz/
 </t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>What has happened to the Nevado del Ruiz volcano since it is on orange alert</t>
+          <t>This says the latest report on the state of the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 22 Apr 2023 1127 am. What has happened to the Nevado del Ruiz volcano since it is on orange alert. The increase in earthquakes began to be registered since March 24. Although this activity has decreased in recent days, there are other anomalies that make the volcano's activity very unstable according to the most recent bulletins from the SGC. Drafting Environment. 0. Save. Since March 30, an orange alert was declared on the Nevado del Ruiz volcano Photographic archive of the Colombian Geological Service. SGC photo. The Colombian Geological Service SGC issued a new bulletin on the activity of the Nevado del Ruiz volcano on Friday, April 21. According to the document, the earthquakes and thermal anomalies continue and remain at levels similar to those registered in previous days. Some of these earthquakes were associated with the activity of the lava dome located at the bottom of the crater, the SGC reported. The largest earthquake was 14 and occurred at 304 in the afternoon at a depth of 27 km Read Prevention actions are presented in the event of a possible eruption of the Nevado del Ruiz volcano. The institution also announced that the output of sulfur dioxide and water vapor in the volcano continues, which is why they continue to constantly monitor volcanic activity through satellites. The orange alert will continue for several weeks. Since March 24, there has been an increase in seismicity associated with rock fracturing inside the Nevado del Ruiz volcano, 4 km away from the Arenas crater. In the following days this type of seismicity increased, reaching the highest number of earthquakes on March 28. 6,500 daily earthquakes have been registered in this volcano since 2010. During March 29 and 30, the number and magnitude of earthquakes reached unprecedented levels Due to this situation, an orange alert was declared Read Do not be confused by the image of a supposed crack in the Nevado del Ruiz. In the first week of April, the seismicity associated with rock fracturing continued with daily rates of between 5,000 and 10,500 earthquakes until April 5. The magnitude of these movements also increased. However, in this same week the seismicity began to decrease but the output of volcanic gases, water vapor and ash as well as the temperature at the bottom of the crater increased. From the SGC, this phenomenon was interpreted as a possible migration of magma from the southwest of the volcano to a reservoir that was already 3 km below the crater. Additionally, during this week several confirmed ash emissions were recorded and several reports of ash fall were received. in the municipality of Murillo Tolima explains the institution Lea No eruption of the Nevado del Ruiz volcano is not imminent as they assure by networks. In the following week, the number of registered daily earthquakes ceased to be a determining indicator of the volcano's activity. However, the alert continues due to the seismic activity associated with the release of volcanic gases, water vapor and/or ash, the possible mobilization of magma towards the surface and thermal anomalies. As of April 13, the seismicity in the crater increased, there occurred almost 2000 small and repetitive earthquakes associated with the pressure that the magma that is mobilizing to the surface exerts on the dome that has been at the bottom of the crater since the end of 2015. sands. Sulfur dioxide emissions continue, which indicates that the Volcano system is not completely closed, if it were, the gases inside the structure would accumulate, causing the probability of an eruption to increase exponentially, the SGC Lea Nevado del Ruiz maintains, the amounts are normal. noises reported in the northern part of the volcano. Inhabitants of the El Sifón sector, about 7 km northeast of the crater, have reported noises coming from the volcano at dawn. This phenomenon is within the parameters contemplated in the orange activity level of a volcano like this and does not accelerate the condition that a bigger eruption is likely than it has done in the last 10 years in terms of days or weeks. To change the level and return to the Yellow level, it takes several weeks where trends and patterns can be observed that allow us to infer the possible decrease in activity. During this time, if the activity increases, it shows an imminent eruption or the eruption itself occurs. activity level will change to red. Follow us on Google News. Recommended topics. Ruiz Snowy Volcano. Nevado del Ruiz. volcano today. Nevado del Ruiz volcano news. go to comments</t>
+          <t>Home. Atmosphere. 7 May 2023 236 pm. This says the latest report on the state of the Nevado del Ruiz volcano. The Colombian Geological Service reported this Sunday, May 7, that the level of activity of the volcano remains orange. Drafting Environment. 0. Save. Since March 30, an orange alert was declared on the Nevado del Ruiz volcano Photographic archive of the Colombian Geological Service. SGC photo. According to the latest report on the Nevado del Ruiz volcano issued by the Colombian Geological Service SGC, the level of activity remains in orange, the same as since the end of March when the level of activity first rose. According to John Makario Londoño, technical director of geothreats of the SGC, the activity of Nevado del Ruiz yesterday, May 6, and today continues at levels similar to previous days, that is, the general fracture seismicity continues at low levels. some earthquakes are located in the crater itself but with low energy and what persists is the activity related to the fluids, both outflow of gases and ash. He added that the thermal anomalies at the bottom of the crater also continue. The general behavior of the volcano has been consistent with what has been reported in recent weeks. You can also read Nevado del Ruiz Volcano, this is its activity on May 6. The seismicity related to the fracturing of rock within the volcanic edifice was located mainly in the Arenas crater and in the northeastern, eastern, and southeastern sectors of Nevado, at a maximum distance of 2 kilometers from it and with depths between 2 and 6 kilometers. Some of these earthquakes occurred They were related to the activity of the bulge dome or mound of lava located at the bottom of the crater indicated the SGC. The maximum magnitude of earthquakes recorded was 16 corresponding to an earthquake that occurred at 0309 am located 2 km southeast of the volcano and approximately 3 km deep. The maximum height of the column of gases and/or ash observed was 800 meters measured from the top of the volcano, the entity informed. This past Saturday, May 6, the preferential dispersion direction of this column was to the west to the northwest of the volcano. received reports of sightings of various ash emissions from Murillo Tolima and of a slight ash fall in the municipality of Manizales Caldas during the day last Saturday. It may interest you Latin America cannot return to the natural resource extraction cycle Minambiente. On the other hand, the variations in the degassing of sulfur dioxide into the atmosphere also continue with levels similar to those observed in recent days and the release of water vapor from the crater into the atmosphere. All these conditions are consistent with what the SGC has reported during the last weeks, activity of the Nevado del Ruiz volcano continues to be very unstable. Although changes in the intensity of the conditions are observed, this does not mean that the volcano has returned to its normal level of activity reiterated the entity. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Volcano. Nevado del Ruiz. Nevado del Ruiz volcano. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ciencia/volcan-nevado-de-ruiz-este-es-su-estado-el-21-de-abril/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-nevado-del-ruiz-asi-esta-su-actividad-este-6-de-mayo/
 </t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Nevado de Ruiz volcano this is its state on April 21</t>
+          <t>Nevado del Ruiz volcano, this is its activity this May 6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Home. Science. 21 Apr 2023 1150 am. Nevado de Ruiz volcano this is its state on April 21. The volcano's activity continues to be very unstable, says the latest report from the Colombian Geological Service. Drafting Environment. 0. Save. The Nevado del Ruíz volcano is 5321 meters above sea level. Photo Colombian Geological Service. All eyes continue to be on the Nevado del Ruiz volcano, which has been on orange alert for the past few weeks. This means that there is a probability that in the coming days or weeks it will erupt more than it has in the last decade. Read An old NASA satellite fell to Earth over the Sahara desert. The situation has not yet changed much compared to what was reported in previous days The volcano's activity continues to be very unstable according to the latest report from the Colombian Geological Service SGC Its indicators suggest that the alert status must still be maintained, especially in nearby municipalities. Although the seismicity of the fracture can vary and change location, the presence of thermal anomalies in the bottom of the crater greater than those presented in previous months associated with the continuous output of ash are parameters that indicate a higher level of activity of this with Compared to previous weeks, he reiterates in the document Lea The Starship spacecraft explodes in a test flight. In slightly more technical words, the situation is as follows: On the one hand, the seismic activity associated with rock fracturing inside the volcanic edifice maintained a similar behavior in terms of seismic number and energy compared to the previous day, April 19, explains the SGC. On the other hand, the earthquakes were located in the surroundings of the volcano in the western, southwestern, and northeastern sectors at depths between 1 and 6 kilometers. The seismicity related to the movement of fluids inside the volcanic conduits, mainly associated with the release of steam from water and volcanic gases. The Nevado del Ruiz volcano continues to expel a column of gases and ash. Its height was 1,300 meters measured from the top of the volcano. Likewise, the degassing of sulfur dioxide into the atmosphere and thermal anomalies at the bottom of the crater continue. Faced with this, the entity's recommendation is the same as it has been doing in recent days to follow all the instructions of the UNGRD National Unit for Disaster Risk Management and local authorities. Do you want to know the latest news on science? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. Colombian News. science. volcano. Nevado del Ruiz. go to comments</t>
+          <t>Home. Atmosphere. 6 May 2023 1110 am. Nevado del Ruiz volcano, this is its activity this May 6. The seismic activity associated with rock fracturing inside the volcanic edifice showed a decrease in the number of registered earthquakes and in the seismic energy released compared to the previous day. The level of activity remains in orange. Drafting Environment. 0. Save. Image of the Nevado del Ruiz volcano on May 6. SGC photo. According to the latest report from the Colombian Geological Service SGC, the Nevado del Ruiz volcano remains with an orange level of activity, as the institution has reiterated in recent weeks. Between this past Friday, May 5, and the course of this May 6, seismic activity has predominated. related to the movement of fluids inside the volcanic conduits. This activity is also similar to that registered on Thursday, May 4. Some of these signs have been related to pulsatile ash emissions confirmed through the web cameras used for volcanic monitoring, indicated the SGC. You can also read Nevado del Ruiz volcano continues the expulsion of ash in cities like Manizales. On the other hand, the seismic activity associated with rock fracturing inside the volcanic edifice showed a decrease in the number of registered earthquakes and in the seismic energy released compared to what was registered the previous day. This seismicity was located mainly in the Arenas crater and in the east-northeast sector at a maximum distance of 4 kilometers from it, while the depths of the earthquakes ranged between 1 and 6 kilometers. In the course of this Saturday morning until 0830 am, seismicity has occurred in the southeastern sector and the maximum magnitude registered so far has been 16 corresponding to the earthquake registered at 0309 am and located 2 kilometers southeast of the Arenas crater and 35 kilometers deep It may interest you Beware of false theories about high temperatures in Colombia Ideam. During Friday, a maximum height of the column of gases and/or ash of 1200 meters measured from the top of the volcano was observed. The dispersion direction of the column had a preferential direction towards the northwestern sector of the volcano. All these records support what the SGC has been reiterating since the level of activity of the volcano was raised to orange the activity of the Nevado del Ruiz volcano continues to be very unstable It is possible that the levels of seismic activity as well as the levels of degassing or output of ash decrease or are oscillatory in the sense of increasing on some days and decreasing on others. However, this does not mean that the volcano has returned to its normal levels of activity. To change the level and return to the yellow level, a prudential time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity, aspects that the current activity of the volcano still does not show, reported the Service. Meanwhile, the volcano continues with a orange activity level. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Nevado del Ruiz. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/politica/volcan-nevado-del-ruiz-presentan-en-el-congreso-acciones-de-prevencion-ante-posible-erupcion/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/volveran-a-clase-los-alumnos-de-5-colegios-que-estaban-en-casa-por-nevado-del-ruiz-noticias-colombia-hoy/
 </t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Prevention actions are presented in the event of a possible eruption of the Nevado del Ruiz volcano</t>
+          <t>Students from 5 schools that were at home in Nevado del Ruiz will return to class</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Home. Policy. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 20 Apr 2023 945 pm. They present prevention actions against a possible eruption of the Nevado del Ruiz volcano. During a political control debate in Congress, the director in charge of the Risk Management Unit, Luis Fernando Velasco, said that the entity works to sensitize families who must evacuate their homes when they are in a threat zone. Political Writing. 0. Save. Luis Fernando Velasco responds for actions of the Government before alert of the Nevado del Ruíz volcano. UNGRD photo. Luis Fernando Velasco attended a political control debate on Thursday in the Fifth Commission of the House of Representatives, which summoned him to answer for the Government's actions in response to the orange alert generated by the activity of the Nevado del Ruiz volcano. Follow us on Google News. Recommended topics. Policy. news. Columbia today. Today news. Political news. go to comments</t>
+          <t>Home. Atmosphere. 5 May 2023 510 pm. Students from 5 schools that were at home in Nevado del Ruiz will return to class. There were 30 educational centers that attended learning at home because they were in the area of ​​influence of the volcano. As of May 16, five of them will return to face-to-face in the department of Caldas. Drafting Environment. 0. Save. Reference image The five schools belong to the Villamaría municipality in the department of Caldas and a total of 242 students will return to the classroom. Photo Pixabay. Five of the 30 educational centers that are learning at home because they are located in the area of ​​influence of the Nevado del Ruiz volcano will return to face-to-face classes starting next May 16 The five schools belong to the Villamaría municipality in the department of Caldas and in total there will be 242 students who return to classrooms. This was reported by the Secretary of Education of Caldas Diana María Cardona García, who clarified that next week from May 8 to 12, the 30 campuses will continue learning at home while the necessary changes in logistics are coordinated for the delivery of the School Food Program. PAE. At the suggestion of teachers and educational administrators, the review of the location of the headquarters was requested because they considered that some would not be more affected in the event of an eruption, explained the Secretary. The location of each headquarters was verified with information provided by the Headquarters of Risk Management and during a steering committee of the Secretary of Education of Caldas it was concluded that five headquarters will be able to return to face-to-face the Partidas Educational Institution with its main headquarters and its headquarters Pinares, the Colombian Educational Institution with its headquarters in Alto Castillo and Antonio Nariño and the Fortunato Gaviria Educational Institution with its headquarters in Bajo Corozal. This will be from May 16, since we must guarantee the school food service. Also with the recommendation that students and teachers carry face masks, said the official. This Thursday, May 4, the Colombian Geological Service SGC released the latest report on the state of the Nevado del Ruiz volcano, which has been at an orange level of activity since the end of March. According to the entity's bulletin since yesterday, May 3, and during what As of this Thursday, the predominance of seismic activity related to the movement of fluids inside the volcanic conduits continues. This represents a level of seismic activity and energy released similar to that of Monday, May 2. This past Wednesday, the seismic activity associated with the fracturing of rock inside the volcanic edifice also had a behavior similar to that registered on Monday. Recommended topics. Colombian News Today. Columbia today. Nevado del Ruiz. Snowy Ruiz Today. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/nevado-del-ruiz-estos-son-los-ultimos-cambios-reportados-en-el-volcan/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-nevado-del-ruiz-continua-la-expulsion-de-ceniza-en-ciudades-como-manizales/
 </t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz these are the latest changes reported in the volcano</t>
+          <t>Nevado del Ruiz volcano continues the expulsion of ash in cities like Manizales</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 20 Apr 2023 1137 am. Nevado del Ruiz these are the latest changes reported in the volcano. The Colombian Geological Service SGC explained that the predominant seismic activity in the volcano reported yesterday was related to the movement of fluids inside the volcanic conduits. The entity added that there was a slight increase in the number of earthquakes. Drafting Environment. 0. Save. In Murillo, the closest Colombian town to Nevado del Ruiz, its inhabitants live their daily lives normally despite the orange alert. Photo EFE Ernesto Guzman. Since the orange alert was declared in the Nevado del Ruiz volcano, the Colombian Geological Service SGC issues a daily statement in which it reports the latest changes that have been registered. In its most recent bulletin, it assured that the predominant seismic activity in the volcano reported yesterday was related with the movement of fluids inside the volcanic conduits. He also added that it is associated with the emission of gases and ash Lea Nevado del Ruiz, the noises reported in the northern part of the volcano are normal. Regarding seismicity, which is associated with the fracturing of the rock inside the volcanic edifice, the service assured that it showed a slight increase in the number of earthquakes. It was located on the northeastern and southwestern flanks of the volcano at an average distance from the crater of 10 and 30 kilometers respectively pointed out the service. The service also pointed out that the degassing of sulfur dioxide into the atmosphere and of water vapor in the volcano continue and the recording of thermal anomalies at the bottom of the crater which are observed from satellite monitoring platforms. He also reported that on Wednesday, April 19, the Colombian Air Force FAC carried out an overflight around the crater and at this moment the information obtained is being analyzed and processed and as soon as the results are available they will be reported. You can read The planned coal mines in Colombia will raise the methane emissions. Through its Twitter account, the service also explained that it is possible to determine if the probability of an eruption is greater or lesser and approximately estimate its magnitude. This can be achieved thanks to permanent monitoring and the knowledge left by past eruptions such as that of 1985 1989 and 2012. It should be remembered that the volcano's activity is still very unstable and that it will remain on orange alert for the next few weeks It may interest you This could cost Colombia to eradicate the hippos. We know that many people are interested in learning more about the change of activity level to ORANGE of the Nevado del Ruiz volcano. That is why we have prepared for you answers to the 5 most frequently asked questions on our social networks. We open thread. Colombian Geological Service sgcol April 19 2023. Do you want to know the latest news about the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Nevado del Ruiz volcano. go to comments</t>
+          <t>Home. Atmosphere. 5 May 2023 1221 pm. Nevado del Ruiz volcano continues the expulsion of ash in cities like Manizales. The authorities continue with the unified command posts to monitor the situation of the volcano, evaluate the progress of the evacuation of families, improvement of roads, among other aspects. This says the most recent bulletin on the activity of Nevado del Ruiz. Drafting Environment. 0. Save. The column of gases and ash reached a height of 1400 meters EFE Ernesto Guzmán. Photo EFE Ernesto Guzman. The seismic activity of the Nevado de Ruiz volcano had an increase compared to the levels registered on May 3, according to the most recent bulletin of the Colombian Geological Service SGC corresponding to May 4. According to the institution, the seismicity was located mainly at distances between 2 and 5 km from the Arenas crater and in the crater itself. At around 314 in the afternoon, an earthquake of 22 was registered in the sector of La Cabaña, municipality of Casabianca, Tolima, Lea Los lonely watchmen of Nevado del Ruiz, the most feared volcano in Colombia. The seismic activity related to the movement of fluids inside the volcanic conduits continues to predominate in the Ayer 4 de Mayo volcano and so far today this seismicity has presented a similar behavior in terms of the number of earthquakes and seismic energy released. compared to the previous day indicated the SGC. This situation is related to the emission of ash. In fact, the maximum height of the column of gases and/or ash observed yesterday was 1400 meters measured from the top of the crater. This morning there are reports in Villamaría and Manizales It may interest you Volcano de Fuego in Guatemala increased its eruptive activity. The SGC reiterated that due to these anomalies, the activity of the Nevado del Ruiz volcano continues on orange alert, which indicates that there is a probability that in days or weeks it will erupt more than it has in the last 10 years. For its part, the National Unit for Disaster Risk Management UNGRD created a new unified command post in which technical entities, territorial and national entities, control agencies, the Army and the Police participated. Lina Dorado, leader of disaster risk management of the Colombian Red Cross, announced the execution of 100% of the FIC Collective Investment Fund for more than 200 million in the purchase of telecommunications equipment to strengthen this network. Recommended topics. Nevado del Ruiz volcano. Nevado del Ruiz. Nevado del Ruiz volcano 2023. News today. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ciencia/no-se-deje-confundir-por-la-imagen-de-una-supuesta-grieta-en-el-volcan-nevado-de-ruiz-noticias-hoy/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/los-solitarios-vigias-del-nevado-del-ruiz-el-volcan-mas-temido-de-colombia/
 </t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Do not be confused by the image of a supposed crack in the Nevado del Ruiz</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Home. Science. 19 Apr 2023 1217 pm. Do not be confused by the image of a supposed crack in the Nevado del Ruiz. These days an image of an alleged crack that the Nevado del Ruiz volcano has has circulated, but part of the information with which they have presented it is false. For the moment, the orange alert is maintained. Writing Science. 0. Save. Photograph of the Nevado del Ruiz volcano Colombian Geological Service. Photo EFE Colombian Geological Service Colombian Geological Service. These days an image has circulated in which a kind of huge crack is observed in the Nevado del Ruiz volcano. In social networks, some users have associated it with the current activity of the volcano, generating alarm among the residents Read A tragedy and a huge effort like this we learned to know our volcanoes. However, as the Colombian Geological Service SGC explained, it is not a crack but a wall corresponding to the limit of a crystallized lava body, a feature that this volcano has had for years and that is not related to its current activity. This feature becomes more or less visible depending on the amount of snow and ice present at each moment of the year, clarifies the SGC This is the photograph that has circulated on the internet. At the moment, according to the last bulletin of the entity, the activity of the volcano continues to be very unstable and therefore the orange level is maintained, indicating that there is a probability that in the coming days or week there will be a greater eruption than those expected. have presented in the last 10 years. Although the seismicity of the fracture can vary and change location, the presence of thermal anomalies in the bottom of the crater greater than those presented in previous months associated with the continuous output of ash are parameters that indicate a higher level of activity of this with compared to previous weeks ensures the SGC. According to the statement issued on April 19, the seismic activity of the volcano was related to the movement of fluids inside the volcanic conduits and associated with the emission of gases and ash. This seismicity presented an increase compared to the previous day, April 18, he says. However, the seismicity record associated with rock fracturing inside the volcanic edifice showed a slight decrease in the number of earthquakes. On the other hand, the maximum height of the column of gases was 600 meters measured from the top of the volcano. There was also degassing of sulfur dioxide into the atmosphere and of water vapor in the volcano. The emission of ash with a column that reached 1800 m measured from the top of the volcano. The SGC's recommendation is to follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities. Do you want to know the latest news on science? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. Colombian News. Nevado del Ruiz volcano. state of the nevado del ruiz volcano. go to comments</t>
-        </is>
-      </c>
+          <t>The lonely lookouts of Nevado del Ruiz, the most feared volcano in Colombia</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/la-red-zoocial/familias-cercanas-al-nevado-del-ruiz-recibiran-250-toneladas-de-alimento-para-animales-noticias-hoy/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-nevado-del-ruiz-este-es-su-estado-el-4-de-mayo/
 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Families near Nevado del Ruiz will receive 250 tons of animal feed</t>
+          <t>Nevado del Ruiz volcano this is its state on May 4</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Home. The Zoo Network. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 18 Apr 2023 332 pm. Families near Nevado del Ruiz will receive 250 tons of animal feed. The Government of Tolima, through the Secretary of Agricultural Development and Food Production, delivered balanced food for the livelihood of livestock as part of the strategies to support families that may be affected by a possible eruption of the volcano. The Zoo Network. 0. Save. AME9352 MURILLO COLOMBIA 06042023 Work is being done on the realization of a Livestock Round so that the families of this region can sell the cattle that are ready for consumption Reference photo. Photo EFE Ernesto Gúzman Jr. In the municipality of Murillo fifteen tons of concentrate began to be delivered to 68 cattle families whose farms are located in the area of ​​influence of the Nevado del Ruiz volcano. This after it was warned that the seismic activity of this mountain still continues on orange alert as reported by the Colombian Geological Service SGC. Follow us on Google News. Recommended topics. The Zoo Network. Animals. Pets. Ranchers. Nevado del Ruiz. Go to comments. The most viewed in Dogs. Dogs. How to know the age of an adopted or rescued dog This is how you can calculate it. 21 hours ago. Dogs. Not for animal abuse Perrita was found with injuries in a Transmilenio. 23 hours ago. The Zoo Network. Guardians of the Galaxy was awarded for raising awareness about animal abuse. 10 May 2023 953 am</t>
+          <t>Home. Atmosphere. 1. You can still read 1 more article Create your account right now and enjoy 10 free monthly content. Creat your account. 4 May 2023 1103 am. Nevado del Ruiz Volcano this is its state on May 4th. The Colombian Geological Service reported that the orange level of activity is maintained and that it could remain for several more weeks. Drafting Environment. 0. Save. The Nevado del Ruíz volcano is 5321 meters above sea level. Photo Colombian Geological Service. This Thursday, May 4, the Colombian Geological Service SGC released the latest report on the state of the Nevado del Ruiz volcano, which has been at an orange level of activity since the end of March. According to the entity's bulletin since yesterday, May 3, and during what As of this Thursday, the predominance of seismic activity related to the movement of fluids inside the volcanic conduits continues. This represents a level of seismic activity and energy released similar to that of Monday, May 2. This past Wednesday, the seismic activity associated with the fracturing of rock inside the volcanic edifice also had a behavior similar to that registered on Monday. You can also read Lahars to those who referred to by the Geological Service are different from those of Ideam. The SGC reported that the earthquakes were located mainly in the Arenas crater and in the northeastern sector of the volcano at distances between two and four kilometers from it. The depths of the earthquakes oscillated in turn between two and five kilometers. The maximum height of the column of gases and/or ash observed on May 3 was 1400 meters measured from the top of the volcano The dispersion of the column was directed towards the northwestern sector of the volcano There is also a report of ash fall in the municipality from Neira Caldas You may be interested in Having many more electric cars, a promise that is not so easy to fulfill in Colombia. These indicators together ratify what the SGC has reiterated since the level of activity of the volcano changed, the activity of Nevado del Ruiz continues to be very unstable And although it is possible that the levels of seismic activity as well as the levels of degassing or ash output may decrease or they are oscillatory in the sense of increasing on some days and decreasing on others, this does not mean that the volcano has returned to its usual levels of activity. For this reason, we reiterate that the activity of the Nevado del Ruiz volcano continues at an orange level, which indicates that there is a probability that in days or weeks it will erupt more than it has in the last 10 years, indicated the SGC. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Ruiz volcano. Nevado del Ruiz. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/nevado-del-ruiz-son-normales-los-ruidos-reportados-en-la-parte-norte-del-volcan/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/la-actividad-del-volcan-del-ruiz-en-lo-que-va-de-la-semana/
 </t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz the noises reported in the northern part of the volcano are normal</t>
+          <t>The activity of the Ruiz volcano so far this week</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 18 Apr 2023 249 pm. Nevado del Ruiz noises reported in the northern part of the volcano are normal. The Colombian Geological Service SGC clarified that there is no need to panic since this phenomenon is common within a volcano that is degassing and regularly emits ash as is the case of Nevado del Ruiz. Drafting Environment. 0. Save. Seismic activity continues inside the Nevado del Ruiz volcano. SGC photo. In the bulletin published on the morning of this Tuesday, April 18, by the Colombian Geological Service SGC and the Ministry of Mines and Energy, there was a piece of information that drew the attention of several of the inhabitants of the Sifón sector located about seven kilometers northeast of the crater. reported noises during the early hours of Monday Read This is the state of the Nevado del Ruiz volcano on Tuesday, April 18. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Nevado del Ruiz volcano. Go to comments. The most viewed in Environment. Atmosphere. Ash emission from the Nevado del Ruiz volcano reached a height of 2000 meters. 10 May 2023 1217 pm. Atmosphere. Caldas will invest to improve the alert system in the area near Nevado del Ruiz. 16 hours ago. Atmosphere. Up to half the world could be in a different climate zone by 2100. 21 hours ago</t>
+          <t>Home. Atmosphere. 3 May 2023 1045 am. The activity of the Ruiz volcano so far this week. The Colombian Geological Service reported that the level of activity of the volcano remains at the orange level. Drafting Environment. 0. Save. This is what the Nevado del Ruiz volcano looked like on the morning of yesterday, May 2. Photo Colombian Geological Service. According to the Colombian Geological Service SGC, since yesterday May 2 and so far this Wednesday in Nevado del Ruiz, the predominance of seismic activity related to the movement of fluids inside the volcanic conduits continues, so that it presents a Behavior similar to that of May 1 in the number of earthquakes and a slight increase in seismic energy, which has been associated with ash emissions that have been confirmed with web cameras. Read Cop28 will be the first climate summit to include health on its agenda. Yesterday's earthquakes were located at an average distance of 2 kilometers south and southeast of the Arenas crater at depths between 2 and 4 km. The maximum magnitude was 12 corresponding to the earthquake registered at 1201 am about 2 km southeast of the crater Arenas and 4 km deep. In addition, the maximum height of the column of gases and/or ashes registered yesterday was 3000 meters. The SGC points out that all these indicators confirm what we have reiterated. The activity of the Nevado del Ruiz volcano continues to be very unstable. It is possible that the levels of seismic activity, as well as the levels of degassing or ash output, may decrease or be oscillating in the direction of increasing. some days and decrease others. Read They seek to rescue the most important swamp in Barranquilla but plans are not convincing. The level of activity of the Ruiz volcano remains at the orange level. For the activity to return to the yellow level, explains the SGC, a reasonable time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity, aspects that are still current Volcano activity does not show. Lea Construction began on a 157-hectare natural park in Antioquia. Both the SGC and other entities have reiterated the call on the communities to remain calm and follow the instructions of the National Unit for Disaster Risk Management UNGRD Also to obtain information through official channels. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Nevado del Ruiz volcano. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/martes-18-de-abril-este-es-el-estado-del-volcan-nevado-del-ruiz/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-nevado-del-ruiz-esto-dice-el-ultimo-reporte-sobre-nivel-de-actividad/
 </t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>This is the state of the Nevado del Ruiz volcano on Tuesday, April 18</t>
+          <t>This says the latest report on the level of activity of the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 18 Apr 2023 1121 am. This is the state of the Nevado del Ruiz volcano on Tuesday, April 18. According to the Colombian Geological Service SGC, the activity of the volcano continues to be very unstable. Some inhabitants of the sector reported noises, something that is completely normal. Drafting Environment. 0. Save. The Nevado del Ruiz 5321 masl is the third largest in the country after the Sierra Nevada de Santa Marta and the Nevado del Huila. Photo Archive private. The latest bulletin published by the Colombian Geological Service on the status of the Nevado del Ruiz volcano shows that, as has happened in previous days, the activity continues to be very unstable Lea Nevado del Ruiz volcano was included in the Natural Disaster Situation decree. According to this entity, the data collected up to this April 18 indicate a higher level of activity of the volcano compared to previous weeks. One of the parameters they analyzed has to do with the seismic activity associated with fracturing of rock inside the volcanic edifice, which showed a slight increase in the number of earthquakes compared to April 17. This type of seismicity continues, mainly characterized by the occurrence of small earthquakes located in the Arenas crater, which are associated with the activity of the bulge dome or lava mound located at the bottom of the crater, explains the SGC. According to the report, the seismicity located to the southwest of the volcano also presented low energy levels and remained at an average distance of 40 km from the crater. Likewise, sulfur dioxide continues to flow into the atmosphere and the degassing of the volcano. The dynamics of the gases inside the volcano have shown some changes, as evidenced by the seismic signals. Additionally, there are inhabitants in the Sifón sector, about 7 km northeast of the crater. they reported noises at dawn yesterday says the SGC This phenomenon clarifies that it is very common within a volcano that is degassing and that regularly emits ash such as Nevado del Ruiz. Another of the parameters that the Geological Service is analyzing is the movement of fluids inside the volcanic conduits and the emission of ash. The maximum height of the column of gases and/or ash was 1800 meters, measured from the top of the volcano. That fact It was associated with the ash emission on April 18 at 0711 am. As you have said on other occasions, due to this panorama, the orange level of the volcano remains. In other words, it means that there is a greater probability that in the coming days and weeks there will be a larger eruption than the one that has occurred in the last decade. In the event that there is an acceleration of the processes that suggest an imminent eruption or that the eruption occurs, the activity level will change to red, notes the SGC. His main recommendation is to remain calm, follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz. volcano. Nevado del Ruiz volcano. go to comments</t>
+          <t>Home. Atmosphere. 2 May 2023 946 am. This says the latest report on the level of activity of the Nevado del Ruiz volcano. According to the Colombian Geological Service, the level of activity of the volcano remains orange. Drafting Environment. 0. Save. This is what the Nevado del Ruiz volcano looked like on the morning of this Tuesday, May 2. Photo Colombian Geological Service. According to the monitoring bulletin of this Tuesday, May 2, at the Nevado del Ruiz volcano, there was a slight increase in seismic activity associated with rock fracturing within the volcanic edifice. These earthquakes were located at an average distance of 2 kilometers to the south and southeast of the Arenas crater at depths of between 3 and 4 km At 343 pm an 18 magnitude earthquake occurred, being the largest registered for Monday, May 1. You can read UNGRD recommended immediately evacuating areas near the Nevado del Ruiz crater. According to the Colombian Geological Service SGC, the seismic activity related to the movement of fluids inside the volcanic conduits has shown an increase in the seismic energy released between Monday and Tuesday compared to Sunday, April 30. On the other hand, the SGC highlighted an ash column recorded on Tuesday morning since it reached a height of 3000 meters and had a northwesterly direction. It may interest you The largest reintroduction in history extinct snails return to their habitat. Both due to the above conditions as well as the degassing of sulfur dioxide into the atmosphere and the thermal anomalies at the bottom of the crater, the SGC points out that the activity of the Nevado del Ruiz volcano continues to be very unstable, therefore the level of activity remains in orange level. It should be remembered that this level of activity indicates that there is a probability that in days or weeks the volcano will erupt more than it has in the last 10 years. However, the SGC has been emphatic in pointing out that this is a probability at least that it is also possible that the level of activity decreases and returns to the yellow activity level. You can also read Lahars that the Geological Survey refers to are different from those of Ideam. For the latter to happen, explains the entity, a prudential time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity, aspects that the current activity of the volcano still does not show. Both the SGC and other entities have reiterated the call to the communities to remain calm, follow the instructions of the UNGRD National Unit for Disaster Risk Management and be attentive to the information that is published through official channels. Recommended topics. Nevado del Ruiz volcano. Nevado del Ruiz. Volcano. Volcano eruption. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/estos-son-los-ultimos-cambios-registrados-en-el-volcan-nevado-del-ruiz/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/actividad-del-volcan-del-ruiz-sigue-siendo-inestable-y-permanece-en-alerta-naranja/
 </t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>These are the last changes registered in the Nevado del Ruiz volcano</t>
+          <t>Activity of the Ruiz volcano remains unstable and remains on orange alert</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 17 Apr 2023 1032 am. These are the last changes registered in the Nevado del Ruiz volcano. Compared to the previous day, the seismic activity associated with the fracturing of the rock inside the volcanic edifice showed a slight increase. The orange level is maintained. Drafting Environment. 0. Save. The activity of the volcano is still very unstable. Photo ivanchofr. The latest bulletin from the Colombian Geological Service SGC on the Nevado del Ruiz volcano indicates that there have been some variations compared to the activity that has occurred in previous days. The seismic activity associated with the fracturing of rock inside the volcanic edifice showed on Sunday, December 16. April a slight increase in the number of earthquakes. According to the SGC, this type of seismicity was mainly characterized by the occurrence of small earthquakes located in the Arenas crater, which are associated with the activity of the bulge dome or mound of lava located at the bottom of the crater. The seismicity that is located to the southwest of the volcano also presented low energy levels and remained at an average distance from the crater of 50 km. In slightly simpler words, these indicators indicate that the activity of the volcano, which must be constantly monitored, continues to be very unstable. For this reason, the activity continues at an orange level, which means that there is a greater probability that in the next few days or week make a larger eruption than it has done in the last 10 years You can also read Nevado del Ruiz volcano was included in the Natural Disaster Situation decree. To change the level and return to the yellow level, a reasonable time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity, explains the SGC. According to this entity, the seismicity related to the movement of fluids inside the volcanic conduits and associated with the emission of ash has also continued. The maximum height of the column of gases and/or ash observed was 1100 m measured from the top of the volcano with a direction of predominant dispersion towards the northwest is read in the last bulletin. Likewise, thermal anomalies have continued at the bottom of the crater, which are observed from satellite platforms. Faced with this situation a few days ago, the Risk Management Unit presented the strategy so that the five municipalities that are in the greatest threat in the event of an eruption can carry out an evacuation. However, there are 22 municipalities in four departments that are in a state of high threat. On the part of Tolima, the department that declared a public calamity earlier this month, there are 14 municipalities: Ambalema Armero, Casabianca, Falan, Fresno, Herveo, Honda, Lérida, Líbano, Murillo, Palocabildo, San Sebastián de Mariquita, Venadillo, and Villahermosa. . In Caldas Anserma Chinchiná Manizales Neira Palestina and Villamaría are the municipalities with the highest risk. While in Cundinamarca there is Guagudas and in Risaralda Santa Rosa de Cabal. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Ruiz Snowy Volcano. go to comments</t>
+          <t>Home. Atmosphere. 28 Apr 2023 1141 am. Ruiz volcano activity remains unstable and remains on orange alert. The Colombian Geological Service confirmed that the activity of the volcano continues to be unstable, so the levels of seismic activity can increase on some days and decrease on others. Drafting Environment. 0. Save. For the level of the volcano to change and return to yellow, a prudent time is required in which trends and patterns can be observed to infer the possible decrease in activity. Photo AFP HANDOUT. The follow-up to Nevado de Ruiz carried out by the Colombian Geological Service SGC recorded that yesterday the seismic activity of the volcano associated with the fracturing of rock inside it decreased compared to April 26. The earthquakes were located mainly in the northwestern, northeastern, eastern and southern sectors of the volcano at depths between 1 and 6 km. Read It was believed to be extinct but the jaguar reappeared in the Cravo Sur Casanare river. Regarding the seismic activity related to the movement of fluids inside, the SGC reported that it showed seismic energy levels similar to those of April 26, activity associated with ash emissions that were confirmed through the web cameras used for monitoring. The maximum recorded height of gases or ashes was 1800 meters from the top of the volcano and its dispersion was towards the northwest. Read The dogs that are causing a serious problem in Colombia. According to the SGC, the activity of the Nevado del Ruiz volcano continues to be very unstable. It is possible that the levels of seismic activity as well as the levels of degassing or ash output may decrease or be oscillating, so they could increase on some days and decrease on others. Lea Asia also experiences record temperatures in April 43 C. For the level of the volcano to change and return to yellow, explains the SGC, a prudent time is required in which trends and patterns can be observed to infer the possible decrease in activity, so The entity clarifies that the orange level will remain for a few more weeks. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Ruiz Snowy Volcano. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/este-es-el-estado-del-volcan-nevado-del-ruiz-al-16-de-abril/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/bibo/union-europea-brinda-ayuda-a-la-poblacion-afectada-por-el-volcan-nevado-del-ruiz-noticias-hoy/
 </t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>This is the state of the Nevado del Ruiz volcano on April 16</t>
+          <t>European Union provides aid to the population affected by the Nevado del Ruiz volcano</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 16 Apr 2023 951 am. This is the state of the Nevado del Ruiz volcano on April 16. The Colombian Geological Service assured that the seismicity related to the movement of fluids inside the volcanic conduits continues. Drafting Environment. 0. Save. Image of the Nevado del Ruiz volcano. Photo ivanchofr. This April 16, the Colombian Geological Service SGC issued a new statement that shows the status of the Nevado del Ruiz volcano According to the entity, the activity continues to be very unstable, which is why the orange level must be maintained Read A tragedy and a huge effort like this we learned to know our volcanoes. As the SCG explains, this level indicates that it is likely that in days or weeks the volcano will erupt more than it has in the last 10 years. To change the level and return to the yellow level, a reasonable time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity added in the bulletin. In the event that there is an acceleration of the processes that indicate that there may be an imminent eruption, the level of activity will be changed to red. In this case, all the plans will be activated to avoid a tragedy. In fact, a few days ago, President Gustavo Petro signed the extension Decree 2113 of 2022 with which the National Disaster Situation was decreed last November to include the Nevado del Ruiz volcano. According to the SGC, the seismic activity associated with rock fracturing inside the volcanic edifice maintained similar levels compared to the previous day, April 14. The earthquakes, the statement read, were located in the eastern-northeast and southwest sectors of the volcano and in the Arenas crater. at depths between 05 and 45 km. The maximum magnitude was 08 corresponding to the 1249 am earthquake located 11 km east-northeast of the crater at a depth of 36 km added. Seismicity related to the movement of fluids inside the volcanic conduits associated with pulsatile ash emissions has also continued. Thanks to web cameras used to monitor the volcano, this fact could be confirmed. The maximum height of the column of gases and/or ash was 1600 meters. Likewise, the SGC details that thermal anomalies continue at the bottom of the crater and there is still an output of sulfur dioxide into the atmosphere at levels similar to those of previous days. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. volcano. Nevado del Ruiz. Nevado del Ruiz volcano. go to comments</t>
+          <t>Home. Atmosphere. BIBO. 27 Apr 2023 418 pm. The European Union provides aid to the population affected by the Nevado del Ruiz volcano. The organization's economic aid is aimed at equipping water filters, first aid equipment, and individual protection in departments at risk from volcanic activity. European Union. 0. Save. The maximum recorded height of gases or ashes was 1800 meters from the top of the volcano. SGC photo. In view of the increased seismic activity related to the Nevado del Ruiz volcano, which has threatened some 60,000 people since March 24, the European Union EU will provide more than one billion Colombian pesos EUR 200,000 of humanitarian funding to support families who they have been forced to leave their homes and ensure greater preparation for the most exposed communities. This EU funding will help the Colombian Red Cross to provide emergency services in the departments of Caldas, Tolima, Cundinamarca, Risaralda and Quindío. Lea Volcán del Ruiz continues on orange alert and its activity remains unstable. The funding will help the Red Cross to position essential equipment such as water filters, first aid kits and personal protective equipment in preparation for emergencies in five different departments. The Red Cross will also hold community workshops on early warning systems and train volunteers In addition, cash aid will be granted to families who have been forced to abandon agricultural work due to the emergency. The aid will directly benefit 16,647 people in the most affected areas. Priority will be given to families with vulnerable members. The High Representative of the European Union and Vice President of the European Commission Josep Borrell declared Thanks to this humanitarian aid from the EU we will guarantee security and support affected communities Disaster preparedness is a key component of EU aid in the Americas Latin America and the Caribbean, which is a region very prone to natural hazards Read The reason why elephant seals dive to take short naps. European Commission Commissioner for Crisis Management Janez Lenarčič says The global humanitarian landscape is severely affected by natural disasters giving rise to sudden emergencies with dire consequences This is why the EU's humanitarian commitment must go further of post-crisis aid With this new funding channeled through the Colombian Red Cross we are reinforcing the local response capacity in the areas close to the Nevado del Ruiz volcano through anticipatory action, a key component of our projects that will allow us to save lives and contain damage. The funding is part of the overall EU contribution to the International Federation of Red Cross and Red Crescent IFRC Disaster Response Emergency Fund DREF. Recommended topics. Nevado del Ruiz volcano. Nevado del Ruiz. Colombian volcano. volcano today. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ciencia/asi-aprendimos-a-entender-a-nuestros-volcanes/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-del-ruiz-continua-en-alerta-naranja-y-su-actividad-sigue-siendo-inestable/
 </t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>A tragedy and a huge effort, so we learned to know our volcanoes</t>
+          <t>Ruiz Volcano continues on orange alert and its activity remains unstable</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Home. Science. 16 Apr 2023 850 am. A tragedy and a huge effort so we learned to know our volcanoes. In recent weeks, the country has been attentive to the Nevado del Ruiz volcano, which already caused a catastrophe in 1985, an episode that prompted the study of volcanoes in Colombia. Today we know them in great detail thanks to the efforts of a network of scientists who continued the work from pioneers like Marta Calvache Thanks to them we have a robust monitoring system and solid foundations to prevent disasters. Daniela Quintero Diaz. Environment Journalist. 1. Save. Expeditions of the first volcanologists in Colombia From left to right Federman Trujillo Marta Calvache Jairo Luis Socarras and Stanley Williams Forward Jaime González Díaz. Photo Courtesy Colombian Geological Service. Usually, when scientists are asked why they studied what they studied, their answers usually have background words such as curiosity or fascination for bugs or elements that few seem to attract their attention. Their anecdotes spread the desire to solve difficult questions that end up becoming almost an obsession. By Daniela Quintero Diaz. DanielaQuinterddquinterodelespectadorcom. Follow us on Google News. Recommended topics. News today. Colombian News. volcanoes. volcano. Nevado del Ruiz. go to comments</t>
+          <t>Home. Atmosphere. 27 Apr 2023 1035 am. Ruiz Volcano remains on orange alert and its activity remains unstable. The Colombian Geological Service confirmed that the activity of the volcano continues to be unstable, so the levels of seismic activity can be oscillating, that is, they increase one day and decrease another. Drafting Environment. 0. Save. Since March 30, an orange alert was declared on the Nevado del Ruiz volcano Photographic archive of the Colombian Geological Service. SGC photo. According to the follow-up to Nevado de Ruiz advanced by the Colombian Geological Service SGC, yesterday the seismic activity of the volcano associated with the fracturing of rock inside it increased compared to April 25. The earthquakes were located mainly in the northeastern and eastern sectors of the volcano at depths between 2 and 35 km It may interest you The coral that suffocates reefs in Venezuela and threatens the Caribbean. Regarding the seismic activity related to the movement of fluids inside, the SGC reported that it showed seismic energy levels similar to those of April 25, activity associated with ash emissions that were confirmed through the web cameras used for monitoring. The maximum recorded height of gases or ashes was 1,800 meters from the top of the Lea volcano. Without climate change, the Horn of Africa would not be experiencing its worst drought. Extraordinary activity bulletin for the Nevado del Ruiz volcano April 27, 0950 The level of activity continues at ORANGE httpstco6pk9bs0WmSSGCVolcanoes pictwittercomgEOX9XcRev. Servicio Geológico Colombiano sgcol April 27 2023. The SGC also pointed out that both important thermal anomalies continue at the bottom of the crater, as well as the degassing of sulfur dioxide into the atmosphere and the release of water vapor from the volcano, thus confirming that the The volcano's activity continues to be unstable so that the levels of seismic activity can be oscillating, that is, they can continue to increase one day and decrease another Lea First lion seen in Chad after 20 years of absence. As explained by the SGC, for the level of the volcano to change and return to yellow, a prudent time is required in which trends and patterns can be observed to infer the possible decrease in activity, so the entity clarifies that the orange level will remain for some weeks more. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Nevado del Ruiz volcano. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/la-actividad-del-volcan-nevado-del-ruiz-sigue-siendo-muy-inestable-sgc-2/
+          <t xml:space="preserve">https://www.elespectador.com/ambiente/actividad-del-ruiz-sigue-en-naranja-sismos-aumentaron-respecto-al-domingo/
 </t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>The activity of the Nevado del Ruiz volcano continues to be very unstable SGC</t>
+          <t>Ruiz activity continues in Naranja earthquakes increased compared to Sunday</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 15 Apr 2023 1046 am. The activity of the Nevado del Ruiz volcano continues to be very unstable SGC. According to the Colombian Geological Service, the volcano's activity continues at an orange level. Drafting Environment. 0. Save. Image of the Nevado del Ruiz volcano taken a couple of years ago. Photo ivanchofr. After President Gustavo Petro signed the expansion of decree 2113 of 2022 with which the National Disaster Situation was decreed last November to include the Nevado del Ruiz volcano, the Colombian Geological Service SGC warned that the volcano's activity continues to be unstable. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Nevado del Ruiz. Go to comments. Links sponsored by Taboola. It may interest you. Former diabetic from Bogotá tells how to maintain glucose at 85. Diabetes secret revealed. Sophistication at your feet Premium leather tennis shoes. VLZ PREMIUM. This trick melts belly fat even if you eat everything. Emag. Military glasses arrive in Colombia for less than 140,000 and become a fever among drivers. Tips And Recommendations. Why luxury villas in Dubai are so cheap See Prices. Villas in Dubai Sponsored Links. Bogotá calculate how much you could earn by investing in Amazon CFDs. Daily Markets. Take advantage of the seasonal prices to buy a gift for mom at the Santafé Shopping Center. Audi Q3 Sportback Bonus of 3,000,000 with Porsche Mobility and allies TC apply. by Taboola. Sponsored links. It may interest you. The Shiveluch volcano in Russia has erupted. The viewer. Wrinkles and spots You can follow this simple advice. Health Portal. The most sought after European sneakers at prices never seen before. Verified Store</t>
+          <t>Home. Atmosphere. 25 Apr 2023 946 am. Ruiz activity continues in Naranja earthquakes increased compared to Sunday. The maximum magnitude reported by the SGC was 17 corresponding to the earthquake at 0535 pm on Monday located 41 km to the east of the crater and 32 km deep. This earthquake was reported as felt by inhabitants in the Lagunilla river canyon. Writing Science. 0. Save. View of Ruiz from Cerro Guali Colombian Geological Service. Photo Colombian Geological Service. The Colombian Geological Service SGC continues to monitor the activity of the Nevado del Ruiz volcano. In its report today, the entity informs that during this April 24 and so far today the seismic activity related to the movement of fluids inside the The volcanic conduits showed an increase in seismic energy compared to the previous day, April 23, and has been associated with several ash emissions that were confirmed through the web cameras used for volcanic monitoring. In fact, the maximum height of the column of gases and/or ash observed was 2200 m measured from the top of the volcano. The associated seismicity of rock fracturing inside the volcanic edifice also increased, recording localized movements in the northeastern and southwestern eastern sectors of the volcano as well as in the Arenas crater at depths between 1 and 5 km. The indicators confirm what the SGC has reiterated, the activity of the Nevado del Ruiz volcano continues to be very unstable. You can see First close-up images of a little-known moon of Mars Deimos. The activity of the Nevado del Ruiz volcano continues in Orange To change the level and return to the yellow level, a reasonable amount of time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity. While this does not occur, the most important recommendation is to continue according to the information of the SGC and the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities. The Government of Caldas, for example, is publishing a daily status of the roads that could be affected in an emergency related to the volcano. The entity reports that the Ministry of Mobility is improving some critical sites in order to guarantee passability on roads that could be needed and are listed as evacuation routes. Recommended topics. Snowy situation of Ruiz. Nevado del Ruiz. Ruiz snow-capped crater. Nevado del Ruiz eruption. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-nevado-del-ruiz-fue-incluido-en-el-decreto-de-situacion-de-desastre-natural/
+          <t xml:space="preserve">https://www.elespectador.com/ciencia/comportamiento-del-volcan-del-ruiz-sigue-siendo-inestable-actividad-se-monitorea/
 </t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nevado del Ruiz volcano was included in the Natural Disaster Situation decree</t>
+          <t>Behavior of the Ruiz volcano continues to be unstable activity is monitored</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Home. Atmosphere. 14 Apr 2023 750 pm. Nevado del Ruiz volcano was included in the Natural Disaster Situation decree. President Gustavo Petro signed the inclusion of this situation in the decree that gives him powers to dispose of resources for risk management in the event of an eventual eruption. Writing Science. 0. Save. Seismic activity continues inside the Nevado del Ruiz volcano. SGC photo. This April 13, President Gustavo Petro signed the extension of Decree 2113 of 2022 with which the National Disaster Situation was decreed last November to include the Nevado del Ruiz volcano. It may interest you These are the municipalities in high threat due to activity of the Nevado del Ruiz volcano. With this expansion, it is contemplated to have the resources of the Colombia Vital sub-account of the National Risk Management Fund for the affectations that have been generated up to now by the orange alert situation in the Nevado del Ruiz volcano as well as for the actions that should take before an eventual eruption. The National Disaster Situation had been decreed on November 1 due to the havoc caused by the La Niña phenomenon in different parts of the country. Now, after the announcement of the Colombian Geological Service SGC on March 30, the alert level for the activity of the volcano changed to orange and it was decided to include this situation in the decree. The four departments that are in the threat zone of the Caldas Tolima Quindío and Risaralda volcano have started working on emergency plans and have declared a public calamity. President Gustavo Petro also ordered on April 5 to evacuate 2,500 families living near the crater of the volcano You can also read Government presents evacuation routes before possible eruption of the volcano. However, there is still no certainty about the number of families that have evacuated in all the areas where the public calamity has been declared. The evacuation is being led by territorial authorities and there have been difficulties among them that the families refuse to evacuate. . The resources available to the presidency would be used to facilitate and promote evacuations, coordination, alert systems, training, equipment, reserve centers, shelters, training and drills necessary in the event of an emergency, as well as to reduce the risk arising from the activity of the volcano. We recommend it This is how you take the pulse of Nevado del Ruiz. The SGC has been emphatic that the activity inside the volcano has been unstable but that it is not possible to predict if there will be an eruption or when it will occur. Hence the importance of paying attention to the indications of the National Unit for Risk Management of UNGRD Disasters about evacuation routes and recommendations in case of a possible emergency. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Ruiz Snowy Volcano. Colombian Geological Service. go to comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.elespectador.com/la-red-zoocial/nevado-del-ruiz-descartan-evacuacion-de-ganado-en-municipios-del-tolima-noticias-hoy/
-</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Nevado del Ruiz rules out cattle evacuation in Tolima municipalities</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Home. The Zoo Network. 14 Apr 2023 605 pm. Nevado del Ruiz rule out cattle evacuation in Tolima municipalities. The Tolima ranchers assure that moving the animals would considerably affect production and would cause wear and tear on bovines in the region. The Zoo Network. 0. Save. The decision to leave the cattle in the area of ​​influence was made after listening to the requests of the community and the productive sectors. Photo AFP JOAQUIN SARMIENTO. The seismic activity of the Nevado del Ruiz volcano continues on orange alert, as reported by the Colombian Geological Service SGC Given the risk of a possible eruption, local authorities continue to implement measures to protect people, domestic animals, livestock and wildlife that reside in the Departments of influence of the volcano. Read After the death of a renowned animal lover, 27 puppies are looking for homes in Antioquia. The Vice Minister of Agricultural Affairs Luis Alberto Villegas reported that in the last hours the evacuation of animals, especially cattle found in the municipalities closest to the snow-capped mountain, has been ruled out in the department of Tolima. It should be remembered that the Ministry of Agricultural Development had announced last week the evacuation of nearly 12,000 cattle from the municipalities of Murillo Villahermosa Casabianca and Herveo Tolima. According to Villegas, the decision to leave the cattle in the area of ​​influence was made after listening to the requests of the community and the productive sectors. They are going to keep their cattle in the area in a first stage that is preventive and they go down to safe places to sleep and are moving daily to their work areas. This allows farm and plot workers to maintain their productive activities and take care of animals and crops, the vice minister told Caracol Radio. For their part, the Tolima ranchers stated that moving the animals would considerably affect production and would cause wear and tear on the bovines of the region. Zones should have carrying capacity, but we know that cold weather farms each have their own carrying capacity and we would incur in taking a problem to other regions, said Julián Hernández, representative of the Murillo ranchers, to the previously mentioned medium. Hernández also mentioned that the support of the National Government is required to feed the cattle for a while. We need food in the upper part of the land for an eventual eruption of the Nevado del Ruiz Volcano and for us to have enough food for at least 20 days so that our animals can sustain themselves if a catastrophe happens, pointed out the livestock leader. You might be interested in Abandonment of animals in TransMilenio what is happening. Given this, the Vice Minister of Agricultural Affairs announced that they are working on other strategies such as food banks in each municipality with salt silos and feed for cattle. You want to be up-to-date and know the latest news about the animal world. We invite you to see them at La Red Zoocial Also, if you have a story or are interested in telling yours with your pet, you can write to laredzoocialelespectadorcom. Follow us on Google News. Recommended topics. The Zoo Network. Animals. Pets. Nevado del Ruiz. Nevado del Ruiz animals. go to comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-nevado-del-ruiz-estos-son-los-municipios-en-alta-amenaza-noticias-hoy/
-</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>These are the municipalities in high threat due to the activity of the Nevado del Ruiz volcano</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 14 Apr 2023 1056 am. These are the municipalities in high threat due to the activity of the Nevado del Ruiz volcano. The situation of the volcano continues to be unstable according to the bulletin of the Colombian Geological Service. The thermal anomalies at the bottom of the crater are greater than those presented in previous months. Drafting Environment. 0. Save. In Tolima there are 14 municipalities at high risk EFE Ernesto Guzmán. Photo EFE Ernesto Guzman. The National Unit for Disaster Risk Management UNGRD released the list of the 22 municipalities of four departments that are in a state of high threat due to the activity of the Nevado del Ruiz volcano. Follow us on Google News. Recommended topics. snow-capped volcano of Ruiz. Nevado del Ruiz. volcano today. snowy del Ruiz today. go to comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/gobierno-presenta-rutas-de-evacuacion-ante-posible-erupcion-del-volcan-nevado-del-ruiz/
-</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Government presents evacuation routes before possible eruption of the volcano</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Home. Atmosphere. 13 Apr 2023 604 pm. Government presents evacuation routes before possible eruption of the volcano. The UNGRD together with the departments and municipalities presented the routes for the places that are in a high threat area. Drafting Environment. 0. Save. Recent image of the Nevado del Ruiz volcano, which is 5,321 meters above sea level AFP SGC. Photo AFP HANDOUT. This Thursday, April 13, the UNGRD National Risk Management Unit announced that after joint work with the teams from the departments of Caldas and Tolima and their municipalities, it established the evacuation routes for the places that are in the area of high threat due to the possible eruption of the Nevado del Ruiz volcano Lea Colombia should start hunting hippos in the short term Humboldt and Unal. As explained through a statement, these routes are arranged for the communities of the five municipalities that are within a 15-kilometer radius of the Casabianca volcano Herveo Murillo and Villahermosa in Tolima and Villamaría in Caldas These points are the ones that the UNGRD recommends evacuating before of an eruption, although there are 22 municipalities that are part of the high threat zone of the volcano. In the case of Villamaría Caldas, there is the route of the Condor in the high mountain area that ends in the Los Pirineos village. For the lower areas of the municipality, there is the evacuation route through the El Destierro village, which ends in the church of the village. Old Rioclaro says the UNGRD. For Casabianca Tolima, a heliport was arranged for the Aguascalientes and Mesetas villages, while in the lower area there is an evacuation route that circulates through the El Cardal El Coral villages and has the El Lembo village as a meeting point In the riverside areas there is the route that passes through the paths of La Joya Oronazo Cristalina San Ignacio Palmera and at the end it has a shelter in the path La Esperanza. In Hervero Tolima, the teams established the evacuation route for the communities located in the páramo area towards the municipal head of the villages of La Palma and Angulo E with a meeting point in Laguna Negra. In Murillo Tolima, the evacuation route is on the main road and leads to the urban area, starting in the village of La Cabaña and meeting point at the La Cabaña school. In the case of Villahermosa, which is an area close to the Arenas crater, the evacuation route connects the Guayabal Siberia and La Samaria villages with the urban center of the municipality where the meeting point at the La Samaria school is identified and an area is available where could operate a heliport. What is the state of the volcano. According to the most recent bulletin of the Colombian Geological Service SGC, seismic activity continues in the Nevado del Ruiz volcano. Yesterday, April 12, the type of seismicity increased compared to the previous day. At 803 in the morning, an earthquake of magnitude 19, the strongest on Wednesday, was recorded four kilometers deep from the volcano's crater. In the afternoon, the earthquakes were registered mainly in the northeastern sector of the volcano at depths between 3 and 5 km the maximum magnitude was 18 associated with the earthquake at 0357 pm at a depth of 4 km, reported the SGC. The emission of ash has not stopped either, although the output of sulfur dioxide into the atmosphere maintained levels similar to previous days. The maximum height of the column of gases and/or ash observed was 1800 meters, which represents a slight decrease compared to the one registered in the April 11 that was 2500 meters. Although the seismicity of the fracture can vary and change location, the presence of thermal anomalies in the bottom of the crater greater than those presented in previous months associated with the continuous output of ash are parameters that indicate a higher level of activity of the volcano with With respect to previous weeks, which must be monitored permanently and in a special way, they say from the SGC. Given this scenario, the orange alert will remain in place for the following weeks, since a reasonable amount of time is required for it to return to the yellow level, where trends and patterns can be observed that allow us to infer the possible decrease in volcanic activity. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz volcano. Nevado del Ruiz. go to comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/volcan-nevado-del-ruiz-permanecera-en-nivel-naranja-por-varias-semanas-noticias-hoy/
-</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Nevado del Ruiz volcano will remain in orange level for several weeks</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Home. Atmosphere. 0. Create your account right now and enjoy 10 free monthly content. Creat your account. 13 Apr 2023 1106 am. Nevado del Ruiz volcano will remain in orange level for several weeks. The SGC continues to permanently monitor anomalies, especially those related to the volcano's temperatures. Drafting Environment. 0. Save. The column of ash from the Nevado del Ruiz volcano reached 1,800 meters from the crater in the last few hours. Photo ivanchofr. Seismic activity continues in the Nevado del Ruiz volcano according to the most recent bulletin from the Colombian Geological Service SGC Yesterday, April 12, the type of seismicity increased compared to the previous day. Follow us on Google News. Recommended topics. Nevado del Ruiz volcano. Nevado del Ruiz. volcano today. SGC. UNGRD. Go to comments. The most viewed in Environment. Atmosphere. Ash emission from the Nevado del Ruiz volcano reached a height of 2000 meters. 10 May 2023 1217 pm. Atmosphere. Caldas will invest to improve the alert system in the area near Nevado del Ruiz. 16 hours ago. Blog The River. How do we study whales if we barely see them when they rise to the surface. 15 hours ago</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/la-actividad-del-volcan-nevado-del-ruiz-permanece-en-los-mismos-niveles-noticias-hoy/
-</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>The activity of the Nevado del Ruiz volcano remains at the same levels</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Home. Atmosphere. 12 Apr 2023 1053 am. The activity of the Nevado del Ruiz volcano remains at the same levels. The National Mining Agency made available 200 people who could support in case of an emergency. Drafting Environment. 0. Save. The column of smoke reached 2,500 meters in height according to the SGC. Photo AFP JJ BONILLA. The Colombian Geological Service SGC released a new bulletin on the seismic activity in the Nevado del Ruiz volcano. According to the entity, in the last few hours, earthquakes associated with the release of fluids were reported. Basically, ash came out almost continuously Falls were reported in Villa María and Finland We can say that fracture-type seismicity has ended, explained John Makario Londoño, technical director of geohazards at the SGC Lea Another great challenge is to mobilize the cows that live near the Ruiz volcano. The maximum seismic magnitude that was registered yesterday was 13, corresponding to a movement that occurred at 0503 am at a depth of more or less 3 km with respect to the top of the volcano. The maximum height of the column of gases and/or ash observed was 2,500 meters from the top of the volcano, which represents an increase since in previous days it was 1,800 m. Londoño explained that they are now monitoring the activities of fluids in the crater and in the nearby area, which indicates that the activity of the Nevado del Ruiz is still very unstable, which is why the orange arta continues. Lea Hipopótamo causes another accident in Puerto Triunfo Antioquia. The community is recommended to remain calm, follow all the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities and be attentive to the information provided by the Colombian Geological Service on the evolution of the state of the volcano, the entity indicated in the most recent newsletter. The UNGRD continues to monitor the situation through a Unified Command Post to ensure the evacuation process of the population, which is led by the Departmental Risk Management Councils, the adequacy of evacuation routes and contingency plans Read Five elephants killed in African country raise alarms for ivory trafficking. Recently, the ANM National Mining Agency announced that it made available to the UNGRD a team of approximately 200 Mining Rescue workers to support in case of an emergency. The rescuers are duly trained and prepared to support the care not only of mining emergencies but also those that have to do with landslides, rescue, pre-hospital care and logistics management, said Álvaro Pardo, president of the ANM. Follow us on Google News. Recommended topics. volcano. Nevado del Ruiz volcano. Nevado del Ruiz volcano today. Nevado del Ruiz. go to comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/otro-gran-reto-movilizar-65-mil-animales-que-viven-cerca-al-volcan-del-ruiz/
-</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Another great challenge is to mobilize the cows that live near the Ruiz volcano</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Home. Atmosphere. 11 Apr 2023 709 pm. Another great challenge is to mobilize the cows that live near the Ruiz volcano. Although the government has insisted on the need to evacuate 2,500 families from the areas that are at risk due to the orange alert of the Nevado del Ruiz volcano, there is still no clear logistics regarding the mobilization of animals such as pigs, horses, cows, among others. the one that some have not left their properties. Maria Paula Lizarazo. Journalist of Amazonia and Environment. 1. Save. Some cows in Murillo Tolima The ICA estimates that in the risk areas of the four departments there are around 65,000 animals. Photo AFP JOAQUIN SARMIENTO. Last week the Government announced that the evacuation of 2,500 families is necessary due to the orange alert in the Nevado del Ruiz volcano. These evacuations are being led by the authorities of each territory, however there is still no national balance of how many people have evacuated According to the National Unit for Disaster Risk Management, UNGRD, those who have already evacuated stayed at the home of their relatives or friends, so there are still no families in the shelters arranged by the mayors and governors. By Maria Paula Lizarazo. mariap_lizarazomlizarazozelespectadorcom. Follow us on Google News. Recommended topics. News today. News today Colombia. Nevado del Ruiz. Nevado del Ruiz evacuation. go to comments</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.elespectador.com/la-red-zoocial/nevado-del-ruiz-en-risaralda-preparan-contingencia-para-la-proteccion-de-animales-noticias-hoy/
-</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Nevado del Ruiz in Risaralda prepare contingency for the protection of animals</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Home. The Zoo Network. 11 Apr 2023 1103 am. Nevado del Ruiz in Risaralda prepare contingency for the protection of animals. According to local authorities between 120 and 150 animals will be taken to a temporary shelter. The Zoo Network. 0. Save. Local authorities continue to manage the evacuation processes for both people and domestic animals, livestock and wildlife. Photo AFP JOAQUIN SARMIENTO. The seismic activity of the Nevado del Ruiz volcano continues on orange alert as reported by the Colombian Geological Service SGC Given the risk of a possible eruption, local authorities continue to manage the evacuation processes for both people and domestic animals, livestock and wildlife. who reside in the departments influenced by the volcano, including Risaralda. Read Antioquia prosecute three people for trading and having wildlife. Given the contingency due to the activity of the volcano, the Ministry of the Environment delivered a series of recommendations to the authorities of this department in order to move forward with the transfer of animals. At first, the director of the Regional Autonomous Corporation of Risaralda Carder Julio César Gómez had indicated that camps should be set up to care for and safeguard mammals. The bears, which are quite large, mammals that are very large for that, we would have to set up some camps to care for all that fauna in the snowy area, a minor fauna that we could transfer to clinics, we are already talking with Ukumarí, with the APA, with veterinary clinics so that they can help if necessary informed the official. However, the Secretary for Agricultural Development Juan Carlos Toro warned that the proposal to move the animals to provisional shelters was discarded. We realized that this is not possible, there are animals that are 2,700 meters above sea level if we lower those animals to 1,500 or at 1000 meters we can affect them and indicated that there are only between 120 and 150 animals from various producers that can be taken to a temporary shelter. You might be interested in Nevado del Ruiz how to care for animals due to ash fall. Consequently, the head of the Agricultural Development office reported that in a meeting with the Ministry of Agriculture and the Colombian Agricultural Institute ICA, it was defined that in order to protect them from ash fall, the remaining animals will be housed indoors on the same farms through a known process. as fixed stable. In the same way, Toro explained that in order to feed the stabled animals, preventing them from consuming grass contaminated by ash, we sent a letter to the President of the Republic with a copy to the Minister of Agriculture where we requested silage, a procedure that is done to the grass to preserve it. For a long time, as long as the bag is not opened, the silage lasts for years. Finally, the Secretary of Agricultural Development of Risaralda recognized the willingness of the National Government to help and affirmed that the department is attentive to a positive response to effectively deploy the contingency. You want to be up-to-date and know the latest news about the animal world. We invite you to see them at La Red Zoocial Also, if you have a story or are interested in telling yours with your pet, you can write to laredzoocialelespectadorcom. Follow us on Google News. Recommended topics. The Zoo Network. Animals. Pets. Nevado del Ruiz. Nevado del Ruiz animals. Go to comments. Links sponsored by Taboola. It may interest you. Take this 1 time a day and lose 1 kg a week. Emag. Trade gold CFDs with one of the lowest spreads. IC Markets. We can't believe who Yalitza Aparicio is married to. Healthy George. Amazing ways to use Greedy Finance table salt. Greedyfinance. If you have spots and wrinkles, this trick can help you. The Colombian Portal. Cardiologists are begging people to stop eating this. investingcom. Take advantage of the seasonal prices to buy a gift for mom at the Santafé Shopping Center. Elections 2023 Yahir Acuña leads the polls in Sincelejo. by Taboola. Sponsored links. It may interest you. This is the state of the Nevado del Ruiz volcano on April 16. The viewer. Scientists make a huge discovery to prove the Biblical story on Mount Kilimanjaro is true. Greedyfinance. You want to live a unique adventure in Colombia. Wingo</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://www.elespectador.com/ambiente/continua-la-alerta-naranja-por-actividad-del-volcan-nevado-del-ruiz/
-</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>The orange alert continues due to the activity of the Nevado del Ruiz volcano</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Home. Atmosphere. 11 Apr 2023 1025 am. The orange alert continues due to the activity of the Nevado del Ruiz volcano. The Colombian Geological Service reported that although the activity may fluctuate, it is still very unstable. The alert will remain until a pattern of constant decrease in seismic activity is evidenced. Drafting Environment. 0. Save. Seismic activity continues inside the Nevado del Ruiz volcano. SGC photo. The seismic activity of the Nevado del Ruiz volcano remains unstable as indicated by the monitoring of the Colombian Geological Service SGC. For this reason, the orange alert level is expected to remain for several weeks. Nevado del Ruiz may be interested in three keys to understanding what is happening with the volcano. The movements of fluids and the emission of ash caused by the earthquakes and the fracture of the rock inside the mountain continued during Monday, April 10, and so far this Tuesday. The column of gases emitted by the volcano due to its activity reached a level of 2,300 meters according to the SGC. Likewise, the rock fracture inside it continues to be constantly monitored, which continues to be located in the southwestern sector of the volcano at depths between 2 and 4 km and at a distance from the crater between 2 and 6 km. In addition, the SGC requested calm from the communities surrounding the snowfall The National Unit for Disaster Risk Management UNGRD is still in charge of the evacuation of communities that are at risk, so they recommend following the indications of this entity We recommend Nevado del Ruiz three keys to understand what is happening with the volcano. Although the activity fluctuates and at times decreases, this does not mean that it has returned to a lower level of activity. To change the level and return to the yellow level, a reasonable time is required where trends and patterns can be observed that allow us to infer the possible decrease in activity. assured the SGC. It is also recommended to be attentive to the official information that is issued about the activity of the volcano. During the last weeks since the orange alert was declared, chains of disinformation have circulated through social networks that can generate panic You can also read The story of the first birth record of a lesser harpy eagle in Colombia. For this reason, the SGC clarifies that only when the alert level is changed to red will there be an imminent or ongoing eruption. You can see real-time images of the Nevado del Ruiz volcano in the cameras that the Colombian Geological Service has arranged from various points. Do you want to know the latest news on the environment? We invite you to see them in El Espectador. Follow us on Google News. Recommended topics. News today. News today Colombia. Volcano news. Ruiz Snowy Volcano. go to comments</t>
+          <t>Home. Science. 24 Apr 2023 1117 am. Behavior of the Ruiz volcano remains unstable activity is monitored. The Colombian Geological Service recommends following the instructions of the National Unit for Disaster Risk Management UNGRD and local authorities and being attentive to information on the evolution of the state of the volcano. Writing Science. 0. Save. Since March 30, an orange alert was declared on the Nevado del Ruiz volcano Photographic archive of the Colombian Geological Service. SGC photo. The Colombian Geological Service SGC maintains its monitoring of the Nevado del Ruiz volcano The activity on Sunday, April 23, maintained a similar behavior in terms of number and seismic energy compared to the previous day, April 22. The earthquakes associated with rock fracturing were mainly located in the south-southeast and east-northeast sectors of the volcano as well as in the Arenas crater at depths between 04 and 4 km. The maximum magnitude recorded was 08. The seismicity related to fluid movement was basically concentrated in the crater sector and some of these earthquakes were associated with pulsatile ash emissions that were confirmed through the web cameras used for volcanic monitoring. The maximum height of the column of gases and/or ash observed was 1,400 meters from the top of the volcano. In addition, the SGC reports that thermal anomalies in the bottom of the crater continue just like the output of sulfur dioxide into the atmosphere. You can see Scientists discover more than 19,000 new submarine volcanoes. The entity then reiterates that the Ruiz activity continues in Naranja Although it is possible that the levels of seismic activity as well as the levels of degassing or ash output decrease or are oscillating in the sense of increasing on some days and decreasing on others, this does not imply that the volcano has returned to its normal levels of activity To change the level and return to the yellow level, a reasonable amount of time is required to observe more continuous trends and patterns. During this time, in the event that there is an acceleration of the processes that suggest an imminent eruption or that the eruption itself occurs, the activity level will change to red. Recommended topics. Nevado del Ruiz. Ruiz Snowy Volcano. Nevado del Ruiz volcano activity. Follow us on Google News. go to comments</t>
         </is>
       </c>
     </row>
